--- a/carriers_source_analyses/greengas.carrier.xlsx
+++ b/carriers_source_analyses/greengas.carrier.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="16140" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="216">
   <si>
     <t>Source</t>
   </si>
@@ -706,7 +706,13 @@
     <t>This sheet summarizes the Fuel Chain Emissions attributes formatted in the way they are used by the Energy Transition Model. These FCE are only specified for carriers and at the moment only for NL.</t>
   </si>
   <si>
-    <t>N.B. These FCE attributes have to be exported to ETSource manually as this is not automated yet.</t>
+    <t>50/50 co-digestion and upgrading</t>
+  </si>
+  <si>
+    <t>from greengas</t>
+  </si>
+  <si>
+    <t>start_value</t>
   </si>
 </sst>
 </file>
@@ -728,12 +734,26 @@
     <numFmt numFmtId="174" formatCode="#,##0.000"/>
     <numFmt numFmtId="175" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1482,668 +1502,670 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="340">
+  <cellStyleXfs count="342">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="321" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="25" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="320" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="172" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="321" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="34" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="34" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="34" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="320" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="32" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="32" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="32" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="34" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="34" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
@@ -2152,58 +2174,62 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="34" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="340">
+  <cellStyles count="342">
     <cellStyle name="Comma" xfId="320" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2453,6 +2479,8 @@
     <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2554,6 +2582,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2562,14 +2594,14 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2608,6 +2640,67 @@
                   <a:cs typeface="Lucida Grande"/>
                 </a:rPr>
                 <a:t>Update carrier attributes on ETSource</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>165100</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>3949700</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>177800</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2052" name="export_fce" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2052"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Lucida Grande"/>
+                  <a:ea typeface="Lucida Grande"/>
+                  <a:cs typeface="Lucida Grande"/>
+                </a:rPr>
+                <a:t>Update FCE attributes on ETSource (next sheet)</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3392,6 +3485,7 @@
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
+      <definedName name="update_fce"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3957,28 +4051,28 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="224" t="s">
+      <c r="B2" s="226" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="226"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="228"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="227"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="229"/>
+      <c r="B3" s="229"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="231"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="230"/>
-      <c r="C4" s="231"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="232"/>
+      <c r="B4" s="232"/>
+      <c r="C4" s="233"/>
+      <c r="D4" s="233"/>
+      <c r="E4" s="234"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
@@ -4156,14 +4250,37 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>165100</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>3949700</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+          <mc:Fallback/>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2052" r:id="rId4" name="export_fce">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_fce">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>3949700</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4188,9 +4305,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K17"/>
+  <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4214,30 +4333,28 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="224" t="s">
+      <c r="B2" s="226" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="226"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="228"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="227"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="229"/>
+      <c r="B3" s="229"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="231"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="233" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="235"/>
+      <c r="B4" s="235"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="236"/>
+      <c r="E4" s="237"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
@@ -4303,13 +4420,14 @@
     </row>
     <row r="10" spans="2:11" s="152" customFormat="1" ht="16" thickBot="1">
       <c r="B10" s="153"/>
-      <c r="C10" s="158" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="158"/>
+      <c r="C10" s="224" t="s">
+        <v>214</v>
+      </c>
       <c r="E10" s="158"/>
       <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
+      <c r="G10" s="158" t="s">
+        <v>213</v>
+      </c>
       <c r="H10" s="158"/>
       <c r="I10" s="158"/>
       <c r="J10" s="157"/>
@@ -4447,15 +4565,34 @@
       <c r="J16" s="157"/>
     </row>
     <row r="17" spans="2:10" s="152" customFormat="1" ht="16" thickBot="1">
-      <c r="B17" s="161"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="162"/>
-      <c r="J17" s="163"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="225" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="217">
+        <v>1</v>
+      </c>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="160" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" s="157"/>
+    </row>
+    <row r="18" spans="2:10" s="152" customFormat="1" ht="16" thickBot="1">
+      <c r="B18" s="161"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4463,6 +4600,7 @@
     <mergeCell ref="B4:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/carriers_source_analyses/greengas.carrier.xlsx
+++ b/carriers_source_analyses/greengas.carrier.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="227">
   <si>
     <t>Source</t>
   </si>
@@ -169,12 +169,6 @@
   </si>
   <si>
     <t>Quintel assumption</t>
-  </si>
-  <si>
-    <t>Quintel definition</t>
-  </si>
-  <si>
-    <t>This is a definition</t>
   </si>
   <si>
     <t>kg/MJ</t>
@@ -714,32 +708,130 @@
   <si>
     <t>start_value</t>
   </si>
+  <si>
+    <t>potential_co2_conversion_per_mj</t>
+  </si>
+  <si>
+    <t>Actual CO2 emission from biomass</t>
+  </si>
+  <si>
+    <t>CO2 emission from biomass is defines as 0</t>
+  </si>
+  <si>
+    <t>UNFCCC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>potential_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>co2_conversion_per_mj</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>potential_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>co2_conversion_per_mj</t>
+    </r>
+  </si>
+  <si>
+    <t>IPCC</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>http://refman.et-model.com/publications/1710</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IPCC_2006_Guidelines for National Greenhouse Gas Inventories - Vol 2 Energy - Ch 1 Introduction.pdf</t>
+  </si>
+  <si>
+    <t>kg CO2/TJ</t>
+  </si>
+  <si>
+    <t>TJ/MJ</t>
+  </si>
+  <si>
+    <t>gas biomass</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="13">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000000000"/>
-    <numFmt numFmtId="168" formatCode="0.0000000000"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="172" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="#,##0.0"/>
-    <numFmt numFmtId="174" formatCode="#,##0.000"/>
-    <numFmt numFmtId="175" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="173" formatCode="0.0000"/>
+    <numFmt numFmtId="174" formatCode="#,##0.0"/>
+    <numFmt numFmtId="175" formatCode="#,##0.000"/>
+    <numFmt numFmtId="176" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -980,6 +1072,26 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF474747"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lettertype hoofdtekst"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1502,670 +1614,678 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="342">
+  <cellStyleXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="32" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="321" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" xfId="321" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="320" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="28" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="320" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="173" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="34" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="34" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="34" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="37" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="37" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="37" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="174" fontId="34" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="34" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="37" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="37" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
@@ -2174,62 +2294,83 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="34" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="37" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="173" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="342">
+  <cellStyles count="350">
     <cellStyle name="Comma" xfId="320" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2481,6 +2622,14 @@
     <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3360,6 +3509,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>602</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>642</xdr:row>
+      <xdr:rowOff>14908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7874000" y="114655600"/>
+          <a:ext cx="9779000" cy="8293100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3482,6 +3669,7 @@
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
+      <sheetName val="carrier_manager.xlsm"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -3490,6 +3678,7 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3851,10 +4040,10 @@
     <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4025,9 +4214,11 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K14"/>
+  <dimension ref="B1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4051,28 +4242,28 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="226" t="s">
-        <v>211</v>
-      </c>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="228"/>
+      <c r="B2" s="240" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="242"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="229"/>
-      <c r="C3" s="230"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="231"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="245"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="232"/>
-      <c r="C4" s="233"/>
-      <c r="D4" s="233"/>
-      <c r="E4" s="234"/>
+      <c r="B4" s="246"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="248"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
@@ -4125,7 +4316,7 @@
     <row r="9" spans="2:11" s="39" customFormat="1" ht="19" thickBot="1">
       <c r="B9" s="23"/>
       <c r="C9" s="218" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="18"/>
@@ -4163,7 +4354,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="151">
         <f>'Research data'!G7</f>
@@ -4173,7 +4364,7 @@
       <c r="G11" s="102"/>
       <c r="H11" s="30"/>
       <c r="I11" s="118" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J11" s="40"/>
     </row>
@@ -4183,53 +4374,75 @@
         <v>38</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" s="104">
         <f>'Research data'!G8</f>
         <v>0</v>
       </c>
       <c r="F12" s="34"/>
-      <c r="G12" s="102" t="s">
+      <c r="G12" s="226" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="227" t="s">
+        <v>217</v>
+      </c>
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="2:11" s="39" customFormat="1" ht="19" thickBot="1">
+      <c r="B13" s="23"/>
+      <c r="C13" s="226" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="239">
+        <f>Notes!G634</f>
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="226" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="252" t="s">
+        <v>220</v>
+      </c>
+      <c r="J13" s="40"/>
+    </row>
+    <row r="14" spans="2:11" ht="16" thickBot="1">
+      <c r="B14" s="38"/>
+      <c r="C14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="104">
+        <f>'Research data'!G10</f>
+        <v>15294905.3136</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="103" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
-      <c r="B13" s="38"/>
-      <c r="C13" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="104">
-        <f>'Research data'!G9</f>
-        <v>15294905.3136</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="118" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="91"/>
-      <c r="K13" s="33"/>
-    </row>
-    <row r="14" spans="2:11" s="152" customFormat="1" ht="16" thickBot="1">
-      <c r="B14" s="161"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="163"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="33"/>
+    </row>
+    <row r="15" spans="2:11" s="152" customFormat="1" ht="16" thickBot="1">
+      <c r="B15" s="161"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4308,7 +4521,7 @@
   <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4333,28 +4546,28 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="226" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="228"/>
+      <c r="B2" s="240" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="242"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="229"/>
-      <c r="C3" s="230"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="231"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="245"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="235"/>
-      <c r="C4" s="236"/>
-      <c r="D4" s="236"/>
-      <c r="E4" s="237"/>
+      <c r="B4" s="249"/>
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="251"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
@@ -4408,7 +4621,7 @@
     <row r="9" spans="2:11" s="39" customFormat="1" ht="18">
       <c r="B9" s="23"/>
       <c r="C9" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="158"/>
@@ -4421,12 +4634,12 @@
     <row r="10" spans="2:11" s="152" customFormat="1" ht="16" thickBot="1">
       <c r="B10" s="153"/>
       <c r="C10" s="224" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E10" s="158"/>
       <c r="F10" s="158"/>
       <c r="G10" s="158" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H10" s="158"/>
       <c r="I10" s="158"/>
@@ -4435,88 +4648,88 @@
     <row r="11" spans="2:11" s="152" customFormat="1" ht="16" thickBot="1">
       <c r="B11" s="153"/>
       <c r="C11" s="159" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" s="217">
-        <f>'Research data'!G13</f>
+        <f>'Research data'!G14</f>
         <v>0</v>
       </c>
       <c r="F11" s="158"/>
       <c r="G11" s="158" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H11" s="158"/>
       <c r="I11" s="160" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J11" s="157"/>
     </row>
     <row r="12" spans="2:11" s="152" customFormat="1" ht="16" thickBot="1">
       <c r="B12" s="153"/>
       <c r="C12" s="159" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" s="217">
-        <f>'Research data'!G14</f>
+        <f>'Research data'!G15</f>
         <v>1.7826580159842165E-2</v>
       </c>
       <c r="F12" s="158"/>
       <c r="G12" s="158" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H12" s="158"/>
       <c r="I12" s="160" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J12" s="157"/>
     </row>
     <row r="13" spans="2:11" s="152" customFormat="1" ht="16" thickBot="1">
       <c r="B13" s="153"/>
       <c r="C13" s="159" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E13" s="217">
-        <f>'Research data'!G15</f>
+        <f>'Research data'!G16</f>
         <v>1.6616173069515219E-3</v>
       </c>
       <c r="F13" s="158"/>
       <c r="G13" s="158" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H13" s="158"/>
       <c r="I13" s="160" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J13" s="157"/>
     </row>
     <row r="14" spans="2:11" s="152" customFormat="1" ht="16" thickBot="1">
       <c r="B14" s="153"/>
       <c r="C14" s="159" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="217">
-        <f>'Research data'!G16</f>
+        <f>'Research data'!G17</f>
         <v>0</v>
       </c>
       <c r="F14" s="158"/>
       <c r="G14" s="158" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H14" s="158"/>
       <c r="I14" s="160" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J14" s="157"/>
     </row>
@@ -4526,48 +4739,48 @@
         <v>38</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="217">
-        <f>'Research data'!G17</f>
+        <f>'Research data'!G18</f>
         <v>0</v>
       </c>
       <c r="F15" s="158"/>
       <c r="G15" s="158" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H15" s="158"/>
       <c r="I15" s="160" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J15" s="157"/>
     </row>
     <row r="16" spans="2:11" s="152" customFormat="1" ht="16" thickBot="1">
       <c r="B16" s="153"/>
       <c r="C16" s="159" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E16" s="217">
-        <f>'Research data'!G18</f>
+        <f>'Research data'!G19</f>
         <v>0</v>
       </c>
       <c r="F16" s="158"/>
       <c r="G16" s="158" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H16" s="158"/>
       <c r="I16" s="160" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J16" s="157"/>
     </row>
     <row r="17" spans="2:10" s="152" customFormat="1" ht="16" thickBot="1">
       <c r="B17" s="153"/>
       <c r="C17" s="225" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>1</v>
@@ -4579,7 +4792,7 @@
       <c r="G17" s="158"/>
       <c r="H17" s="158"/>
       <c r="I17" s="160" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J17" s="157"/>
     </row>
@@ -4614,10 +4827,10 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:Q19"/>
+  <dimension ref="B1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4636,14 +4849,14 @@
     <col min="12" max="12" width="3.25" style="63" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="63" customWidth="1"/>
     <col min="14" max="14" width="2.75" style="63" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="63" customWidth="1"/>
-    <col min="16" max="16" width="2.75" style="63" customWidth="1"/>
-    <col min="17" max="17" width="60" style="62" customWidth="1"/>
-    <col min="18" max="16384" width="10.625" style="62"/>
+    <col min="15" max="16" width="8.5" style="63" customWidth="1"/>
+    <col min="17" max="17" width="2.75" style="63" customWidth="1"/>
+    <col min="18" max="18" width="60" style="62" customWidth="1"/>
+    <col min="19" max="16384" width="10.625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16" thickBot="1"/>
-    <row r="2" spans="2:17">
+    <row r="1" spans="2:18" ht="16" thickBot="1"/>
+    <row r="2" spans="2:18">
       <c r="B2" s="64"/>
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
@@ -4659,9 +4872,10 @@
       <c r="N2" s="66"/>
       <c r="O2" s="66"/>
       <c r="P2" s="66"/>
-      <c r="Q2" s="67"/>
-    </row>
-    <row r="3" spans="2:17" s="24" customFormat="1">
+      <c r="Q2" s="66"/>
+      <c r="R2" s="67"/>
+    </row>
+    <row r="3" spans="2:18" s="24" customFormat="1">
       <c r="B3" s="23"/>
       <c r="C3" s="95" t="s">
         <v>29</v>
@@ -4676,26 +4890,29 @@
       </c>
       <c r="H3" s="95"/>
       <c r="I3" s="60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J3" s="60"/>
       <c r="K3" s="60" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L3" s="60"/>
       <c r="M3" s="60" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N3" s="60"/>
       <c r="O3" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:18">
       <c r="B4" s="68"/>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
@@ -4710,13 +4927,14 @@
       <c r="M4" s="92"/>
       <c r="N4" s="94"/>
       <c r="O4" s="92"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="2:17" ht="16" thickBot="1">
+      <c r="P4" s="92"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="2:18" ht="16" thickBot="1">
       <c r="B5" s="68"/>
       <c r="C5" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
@@ -4731,9 +4949,10 @@
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="2:17" ht="16" thickBot="1">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="2:18" ht="16" thickBot="1">
       <c r="B6" s="68"/>
       <c r="C6" s="105" t="s">
         <v>36</v>
@@ -4759,9 +4978,10 @@
       <c r="N6" s="17"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B7" s="5"/>
       <c r="C7" s="106" t="s">
         <v>37</v>
@@ -4773,7 +4993,7 @@
         <v>37</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G7" s="117">
         <f>K7</f>
@@ -4791,9 +5011,10 @@
       <c r="N7" s="17"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="112"/>
-    </row>
-    <row r="8" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="Q7" s="16"/>
+      <c r="R7" s="112"/>
+    </row>
+    <row r="8" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B8" s="5"/>
       <c r="C8" s="107" t="s">
         <v>38</v>
@@ -4805,7 +5026,7 @@
         <v>38</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" s="41">
         <v>0</v>
@@ -4819,70 +5040,85 @@
       <c r="N8" s="17"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="2:17" ht="16" thickBot="1">
-      <c r="B9" s="68"/>
-      <c r="C9" s="107" t="s">
-        <v>39</v>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="B9" s="5"/>
+      <c r="C9" s="228" t="s">
+        <v>218</v>
       </c>
       <c r="D9" s="107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="41">
-        <f>K9</f>
-        <v>15294905.3136</v>
-      </c>
-      <c r="H9" s="72"/>
+        <v>42</v>
+      </c>
+      <c r="G9" s="239">
+        <f>P9</f>
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
-      <c r="K9" s="41">
-        <f>Notes!H40</f>
-        <v>15294905.3136</v>
-      </c>
+      <c r="K9" s="17"/>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="149" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" s="152" customFormat="1">
-      <c r="B10" s="153"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
+      <c r="P9" s="253">
+        <f>Notes!G634</f>
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="2:18" ht="16" thickBot="1">
+      <c r="B10" s="68"/>
+      <c r="C10" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="41">
+        <f>K10</f>
+        <v>15294905.3136</v>
+      </c>
+      <c r="H10" s="72"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="K10" s="41">
+        <f>Notes!H40</f>
+        <v>15294905.3136</v>
+      </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
-      <c r="Q10" s="165"/>
-    </row>
-    <row r="11" spans="2:17" s="152" customFormat="1">
+      <c r="Q10" s="16"/>
+      <c r="R10" s="149" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" s="152" customFormat="1">
       <c r="B11" s="153"/>
-      <c r="C11" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="167"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
@@ -4891,18 +5127,19 @@
       <c r="N11" s="17"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
-      <c r="Q11" s="165"/>
-    </row>
-    <row r="12" spans="2:17" s="152" customFormat="1" ht="16" thickBot="1">
+      <c r="Q11" s="16"/>
+      <c r="R11" s="165"/>
+    </row>
+    <row r="12" spans="2:18" s="152" customFormat="1">
       <c r="B12" s="153"/>
-      <c r="C12" s="168" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="169"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="158"/>
+      <c r="C12" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="154"/>
       <c r="G12" s="154"/>
-      <c r="H12" s="170"/>
+      <c r="H12" s="167"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
@@ -4911,77 +5148,72 @@
       <c r="N12" s="17"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
-      <c r="Q12" s="165"/>
-    </row>
-    <row r="13" spans="2:17" s="152" customFormat="1" ht="16" thickBot="1">
+      <c r="Q12" s="16"/>
+      <c r="R12" s="165"/>
+    </row>
+    <row r="13" spans="2:18" s="152" customFormat="1" ht="16" thickBot="1">
       <c r="B13" s="153"/>
-      <c r="C13" s="171" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="216">
-        <f>M13</f>
-        <v>0</v>
-      </c>
+      <c r="C13" s="168" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="169"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="154"/>
       <c r="H13" s="170"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
-      <c r="M13" s="216">
-        <f>Notes!H281</f>
-        <v>0</v>
-      </c>
+      <c r="M13" s="17"/>
       <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="155"/>
-      <c r="Q13" s="165"/>
-    </row>
-    <row r="14" spans="2:17" s="152" customFormat="1" ht="16" thickBot="1">
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="165"/>
+    </row>
+    <row r="14" spans="2:18" s="152" customFormat="1" ht="16" thickBot="1">
       <c r="B14" s="153"/>
       <c r="C14" s="171" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
+        <v>174</v>
+      </c>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
       <c r="F14" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G14" s="216">
-        <f t="shared" ref="G14:G18" si="0">M14</f>
-        <v>1.7826580159842165E-2</v>
-      </c>
-      <c r="H14" s="17"/>
+        <f>M14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="170"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
       <c r="M14" s="216">
-        <f>Notes!H282</f>
-        <v>1.7826580159842165E-2</v>
+        <f>Notes!H281</f>
+        <v>0</v>
       </c>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="165"/>
-    </row>
-    <row r="15" spans="2:17" s="152" customFormat="1" ht="16" thickBot="1">
+      <c r="P14" s="17"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="165"/>
+    </row>
+    <row r="15" spans="2:18" s="152" customFormat="1" ht="16" thickBot="1">
       <c r="B15" s="153"/>
       <c r="C15" s="171" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
+        <v>177</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G15" s="216">
-        <f t="shared" si="0"/>
-        <v>1.6616173069515219E-3</v>
+        <f t="shared" ref="G15:G19" si="0">M15</f>
+        <v>1.7826580159842165E-2</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -4989,27 +5221,28 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
       <c r="M15" s="216">
-        <f>Notes!H283</f>
-        <v>1.6616173069515219E-3</v>
+        <f>Notes!H282</f>
+        <v>1.7826580159842165E-2</v>
       </c>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
-      <c r="P15" s="156"/>
-      <c r="Q15" s="165"/>
-    </row>
-    <row r="16" spans="2:17" s="152" customFormat="1" ht="16" thickBot="1">
+      <c r="P15" s="17"/>
+      <c r="Q15" s="156"/>
+      <c r="R15" s="165"/>
+    </row>
+    <row r="16" spans="2:18" s="152" customFormat="1" ht="16" thickBot="1">
       <c r="B16" s="153"/>
       <c r="C16" s="171" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D16" s="173"/>
       <c r="E16" s="173"/>
       <c r="F16" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G16" s="216">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6616173069515219E-3</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -5017,87 +5250,120 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
       <c r="M16" s="216">
-        <f>Notes!H284</f>
-        <v>0</v>
+        <f>Notes!H283</f>
+        <v>1.6616173069515219E-3</v>
       </c>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
-      <c r="P16" s="156"/>
-      <c r="Q16" s="165"/>
-    </row>
-    <row r="17" spans="2:17" s="152" customFormat="1" ht="16" thickBot="1">
+      <c r="P16" s="17"/>
+      <c r="Q16" s="156"/>
+      <c r="R16" s="165"/>
+    </row>
+    <row r="17" spans="2:18" s="152" customFormat="1" ht="16" thickBot="1">
       <c r="B17" s="153"/>
       <c r="C17" s="171" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="174"/>
-      <c r="E17" s="174"/>
+        <v>179</v>
+      </c>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
       <c r="F17" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G17" s="216">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="170"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
       <c r="M17" s="216">
-        <f>Notes!H285</f>
+        <f>Notes!H284</f>
         <v>0</v>
       </c>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
-      <c r="P17" s="155"/>
-      <c r="Q17" s="165"/>
-    </row>
-    <row r="18" spans="2:17" s="152" customFormat="1" ht="16" thickBot="1">
+      <c r="P17" s="17"/>
+      <c r="Q17" s="156"/>
+      <c r="R17" s="165"/>
+    </row>
+    <row r="18" spans="2:18" s="152" customFormat="1" ht="16" thickBot="1">
       <c r="B18" s="153"/>
       <c r="C18" s="171" t="s">
-        <v>182</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
+        <v>38</v>
+      </c>
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
       <c r="F18" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G18" s="216">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="17"/>
+      <c r="H18" s="170"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
       <c r="M18" s="216">
+        <f>Notes!H285</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="165"/>
+    </row>
+    <row r="19" spans="2:18" s="152" customFormat="1" ht="16" thickBot="1">
+      <c r="B19" s="153"/>
+      <c r="C19" s="171" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="216">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="216">
         <f>Notes!H286</f>
         <v>0</v>
       </c>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="155"/>
-      <c r="Q18" s="165"/>
-    </row>
-    <row r="19" spans="2:17" ht="16" thickBot="1">
-      <c r="B19" s="175"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="177"/>
-      <c r="K19" s="177"/>
-      <c r="L19" s="177"/>
-      <c r="M19" s="177"/>
-      <c r="N19" s="177"/>
-      <c r="O19" s="177"/>
-      <c r="P19" s="177"/>
-      <c r="Q19" s="178"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="155"/>
+      <c r="R19" s="165"/>
+    </row>
+    <row r="20" spans="2:18" ht="16" thickBot="1">
+      <c r="B20" s="175"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="176"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="177"/>
+      <c r="M20" s="177"/>
+      <c r="N20" s="177"/>
+      <c r="O20" s="177"/>
+      <c r="P20" s="177"/>
+      <c r="Q20" s="177"/>
+      <c r="R20" s="178"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5115,10 +5381,10 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:L13"/>
+  <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5223,27 +5489,27 @@
     <row r="7" spans="2:12" ht="16">
       <c r="B7" s="47"/>
       <c r="C7" s="119" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D7" s="55"/>
       <c r="E7" s="150" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F7" s="150" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J7" s="51"/>
       <c r="K7" s="51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L7" s="115"/>
     </row>
@@ -5266,20 +5532,20 @@
       </c>
       <c r="D9" s="56"/>
       <c r="E9" s="108" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H9" s="51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I9" s="51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J9" s="51"/>
       <c r="K9" s="51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L9" s="61"/>
     </row>
@@ -5303,7 +5569,7 @@
       </c>
       <c r="D11" s="59"/>
       <c r="E11" s="108" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F11" s="114"/>
       <c r="G11" s="57"/>
@@ -5311,7 +5577,7 @@
       <c r="I11" s="58"/>
       <c r="J11" s="58"/>
       <c r="K11" s="51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L11" s="115"/>
     </row>
@@ -5321,15 +5587,15 @@
     <row r="13" spans="2:12">
       <c r="B13" s="47"/>
       <c r="C13" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D13" s="55"/>
       <c r="E13" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F13" s="179"/>
       <c r="G13" s="55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H13" s="180">
         <v>2011</v>
@@ -5339,9 +5605,32 @@
       </c>
       <c r="J13" s="55"/>
       <c r="K13" s="181" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L13" s="182"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="47"/>
+      <c r="C14" s="229" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="56"/>
+      <c r="E14" s="230" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" s="230"/>
+      <c r="G14" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="254" t="s">
+        <v>222</v>
+      </c>
+      <c r="L14" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5356,9 +5645,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z597"/>
+  <dimension ref="B1:AI644"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
+    <sheetView topLeftCell="C609" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="H625" sqref="H625"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -5378,7 +5669,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="101" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="101"/>
       <c r="F2" s="101" t="s">
@@ -5450,7 +5741,7 @@
     <row r="5" spans="2:26" customFormat="1" ht="16">
       <c r="B5" s="98"/>
       <c r="C5" s="108" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="108"/>
       <c r="E5" s="108"/>
@@ -5507,11 +5798,11 @@
       <c r="B7" s="98"/>
       <c r="C7" s="108"/>
       <c r="D7" s="108" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E7" s="108"/>
       <c r="F7" s="108" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G7" s="108"/>
       <c r="H7" s="108"/>
@@ -5540,7 +5831,7 @@
       <c r="D8" s="108"/>
       <c r="E8" s="108"/>
       <c r="F8" s="108" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G8" s="108"/>
       <c r="H8" s="108"/>
@@ -5918,7 +6209,7 @@
       <c r="B22" s="98"/>
       <c r="C22" s="108"/>
       <c r="D22" s="108" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E22" s="108"/>
       <c r="F22" s="108"/>
@@ -5949,7 +6240,7 @@
       <c r="D23" s="108"/>
       <c r="E23" s="108"/>
       <c r="F23" s="108" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G23" s="108"/>
       <c r="H23" s="120">
@@ -5980,7 +6271,7 @@
       <c r="D24" s="108"/>
       <c r="E24" s="108"/>
       <c r="F24" s="108" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G24" s="108"/>
       <c r="H24" s="121">
@@ -6011,14 +6302,14 @@
       <c r="D25" s="108"/>
       <c r="E25" s="108"/>
       <c r="F25" s="108" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G25" s="108"/>
       <c r="H25" s="108">
         <v>47.4</v>
       </c>
       <c r="I25" s="108" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J25" s="108"/>
       <c r="K25" s="108"/>
@@ -6044,14 +6335,14 @@
       <c r="D26" s="108"/>
       <c r="E26" s="108"/>
       <c r="F26" s="108" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G26" s="108"/>
       <c r="H26" s="108">
         <v>14.2</v>
       </c>
       <c r="I26" s="108" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J26" s="108"/>
       <c r="K26" s="108"/>
@@ -6077,7 +6368,7 @@
       <c r="D27" s="108"/>
       <c r="E27" s="108"/>
       <c r="F27" s="108" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G27" s="108"/>
       <c r="H27" s="122">
@@ -6085,7 +6376,7 @@
         <v>13.632</v>
       </c>
       <c r="I27" s="108" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J27" s="108"/>
       <c r="K27" s="108"/>
@@ -6111,7 +6402,7 @@
       <c r="D28" s="108"/>
       <c r="E28" s="108"/>
       <c r="F28" s="145" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G28" s="145"/>
       <c r="H28" s="147">
@@ -6119,7 +6410,7 @@
         <v>1363.2</v>
       </c>
       <c r="I28" s="145" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J28" s="108"/>
       <c r="K28" s="108"/>
@@ -6145,14 +6436,14 @@
       <c r="D29" s="108"/>
       <c r="E29" s="108"/>
       <c r="F29" s="108" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G29" s="108"/>
       <c r="H29" s="108">
         <v>575</v>
       </c>
       <c r="I29" s="123" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J29" s="108"/>
       <c r="K29" s="108"/>
@@ -6178,7 +6469,7 @@
       <c r="D30" s="108"/>
       <c r="E30" s="108"/>
       <c r="F30" s="108" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G30" s="108"/>
       <c r="H30" s="121">
@@ -6209,7 +6500,7 @@
       <c r="D31" s="108"/>
       <c r="E31" s="108"/>
       <c r="F31" s="108" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G31" s="108"/>
       <c r="H31" s="108">
@@ -6217,7 +6508,7 @@
         <v>316.25</v>
       </c>
       <c r="I31" s="123" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J31" s="108"/>
       <c r="K31" s="108"/>
@@ -6243,14 +6534,14 @@
       <c r="D32" s="108"/>
       <c r="E32" s="108"/>
       <c r="F32" s="124" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G32" s="124"/>
       <c r="H32" s="108">
         <v>55.5</v>
       </c>
       <c r="I32" s="123" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J32" s="108"/>
       <c r="K32" s="108"/>
@@ -6276,7 +6567,7 @@
       <c r="D33" s="108"/>
       <c r="E33" s="108"/>
       <c r="F33" s="124" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G33" s="124"/>
       <c r="H33" s="108">
@@ -6284,7 +6575,7 @@
         <v>50</v>
       </c>
       <c r="I33" s="123" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J33" s="108"/>
       <c r="K33" s="108"/>
@@ -6310,14 +6601,14 @@
       <c r="D34" s="108"/>
       <c r="E34" s="108"/>
       <c r="F34" s="124" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G34" s="124"/>
       <c r="H34" s="108">
         <v>7.1599999999999995E-4</v>
       </c>
       <c r="I34" s="123" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J34" s="108"/>
       <c r="K34" s="108"/>
@@ -6343,7 +6634,7 @@
       <c r="D35" s="108"/>
       <c r="E35" s="108"/>
       <c r="F35" s="124" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G35" s="124"/>
       <c r="H35" s="108">
@@ -6351,7 +6642,7 @@
         <v>39.737999999999992</v>
       </c>
       <c r="I35" s="123" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J35" s="108"/>
       <c r="K35" s="108"/>
@@ -6377,7 +6668,7 @@
       <c r="D36" s="108"/>
       <c r="E36" s="108"/>
       <c r="F36" s="124" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G36" s="124"/>
       <c r="H36" s="108">
@@ -6385,7 +6676,7 @@
         <v>35.799999999999997</v>
       </c>
       <c r="I36" s="123" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J36" s="108"/>
       <c r="K36" s="108"/>
@@ -6411,7 +6702,7 @@
       <c r="D37" s="108"/>
       <c r="E37" s="108"/>
       <c r="F37" s="108" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G37" s="108"/>
       <c r="H37" s="108">
@@ -6419,7 +6710,7 @@
         <v>11.32175</v>
       </c>
       <c r="I37" s="123" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J37" s="108"/>
       <c r="K37" s="108"/>
@@ -6445,7 +6736,7 @@
       <c r="D38" s="108"/>
       <c r="E38" s="108"/>
       <c r="F38" s="108" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G38" s="108"/>
       <c r="H38" s="108">
@@ -6453,7 +6744,7 @@
         <v>11.32175</v>
       </c>
       <c r="I38" s="123" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J38" s="108"/>
       <c r="K38" s="108"/>
@@ -6479,7 +6770,7 @@
       <c r="D39" s="108"/>
       <c r="E39" s="108"/>
       <c r="F39" s="145" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G39" s="146"/>
       <c r="H39" s="148">
@@ -6487,7 +6778,7 @@
         <v>15433809.6</v>
       </c>
       <c r="I39" s="123" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J39" s="108"/>
       <c r="K39" s="108"/>
@@ -6513,7 +6804,7 @@
       <c r="D40" s="108"/>
       <c r="E40" s="108"/>
       <c r="F40" s="145" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G40" s="146"/>
       <c r="H40" s="148">
@@ -6521,7 +6812,7 @@
         <v>15294905.3136</v>
       </c>
       <c r="I40" s="123" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J40" s="108"/>
       <c r="K40" s="108"/>
@@ -7281,7 +7572,7 @@
       <c r="B68" s="98"/>
       <c r="C68" s="108"/>
       <c r="D68" s="108" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E68" s="108"/>
       <c r="F68" s="108"/>
@@ -7312,14 +7603,14 @@
       <c r="D69" s="125"/>
       <c r="E69" s="125"/>
       <c r="F69" s="125" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G69" s="125"/>
       <c r="H69" s="126">
         <v>0.90800000000000003</v>
       </c>
       <c r="I69" s="127" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K69" s="125"/>
       <c r="L69" s="125"/>
@@ -7344,14 +7635,14 @@
       <c r="D70" s="125"/>
       <c r="E70" s="125"/>
       <c r="F70" s="129" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G70" s="129"/>
       <c r="H70" s="126">
         <v>7.8E-2</v>
       </c>
       <c r="I70" s="127" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K70" s="125"/>
       <c r="L70" s="125"/>
@@ -7376,14 +7667,14 @@
       <c r="D71" s="125"/>
       <c r="E71" s="125"/>
       <c r="F71" s="129" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G71" s="129"/>
       <c r="H71" s="126">
         <v>1.4E-2</v>
       </c>
       <c r="I71" s="127" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K71" s="125"/>
       <c r="L71" s="125"/>
@@ -7408,17 +7699,17 @@
       <c r="D72" s="125"/>
       <c r="E72" s="125"/>
       <c r="F72" s="130" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G72" s="130"/>
       <c r="H72" s="131">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I72" s="132" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K72" s="125" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L72" s="125"/>
       <c r="M72" s="125"/>
@@ -7468,14 +7759,14 @@
       <c r="D74" s="125"/>
       <c r="E74" s="125"/>
       <c r="F74" s="125" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G74" s="125"/>
       <c r="H74" s="126">
         <v>0.99099999999999999</v>
       </c>
       <c r="I74" s="127" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K74" s="125"/>
       <c r="L74" s="125"/>
@@ -7500,14 +7791,14 @@
       <c r="D75" s="125"/>
       <c r="E75" s="125"/>
       <c r="F75" s="129" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G75" s="129"/>
       <c r="H75" s="133">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I75" s="127" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K75" s="125"/>
       <c r="L75" s="125"/>
@@ -7558,17 +7849,17 @@
       <c r="D77" s="108"/>
       <c r="E77" s="108"/>
       <c r="F77" s="130" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G77" s="130"/>
       <c r="H77" s="135">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="I77" s="132" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K77" s="125" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L77" s="108"/>
       <c r="M77" s="108"/>
@@ -7592,17 +7883,17 @@
       <c r="D78" s="108"/>
       <c r="E78" s="108"/>
       <c r="F78" s="130" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G78" s="130"/>
       <c r="H78" s="136">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I78" s="132" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K78" s="125" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L78" s="108"/>
       <c r="M78" s="108"/>
@@ -9001,7 +9292,7 @@
       <c r="B130" s="98"/>
       <c r="C130" s="108"/>
       <c r="D130" s="108" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E130" s="108"/>
       <c r="F130" s="108"/>
@@ -9032,14 +9323,14 @@
       <c r="D131" s="108"/>
       <c r="E131" s="108"/>
       <c r="F131" s="111" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G131" s="111"/>
       <c r="H131" s="111" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I131" s="111" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J131" s="108"/>
       <c r="K131" s="108"/>
@@ -9065,7 +9356,7 @@
       <c r="D132" s="108"/>
       <c r="E132" s="108"/>
       <c r="F132" s="111" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G132" s="111"/>
       <c r="H132" s="111"/>
@@ -9094,14 +9385,14 @@
       <c r="D133" s="108"/>
       <c r="E133" s="108"/>
       <c r="F133" s="137" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G133" s="137"/>
       <c r="H133" s="138">
         <v>1248457</v>
       </c>
       <c r="I133" s="108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J133" s="108"/>
       <c r="K133" s="138"/>
@@ -9127,14 +9418,14 @@
       <c r="D134" s="108"/>
       <c r="E134" s="108"/>
       <c r="F134" s="137" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G134" s="137"/>
       <c r="H134" s="138">
         <v>1564661</v>
       </c>
       <c r="I134" s="108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J134" s="108"/>
       <c r="K134" s="138"/>
@@ -9160,14 +9451,14 @@
       <c r="D135" s="108"/>
       <c r="E135" s="108"/>
       <c r="F135" s="108" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G135" s="108"/>
       <c r="H135" s="138">
         <v>79384</v>
       </c>
       <c r="I135" s="108" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J135" s="108"/>
       <c r="K135" s="138"/>
@@ -9193,7 +9484,7 @@
       <c r="D136" s="108"/>
       <c r="E136" s="108"/>
       <c r="F136" s="108" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G136" s="108"/>
       <c r="H136" s="139">
@@ -9201,12 +9492,12 @@
         <v>17.718419328832006</v>
       </c>
       <c r="I136" s="108" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J136" s="108"/>
       <c r="K136" s="139"/>
       <c r="L136" s="111" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M136" s="108"/>
       <c r="N136" s="108"/>
@@ -9256,7 +9547,7 @@
       <c r="D138" s="108"/>
       <c r="E138" s="108"/>
       <c r="F138" s="111" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G138" s="111"/>
       <c r="H138" s="111"/>
@@ -9285,14 +9576,14 @@
       <c r="D139" s="108"/>
       <c r="E139" s="108"/>
       <c r="F139" s="137" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G139" s="137"/>
       <c r="H139" s="138">
         <v>1468130</v>
       </c>
       <c r="I139" s="108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J139" s="108"/>
       <c r="K139" s="139"/>
@@ -9318,14 +9609,14 @@
       <c r="D140" s="108"/>
       <c r="E140" s="108"/>
       <c r="F140" s="137" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G140" s="137"/>
       <c r="H140" s="138">
         <v>1777989</v>
       </c>
       <c r="I140" s="108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J140" s="108"/>
       <c r="K140" s="139"/>
@@ -9351,14 +9642,14 @@
       <c r="D141" s="108"/>
       <c r="E141" s="108"/>
       <c r="F141" s="108" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G141" s="108"/>
       <c r="H141" s="138">
         <v>79384</v>
       </c>
       <c r="I141" s="108" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J141" s="108"/>
       <c r="K141" s="139"/>
@@ -9384,7 +9675,7 @@
       <c r="D142" s="108"/>
       <c r="E142" s="108"/>
       <c r="F142" s="108" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G142" s="108"/>
       <c r="H142" s="138">
@@ -9392,7 +9683,7 @@
         <v>78669.543999999994</v>
       </c>
       <c r="I142" s="108" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J142" s="108"/>
       <c r="K142" s="139"/>
@@ -9418,7 +9709,7 @@
       <c r="D143" s="108"/>
       <c r="E143" s="108"/>
       <c r="F143" s="108" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G143" s="108"/>
       <c r="H143" s="139">
@@ -9426,7 +9717,7 @@
         <v>20.631357670002512</v>
       </c>
       <c r="I143" s="108" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J143" s="108"/>
       <c r="K143" s="139"/>
@@ -9479,7 +9770,7 @@
       <c r="D145" s="108"/>
       <c r="E145" s="108"/>
       <c r="F145" s="108" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G145" s="108"/>
       <c r="H145" s="108"/>
@@ -9508,14 +9799,14 @@
       <c r="D146" s="108"/>
       <c r="E146" s="108"/>
       <c r="F146" s="111" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G146" s="111"/>
       <c r="H146" s="111">
         <v>2000</v>
       </c>
       <c r="I146" s="111" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J146" s="108"/>
       <c r="K146" s="108"/>
@@ -9541,7 +9832,7 @@
       <c r="D147" s="108"/>
       <c r="E147" s="108"/>
       <c r="F147" s="111" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G147" s="111"/>
       <c r="H147" s="111"/>
@@ -9570,14 +9861,14 @@
       <c r="D148" s="108"/>
       <c r="E148" s="108"/>
       <c r="F148" s="137" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G148" s="137"/>
       <c r="H148" s="138">
         <v>4520492</v>
       </c>
       <c r="I148" s="108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J148" s="138"/>
       <c r="K148" s="108"/>
@@ -9603,14 +9894,14 @@
       <c r="D149" s="108"/>
       <c r="E149" s="108"/>
       <c r="F149" s="137" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G149" s="137"/>
       <c r="H149" s="138">
         <v>5562658</v>
       </c>
       <c r="I149" s="108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J149" s="138"/>
       <c r="K149" s="108"/>
@@ -9636,14 +9927,14 @@
       <c r="D150" s="108"/>
       <c r="E150" s="108"/>
       <c r="F150" s="108" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G150" s="108"/>
       <c r="H150" s="138">
         <v>317535</v>
       </c>
       <c r="I150" s="108" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J150" s="108"/>
       <c r="K150" s="108"/>
@@ -9669,7 +9960,7 @@
       <c r="D151" s="108"/>
       <c r="E151" s="108"/>
       <c r="F151" s="108" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G151" s="108"/>
       <c r="H151" s="139">
@@ -9677,7 +9968,7 @@
         <v>15.877226132552318</v>
       </c>
       <c r="I151" s="108" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J151" s="108"/>
       <c r="K151" s="108"/>
@@ -9730,7 +10021,7 @@
       <c r="D153" s="108"/>
       <c r="E153" s="108"/>
       <c r="F153" s="111" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G153" s="111"/>
       <c r="H153" s="111"/>
@@ -9759,14 +10050,14 @@
       <c r="D154" s="108"/>
       <c r="E154" s="108"/>
       <c r="F154" s="137" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G154" s="137"/>
       <c r="H154" s="138">
         <v>5069011</v>
       </c>
       <c r="I154" s="108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J154" s="108"/>
       <c r="K154" s="108"/>
@@ -9792,14 +10083,14 @@
       <c r="D155" s="108"/>
       <c r="E155" s="108"/>
       <c r="F155" s="137" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G155" s="137"/>
       <c r="H155" s="138">
         <v>6103024</v>
       </c>
       <c r="I155" s="108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J155" s="108"/>
       <c r="K155" s="108"/>
@@ -9825,14 +10116,14 @@
       <c r="D156" s="108"/>
       <c r="E156" s="108"/>
       <c r="F156" s="108" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G156" s="108"/>
       <c r="H156" s="138">
         <v>317535</v>
       </c>
       <c r="I156" s="108" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J156" s="108"/>
       <c r="K156" s="108"/>
@@ -9858,7 +10149,7 @@
       <c r="D157" s="108"/>
       <c r="E157" s="108"/>
       <c r="F157" s="108" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G157" s="108"/>
       <c r="H157" s="138">
@@ -9866,7 +10157,7 @@
         <v>314677.185</v>
       </c>
       <c r="I157" s="108" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J157" s="108"/>
       <c r="K157" s="108"/>
@@ -9892,7 +10183,7 @@
       <c r="D158" s="108"/>
       <c r="E158" s="108"/>
       <c r="F158" s="108" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G158" s="108"/>
       <c r="H158" s="139">
@@ -9900,7 +10191,7 @@
         <v>17.751580878035373</v>
       </c>
       <c r="I158" s="108" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J158" s="108"/>
       <c r="K158" s="108"/>
@@ -10979,7 +11270,7 @@
       <c r="D198" s="108"/>
       <c r="E198" s="108"/>
       <c r="F198" s="108" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G198" s="108"/>
       <c r="H198" s="108"/>
@@ -11035,7 +11326,7 @@
       <c r="D200" s="108"/>
       <c r="E200" s="108"/>
       <c r="F200" s="108" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G200" s="108"/>
       <c r="H200" s="108"/>
@@ -11095,7 +11386,7 @@
         <v>64.79281693354568</v>
       </c>
       <c r="I202" s="108" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K202" s="108"/>
       <c r="L202" s="108"/>
@@ -11124,7 +11415,7 @@
         <v>7716.9048000000012</v>
       </c>
       <c r="I203" s="108" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K203" s="108"/>
       <c r="L203" s="108"/>
@@ -11152,7 +11443,7 @@
         <v>1000000</v>
       </c>
       <c r="I204" s="108" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J204" s="108"/>
       <c r="K204" s="108"/>
@@ -11182,7 +11473,7 @@
         <v>500000</v>
       </c>
       <c r="I205" s="108" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J205" s="108"/>
       <c r="K205" s="108"/>
@@ -11316,7 +11607,7 @@
       <c r="D210" s="108"/>
       <c r="E210" s="108"/>
       <c r="F210" s="108" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G210" s="108"/>
       <c r="H210" s="108"/>
@@ -11343,18 +11634,18 @@
       <c r="B211" s="98"/>
       <c r="C211" s="108"/>
       <c r="D211" s="108" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E211" s="108"/>
       <c r="F211" s="123" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G211" s="123"/>
       <c r="H211" s="108">
         <v>21</v>
       </c>
       <c r="I211" s="108" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K211" s="108"/>
       <c r="L211" s="108"/>
@@ -11406,7 +11697,7 @@
       <c r="D213" s="108"/>
       <c r="E213" s="108"/>
       <c r="F213" s="108" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G213" s="108"/>
       <c r="H213" s="144">
@@ -11414,7 +11705,7 @@
         <v>1420</v>
       </c>
       <c r="I213" s="123" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K213" s="108"/>
       <c r="M213" s="108"/>
@@ -11438,7 +11729,7 @@
       <c r="D214" s="108"/>
       <c r="E214" s="108"/>
       <c r="F214" s="108" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G214" s="108"/>
       <c r="H214" s="144">
@@ -11446,7 +11737,7 @@
         <v>7716.9048000000012</v>
       </c>
       <c r="I214" s="123" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K214" s="108"/>
       <c r="M214" s="108"/>
@@ -11470,7 +11761,7 @@
       <c r="D215" s="108"/>
       <c r="E215" s="108"/>
       <c r="F215" s="108" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G215" s="108"/>
       <c r="H215" s="144">
@@ -11478,10 +11769,10 @@
         <v>5.4344400000000004</v>
       </c>
       <c r="I215" s="123" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J215" s="108" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K215" s="108"/>
       <c r="M215" s="108"/>
@@ -11505,7 +11796,7 @@
       <c r="D216" s="108"/>
       <c r="E216" s="108"/>
       <c r="F216" s="108" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G216" s="108"/>
       <c r="H216" s="140">
@@ -11513,7 +11804,7 @@
         <v>3.8642436019166646</v>
       </c>
       <c r="I216" s="123" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K216" s="108"/>
       <c r="M216" s="108"/>
@@ -11615,7 +11906,7 @@
         <v>24</v>
       </c>
       <c r="D220" s="101" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E220" s="101"/>
       <c r="F220" s="101" t="s">
@@ -11691,7 +11982,7 @@
     <row r="223" spans="2:26" customFormat="1" ht="16">
       <c r="B223" s="98"/>
       <c r="C223" s="108" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D223" s="108"/>
       <c r="E223" s="108"/>
@@ -11745,7 +12036,7 @@
       <c r="B225" s="98"/>
       <c r="C225" s="108"/>
       <c r="D225" s="108" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E225" s="108"/>
       <c r="F225" s="108"/>
@@ -11775,14 +12066,14 @@
       <c r="D226" s="108"/>
       <c r="E226" s="108"/>
       <c r="F226" s="108" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G226" s="108"/>
       <c r="H226" s="108">
         <v>47.4</v>
       </c>
       <c r="I226" s="108" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J226" s="108"/>
       <c r="K226" s="108"/>
@@ -11808,14 +12099,14 @@
       <c r="D227" s="108"/>
       <c r="E227" s="108"/>
       <c r="F227" s="108" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G227" s="108"/>
       <c r="H227" s="108">
         <v>14.2</v>
       </c>
       <c r="I227" s="108" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J227" s="108"/>
       <c r="K227" s="108"/>
@@ -12731,7 +13022,7 @@
         <v>24</v>
       </c>
       <c r="D261" s="101" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E261" s="101"/>
       <c r="F261" s="101" t="s">
@@ -12782,7 +13073,7 @@
     <row r="263" spans="2:26" customFormat="1" ht="17">
       <c r="B263" s="153"/>
       <c r="C263" s="184" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D263" s="108"/>
       <c r="E263" s="108"/>
@@ -12865,23 +13156,23 @@
     <row r="267" spans="2:26" s="152" customFormat="1" ht="96" thickBot="1">
       <c r="B267" s="153"/>
       <c r="D267" s="152" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E267" s="152" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M267" s="188"/>
       <c r="N267" s="189" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O267" s="189"/>
       <c r="P267" s="190"/>
       <c r="Q267"/>
       <c r="R267" s="191" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="S267" s="189" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T267" s="189"/>
       <c r="U267" s="190"/>
@@ -12889,14 +13180,14 @@
     <row r="268" spans="2:26" s="152" customFormat="1" ht="16">
       <c r="B268" s="153"/>
       <c r="M268" s="192" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N268" s="193"/>
       <c r="O268" s="194"/>
       <c r="P268" s="195"/>
       <c r="Q268"/>
       <c r="R268" s="192" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="S268" s="193"/>
       <c r="T268" s="194"/>
@@ -12905,7 +13196,7 @@
     <row r="269" spans="2:26" s="152" customFormat="1" ht="16">
       <c r="B269" s="153"/>
       <c r="M269" s="196" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N269" s="197">
         <v>7.9890805766714692</v>
@@ -12914,7 +13205,7 @@
       <c r="P269" s="199"/>
       <c r="Q269"/>
       <c r="R269" s="200" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S269" s="197"/>
       <c r="T269" s="198"/>
@@ -12923,7 +13214,7 @@
     <row r="270" spans="2:26" s="152" customFormat="1" ht="16">
       <c r="B270" s="153"/>
       <c r="M270" s="196" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N270" s="197">
         <v>4.5482472277188012E-2</v>
@@ -12932,7 +13223,7 @@
       <c r="P270" s="199"/>
       <c r="Q270"/>
       <c r="R270" s="200" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S270" s="197"/>
       <c r="T270" s="198"/>
@@ -12941,7 +13232,7 @@
     <row r="271" spans="2:26" s="152" customFormat="1" ht="16">
       <c r="B271" s="153"/>
       <c r="M271" s="196" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N271" s="197">
         <v>2.9196099920271799E-2</v>
@@ -12957,10 +13248,10 @@
     <row r="272" spans="2:26" s="152" customFormat="1" ht="16">
       <c r="B272" s="153"/>
       <c r="E272" s="185" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M272" s="196" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N272" s="197">
         <v>17.826580159842166</v>
@@ -12976,7 +13267,7 @@
     <row r="273" spans="2:21" s="152" customFormat="1" ht="17" thickBot="1">
       <c r="B273" s="153"/>
       <c r="E273" s="108" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F273" s="108"/>
       <c r="G273" s="108"/>
@@ -12984,14 +13275,14 @@
         <v>0</v>
       </c>
       <c r="I273" s="108" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J273" s="108"/>
       <c r="K273" s="108" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M273" s="203" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N273" s="204"/>
       <c r="O273" s="205"/>
@@ -13005,7 +13296,7 @@
     <row r="274" spans="2:21" s="152" customFormat="1" ht="16">
       <c r="B274" s="153"/>
       <c r="E274" s="108" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F274" s="108"/>
       <c r="G274" s="108"/>
@@ -13014,19 +13305,19 @@
         <v>17.826580159842166</v>
       </c>
       <c r="I274" s="108" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J274" s="108"/>
       <c r="K274" s="108"/>
       <c r="M274" s="192" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N274" s="193"/>
       <c r="O274" s="194"/>
       <c r="P274" s="195"/>
       <c r="Q274"/>
       <c r="R274" s="192" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="S274" s="193"/>
       <c r="T274" s="194"/>
@@ -13035,7 +13326,7 @@
     <row r="275" spans="2:21" s="152" customFormat="1" ht="16">
       <c r="B275" s="153"/>
       <c r="E275" s="108" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F275" s="108"/>
       <c r="G275" s="108"/>
@@ -13044,19 +13335,19 @@
         <v>1.6616173069515219</v>
       </c>
       <c r="I275" s="108" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J275" s="108"/>
       <c r="K275" s="108"/>
       <c r="M275" s="196" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N275" s="197"/>
       <c r="O275" s="198"/>
       <c r="P275" s="199"/>
       <c r="Q275"/>
       <c r="R275" s="200" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S275" s="197"/>
       <c r="T275" s="198"/>
@@ -13066,7 +13357,7 @@
       <c r="B276" s="153"/>
       <c r="D276" s="108"/>
       <c r="E276" s="108" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F276" s="108"/>
       <c r="G276" s="108"/>
@@ -13075,12 +13366,12 @@
         <v>0</v>
       </c>
       <c r="I276" s="108" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J276" s="108"/>
       <c r="K276" s="108"/>
       <c r="M276" s="196" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N276" s="197">
         <v>6.6464692278060872E-2</v>
@@ -13089,7 +13380,7 @@
       <c r="P276" s="199"/>
       <c r="Q276"/>
       <c r="R276" s="200" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S276" s="197">
         <v>6.3635256261973708E-2</v>
@@ -13109,12 +13400,12 @@
         <v>0</v>
       </c>
       <c r="I277" s="108" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J277" s="108"/>
       <c r="K277" s="108"/>
       <c r="M277" s="196" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N277" s="197"/>
       <c r="O277" s="198"/>
@@ -13129,7 +13420,7 @@
       <c r="B278" s="153"/>
       <c r="D278" s="108"/>
       <c r="E278" s="108" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F278" s="108"/>
       <c r="G278" s="108"/>
@@ -13137,14 +13428,14 @@
         <v>0</v>
       </c>
       <c r="I278" s="108" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J278" s="108"/>
       <c r="K278" s="108" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M278" s="196" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N278" s="197">
         <v>1.6616173069515219</v>
@@ -13167,7 +13458,7 @@
       <c r="I279" s="108"/>
       <c r="J279" s="108"/>
       <c r="M279" s="203" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N279" s="207">
         <v>6.3635256261973708E-2</v>
@@ -13190,14 +13481,14 @@
       <c r="I280" s="108"/>
       <c r="J280" s="108"/>
       <c r="M280" s="192" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N280" s="193"/>
       <c r="O280" s="194"/>
       <c r="P280" s="195"/>
       <c r="Q280"/>
       <c r="R280" s="192" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S280" s="193"/>
       <c r="T280" s="194"/>
@@ -13207,7 +13498,7 @@
       <c r="B281" s="153"/>
       <c r="D281" s="108"/>
       <c r="E281" s="108" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F281" s="108"/>
       <c r="G281" s="108"/>
@@ -13216,21 +13507,21 @@
         <v>0</v>
       </c>
       <c r="I281" s="108" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J281" s="108"/>
       <c r="K281" s="108" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M281" s="196" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N281" s="208"/>
       <c r="O281" s="198"/>
       <c r="P281" s="202"/>
       <c r="Q281"/>
       <c r="R281" s="200" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S281" s="208"/>
       <c r="T281" s="198"/>
@@ -13239,7 +13530,7 @@
     <row r="282" spans="2:21" s="152" customFormat="1" ht="16">
       <c r="B282" s="153"/>
       <c r="E282" s="108" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F282" s="108"/>
       <c r="G282" s="108"/>
@@ -13248,19 +13539,19 @@
         <v>1.7826580159842165E-2</v>
       </c>
       <c r="I282" s="108" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J282" s="108"/>
       <c r="K282" s="108"/>
       <c r="M282" s="196" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N282" s="208"/>
       <c r="O282" s="198"/>
       <c r="P282" s="202"/>
       <c r="Q282"/>
       <c r="R282" s="200" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S282" s="208"/>
       <c r="T282" s="198"/>
@@ -13269,7 +13560,7 @@
     <row r="283" spans="2:21" s="152" customFormat="1" ht="16">
       <c r="B283" s="153"/>
       <c r="E283" s="108" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F283" s="108"/>
       <c r="G283" s="108"/>
@@ -13278,12 +13569,12 @@
         <v>1.6616173069515219E-3</v>
       </c>
       <c r="I283" s="108" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J283" s="108"/>
       <c r="K283" s="108"/>
       <c r="M283" s="196" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N283" s="208"/>
       <c r="O283" s="198"/>
@@ -13297,7 +13588,7 @@
     <row r="284" spans="2:21" s="152" customFormat="1" ht="16">
       <c r="B284" s="153"/>
       <c r="E284" s="108" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F284" s="108"/>
       <c r="G284" s="108"/>
@@ -13306,12 +13597,12 @@
         <v>0</v>
       </c>
       <c r="I284" s="108" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J284" s="108"/>
       <c r="K284" s="108"/>
       <c r="M284" s="196" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N284" s="197">
         <v>0</v>
@@ -13336,12 +13627,12 @@
         <v>0</v>
       </c>
       <c r="I285" s="108" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J285" s="108"/>
       <c r="K285" s="108"/>
       <c r="M285" s="203" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N285" s="209"/>
       <c r="O285" s="205"/>
@@ -13355,7 +13646,7 @@
     <row r="286" spans="2:21" s="152" customFormat="1" ht="16">
       <c r="B286" s="153"/>
       <c r="E286" s="108" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F286" s="108"/>
       <c r="G286" s="108"/>
@@ -13364,21 +13655,21 @@
         <v>0</v>
       </c>
       <c r="I286" s="108" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J286" s="108"/>
       <c r="K286" s="108" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M286" s="192" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N286" s="208"/>
       <c r="O286" s="210"/>
       <c r="P286" s="211"/>
       <c r="Q286"/>
       <c r="R286" s="192" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S286" s="208"/>
       <c r="T286" s="210"/>
@@ -13387,14 +13678,14 @@
     <row r="287" spans="2:21" s="152" customFormat="1" ht="16">
       <c r="B287" s="153"/>
       <c r="M287" s="196" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N287" s="208"/>
       <c r="O287" s="198"/>
       <c r="P287" s="202"/>
       <c r="Q287"/>
       <c r="R287" s="200" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S287" s="208"/>
       <c r="T287" s="198"/>
@@ -13403,14 +13694,14 @@
     <row r="288" spans="2:21" s="152" customFormat="1" ht="16">
       <c r="B288" s="153"/>
       <c r="M288" s="196" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N288" s="208"/>
       <c r="O288" s="198"/>
       <c r="P288" s="202"/>
       <c r="Q288"/>
       <c r="R288" s="200" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S288" s="208"/>
       <c r="T288" s="212"/>
@@ -13426,7 +13717,7 @@
       <c r="J289" s="187"/>
       <c r="K289" s="187"/>
       <c r="M289" s="196" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N289" s="208"/>
       <c r="O289" s="198"/>
@@ -13447,7 +13738,7 @@
       <c r="J290" s="108"/>
       <c r="K290" s="108"/>
       <c r="M290" s="196" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N290" s="197">
         <v>0</v>
@@ -13470,7 +13761,7 @@
       <c r="J291" s="108"/>
       <c r="K291" s="108"/>
       <c r="M291" s="203" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N291" s="208"/>
       <c r="O291" s="213"/>
@@ -13491,14 +13782,14 @@
       <c r="J292" s="108"/>
       <c r="K292" s="108"/>
       <c r="M292" s="192" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N292" s="193"/>
       <c r="O292" s="194"/>
       <c r="P292" s="195"/>
       <c r="Q292"/>
       <c r="R292" s="192" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="S292" s="193"/>
       <c r="T292" s="194"/>
@@ -13514,14 +13805,14 @@
       <c r="J293" s="108"/>
       <c r="K293" s="108"/>
       <c r="M293" s="196" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N293" s="197"/>
       <c r="O293" s="198"/>
       <c r="P293" s="199"/>
       <c r="Q293"/>
       <c r="R293" s="200" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S293" s="197"/>
       <c r="T293" s="198"/>
@@ -13537,14 +13828,14 @@
       <c r="J294" s="108"/>
       <c r="K294" s="108"/>
       <c r="M294" s="196" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N294" s="197"/>
       <c r="O294" s="198"/>
       <c r="P294" s="199"/>
       <c r="Q294"/>
       <c r="R294" s="200" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S294" s="197"/>
       <c r="T294" s="198"/>
@@ -13560,7 +13851,7 @@
       <c r="J295" s="108"/>
       <c r="K295" s="108"/>
       <c r="M295" s="196" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N295" s="197"/>
       <c r="O295" s="198"/>
@@ -13581,7 +13872,7 @@
       <c r="J296" s="108"/>
       <c r="K296" s="187"/>
       <c r="M296" s="196" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N296" s="197"/>
       <c r="O296" s="198"/>
@@ -13602,7 +13893,7 @@
       <c r="J297" s="108"/>
       <c r="K297" s="187"/>
       <c r="M297" s="203" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N297" s="204"/>
       <c r="O297" s="205"/>
@@ -13739,7 +14030,7 @@
         <v>24</v>
       </c>
       <c r="D324" s="101" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E324" s="101"/>
       <c r="F324" s="101" t="s">
@@ -13790,12 +14081,12 @@
     <row r="326" spans="2:25" customFormat="1" ht="16">
       <c r="B326" s="98"/>
       <c r="C326" s="108" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D326" s="108"/>
       <c r="E326" s="108"/>
       <c r="F326" s="108" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G326" s="108"/>
       <c r="H326" s="108"/>
@@ -13835,11 +14126,11 @@
       <c r="B328" s="98"/>
       <c r="C328" s="108"/>
       <c r="D328" s="108" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E328" s="108"/>
       <c r="F328" s="108" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G328" s="108"/>
       <c r="H328" s="108"/>
@@ -13948,7 +14239,7 @@
       <c r="D333" s="108"/>
       <c r="E333" s="108"/>
       <c r="F333" s="111" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G333" s="111"/>
       <c r="H333" s="108"/>
@@ -13972,12 +14263,12 @@
       <c r="D334" s="108"/>
       <c r="E334" s="108"/>
       <c r="F334" s="108" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G334" s="108"/>
       <c r="H334" s="108"/>
       <c r="I334" s="108" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J334" s="108"/>
       <c r="K334" s="108"/>
@@ -13998,14 +14289,14 @@
       <c r="D335" s="108"/>
       <c r="E335" s="108"/>
       <c r="F335" s="108" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G335" s="108"/>
       <c r="H335" s="108">
         <v>16.7</v>
       </c>
       <c r="I335" s="108" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J335" s="108"/>
       <c r="K335" s="108"/>
@@ -14026,14 +14317,14 @@
       <c r="D336" s="108"/>
       <c r="E336" s="108"/>
       <c r="F336" s="108" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G336" s="108"/>
       <c r="H336" s="108">
         <v>61.145000000000003</v>
       </c>
       <c r="I336" s="108" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J336" s="108"/>
       <c r="K336" s="108"/>
@@ -14054,14 +14345,14 @@
       <c r="D337" s="108"/>
       <c r="E337" s="108"/>
       <c r="F337" s="108" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G337" s="108"/>
       <c r="H337" s="108">
         <v>4.8920000000000003</v>
       </c>
       <c r="I337" s="108" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J337" s="108"/>
       <c r="K337" s="108"/>
@@ -14082,7 +14373,7 @@
       <c r="D338" s="108"/>
       <c r="E338" s="108"/>
       <c r="F338" s="108" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G338" s="108"/>
       <c r="H338" s="122">
@@ -14109,14 +14400,14 @@
       <c r="D339" s="108"/>
       <c r="E339" s="108"/>
       <c r="F339" s="108" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G339" s="108"/>
       <c r="H339" s="108">
         <v>12.228999999999999</v>
       </c>
       <c r="I339" s="108" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J339" s="108"/>
       <c r="K339" s="108"/>
@@ -14137,14 +14428,14 @@
       <c r="D340" s="108"/>
       <c r="E340" s="108"/>
       <c r="F340" s="108" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G340" s="108"/>
       <c r="H340" s="108">
         <v>0.97799999999999998</v>
       </c>
       <c r="I340" s="108" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J340" s="108"/>
       <c r="K340" s="108"/>
@@ -14219,7 +14510,7 @@
       <c r="D344" s="108"/>
       <c r="E344" s="108"/>
       <c r="F344" s="111" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G344" s="111"/>
       <c r="H344" s="108"/>
@@ -14243,14 +14534,14 @@
       <c r="D345" s="108"/>
       <c r="E345" s="108"/>
       <c r="F345" s="108" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G345" s="108"/>
       <c r="H345" s="108">
         <v>6.6</v>
       </c>
       <c r="I345" s="108" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J345" s="108"/>
       <c r="K345" s="108"/>
@@ -14271,14 +14562,14 @@
       <c r="D346" s="108"/>
       <c r="E346" s="108"/>
       <c r="F346" s="108" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G346" s="108"/>
       <c r="H346" s="108">
         <v>16</v>
       </c>
       <c r="I346" s="108" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J346" s="108"/>
       <c r="K346" s="108"/>
@@ -14299,14 +14590,14 @@
       <c r="D347" s="108"/>
       <c r="E347" s="108"/>
       <c r="F347" s="108" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G347" s="108"/>
       <c r="H347" s="108">
         <v>5.4039999999999999</v>
       </c>
       <c r="I347" s="108" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J347" s="108"/>
       <c r="K347" s="108"/>
@@ -14327,14 +14618,14 @@
       <c r="D348" s="108"/>
       <c r="E348" s="108"/>
       <c r="F348" s="108" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G348" s="108"/>
       <c r="H348" s="108">
         <v>2.972</v>
       </c>
       <c r="I348" s="108" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J348" s="108"/>
       <c r="K348" s="108"/>
@@ -14355,7 +14646,7 @@
       <c r="D349" s="108"/>
       <c r="E349" s="108"/>
       <c r="F349" s="108" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G349" s="108"/>
       <c r="H349" s="122">
@@ -14382,14 +14673,14 @@
       <c r="D350" s="108"/>
       <c r="E350" s="108"/>
       <c r="F350" s="108" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G350" s="108"/>
       <c r="H350" s="108">
         <v>2.7280000000000002</v>
       </c>
       <c r="I350" s="108" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J350" s="108"/>
       <c r="K350" s="108"/>
@@ -14410,14 +14701,14 @@
       <c r="D351" s="108"/>
       <c r="E351" s="108"/>
       <c r="F351" s="108" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G351" s="108"/>
       <c r="H351" s="108">
         <v>1.5009999999999999</v>
       </c>
       <c r="I351" s="108" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J351" s="108"/>
       <c r="K351" s="108"/>
@@ -14460,7 +14751,7 @@
       <c r="D353" s="108"/>
       <c r="E353" s="108"/>
       <c r="F353" s="111" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G353" s="111"/>
       <c r="H353" s="108"/>
@@ -14484,7 +14775,7 @@
       <c r="D354" s="108"/>
       <c r="E354" s="108"/>
       <c r="F354" s="108" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G354" s="108"/>
       <c r="H354" s="108">
@@ -14492,7 +14783,7 @@
         <v>16.350000000000001</v>
       </c>
       <c r="I354" s="108" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J354" s="108"/>
       <c r="K354" s="108"/>
@@ -14535,7 +14826,7 @@
       <c r="D356" s="108"/>
       <c r="E356" s="108"/>
       <c r="F356" s="111" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G356" s="111"/>
       <c r="H356" s="108"/>
@@ -14559,7 +14850,7 @@
       <c r="D357" s="108"/>
       <c r="E357" s="108"/>
       <c r="F357" s="108" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G357" s="108"/>
       <c r="H357" s="108">
@@ -14567,7 +14858,7 @@
         <v>2.4790000000000001</v>
       </c>
       <c r="I357" s="108" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J357" s="108"/>
       <c r="K357" s="108"/>
@@ -14588,7 +14879,7 @@
       <c r="D358" s="108"/>
       <c r="E358" s="108"/>
       <c r="F358" s="108" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G358" s="108"/>
       <c r="H358" s="122">
@@ -14596,7 +14887,7 @@
         <v>40.348599999999998</v>
       </c>
       <c r="I358" s="108" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J358" s="108"/>
       <c r="K358" s="108"/>
@@ -14793,7 +15084,7 @@
         <v>24</v>
       </c>
       <c r="D367" s="101" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E367" s="101"/>
       <c r="F367" s="101" t="s">
@@ -14844,7 +15135,7 @@
     <row r="369" spans="2:21" customFormat="1" ht="16">
       <c r="B369" s="98"/>
       <c r="C369" s="115" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D369" s="108"/>
       <c r="E369" s="108"/>
@@ -14892,14 +15183,14 @@
       <c r="D371" s="108"/>
       <c r="E371" s="108"/>
       <c r="F371" s="108" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G371" s="108"/>
       <c r="H371" s="108">
         <v>72703</v>
       </c>
       <c r="I371" s="108" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J371" s="108"/>
       <c r="K371" s="108"/>
@@ -14920,7 +15211,7 @@
       <c r="D372" s="108"/>
       <c r="E372" s="108"/>
       <c r="F372" s="108" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G372" s="108"/>
       <c r="H372" s="108">
@@ -14928,7 +15219,7 @@
         <v>72.703000000000003</v>
       </c>
       <c r="I372" s="108" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J372" s="108"/>
       <c r="K372" s="108"/>
@@ -15609,7 +15900,7 @@
         <v>24</v>
       </c>
       <c r="D403" s="101" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E403" s="101"/>
       <c r="F403" s="101" t="s">
@@ -15660,7 +15951,7 @@
     <row r="405" spans="2:25" customFormat="1" ht="16">
       <c r="B405" s="98"/>
       <c r="C405" s="108" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D405" s="108"/>
       <c r="E405" s="108"/>
@@ -15771,10 +16062,10 @@
       </c>
       <c r="F409" s="108"/>
       <c r="G409" s="109" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H409" s="110" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I409" s="108"/>
       <c r="J409" s="108"/>
@@ -15802,10 +16093,10 @@
         <v>50</v>
       </c>
       <c r="G410" s="108" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H410" s="110" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I410" s="108"/>
       <c r="J410" s="108"/>
@@ -15831,10 +16122,10 @@
       <c r="D411" s="108"/>
       <c r="F411" s="108"/>
       <c r="G411" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H411" s="110" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I411" s="108"/>
       <c r="J411" s="108"/>
@@ -15860,10 +16151,10 @@
       <c r="D412" s="108"/>
       <c r="F412" s="108"/>
       <c r="G412" s="108" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H412" s="110" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I412" s="108"/>
       <c r="J412" s="108"/>
@@ -15919,7 +16210,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G414" s="108" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H414" s="108"/>
       <c r="I414" s="108"/>
@@ -15945,17 +16236,17 @@
       <c r="C415" s="108"/>
       <c r="D415" s="108"/>
       <c r="E415" s="108" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F415" s="108">
         <f>F414*F410</f>
         <v>27.500000000000004</v>
       </c>
       <c r="G415" s="108" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H415" s="108" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I415" s="108"/>
       <c r="J415" s="108"/>
@@ -16444,7 +16735,7 @@
         <v>24</v>
       </c>
       <c r="D463" s="101" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E463" s="101"/>
       <c r="F463" s="101" t="s">
@@ -16495,7 +16786,7 @@
     <row r="465" spans="2:25" customFormat="1" ht="16">
       <c r="B465" s="98"/>
       <c r="C465" s="114" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D465" s="108"/>
       <c r="E465" s="108"/>
@@ -17420,19 +17711,19 @@
     <row r="578" spans="2:7" customFormat="1" ht="16">
       <c r="B578" s="98"/>
       <c r="G578" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="579" spans="2:7" customFormat="1" ht="16">
       <c r="B579" s="98"/>
       <c r="G579" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="580" spans="2:7" customFormat="1" ht="16">
       <c r="B580" s="98"/>
       <c r="G580" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="581" spans="2:7" customFormat="1" ht="16">
@@ -17471,20 +17762,1720 @@
     <row r="592" spans="2:7" customFormat="1" ht="16">
       <c r="B592" s="98"/>
     </row>
-    <row r="593" spans="2:2" customFormat="1" ht="16">
+    <row r="593" spans="2:35" customFormat="1" ht="16">
       <c r="B593" s="98"/>
     </row>
-    <row r="594" spans="2:2" customFormat="1" ht="16">
+    <row r="594" spans="2:35" customFormat="1" ht="16">
       <c r="B594" s="98"/>
     </row>
-    <row r="595" spans="2:2" customFormat="1" ht="16">
+    <row r="595" spans="2:35" customFormat="1" ht="16">
       <c r="B595" s="98"/>
     </row>
-    <row r="596" spans="2:2" customFormat="1" ht="16">
+    <row r="596" spans="2:35" customFormat="1" ht="16">
       <c r="B596" s="98"/>
     </row>
-    <row r="597" spans="2:2" customFormat="1" ht="16">
+    <row r="597" spans="2:35" customFormat="1" ht="17" thickBot="1">
       <c r="B597" s="98"/>
+    </row>
+    <row r="598" spans="2:35" s="231" customFormat="1">
+      <c r="B598" s="232"/>
+      <c r="C598" s="233" t="s">
+        <v>24</v>
+      </c>
+      <c r="D598" s="233" t="s">
+        <v>49</v>
+      </c>
+      <c r="E598" s="233"/>
+      <c r="F598" s="233" t="s">
+        <v>31</v>
+      </c>
+      <c r="G598" s="233"/>
+      <c r="H598" s="233"/>
+      <c r="I598" s="233"/>
+      <c r="J598" s="233"/>
+      <c r="K598" s="233"/>
+      <c r="L598" s="233"/>
+      <c r="M598" s="233"/>
+      <c r="N598" s="233"/>
+      <c r="O598" s="233"/>
+      <c r="P598" s="233"/>
+      <c r="Q598" s="233"/>
+      <c r="R598" s="233"/>
+      <c r="S598" s="233"/>
+      <c r="T598" s="233"/>
+      <c r="U598" s="233"/>
+      <c r="V598" s="218"/>
+      <c r="W598" s="218"/>
+      <c r="X598" s="218"/>
+      <c r="Y598" s="218"/>
+      <c r="Z598" s="218"/>
+      <c r="AA598" s="218"/>
+      <c r="AB598" s="218"/>
+      <c r="AC598" s="218"/>
+      <c r="AD598" s="218"/>
+      <c r="AE598" s="218"/>
+      <c r="AF598" s="218"/>
+      <c r="AG598" s="218"/>
+      <c r="AH598" s="218"/>
+      <c r="AI598" s="218"/>
+    </row>
+    <row r="599" spans="2:35" s="231" customFormat="1">
+      <c r="B599" s="234"/>
+      <c r="C599" s="187"/>
+      <c r="D599" s="187"/>
+      <c r="E599" s="187"/>
+      <c r="F599" s="187"/>
+      <c r="G599" s="187"/>
+      <c r="H599" s="187"/>
+      <c r="I599" s="187"/>
+      <c r="J599" s="187"/>
+      <c r="K599" s="187"/>
+      <c r="L599" s="187"/>
+      <c r="M599" s="187"/>
+      <c r="N599" s="187"/>
+      <c r="O599" s="187"/>
+      <c r="P599" s="187"/>
+      <c r="Q599" s="187"/>
+      <c r="R599" s="187"/>
+      <c r="S599" s="187"/>
+      <c r="T599" s="187"/>
+      <c r="U599" s="187"/>
+      <c r="V599" s="187"/>
+      <c r="W599" s="187"/>
+      <c r="X599" s="187"/>
+      <c r="Y599" s="187"/>
+      <c r="Z599" s="187"/>
+      <c r="AA599" s="187"/>
+      <c r="AB599" s="187"/>
+      <c r="AC599" s="187"/>
+      <c r="AD599" s="187"/>
+      <c r="AE599" s="187"/>
+      <c r="AF599" s="187"/>
+      <c r="AG599" s="187"/>
+      <c r="AH599" s="187"/>
+      <c r="AI599" s="187"/>
+    </row>
+    <row r="600" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B600" s="234"/>
+      <c r="C600" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="D600" s="236"/>
+      <c r="E600" s="236"/>
+      <c r="F600" s="236"/>
+      <c r="G600" s="236"/>
+      <c r="H600" s="236"/>
+      <c r="I600" s="236"/>
+      <c r="J600" s="108"/>
+      <c r="K600" s="108"/>
+      <c r="L600" s="108"/>
+      <c r="M600" s="108"/>
+      <c r="N600" s="108"/>
+      <c r="O600" s="108"/>
+      <c r="P600" s="108"/>
+      <c r="Q600" s="108"/>
+      <c r="R600" s="108"/>
+      <c r="S600" s="108"/>
+      <c r="T600" s="108"/>
+      <c r="U600" s="108"/>
+      <c r="V600" s="108"/>
+      <c r="W600" s="108"/>
+      <c r="X600" s="108"/>
+      <c r="Y600" s="108"/>
+      <c r="Z600" s="237"/>
+      <c r="AA600" s="237"/>
+      <c r="AB600" s="237"/>
+      <c r="AC600" s="237"/>
+      <c r="AD600" s="237"/>
+      <c r="AE600" s="237"/>
+      <c r="AF600" s="237"/>
+      <c r="AG600" s="237"/>
+      <c r="AH600" s="237"/>
+      <c r="AI600" s="237"/>
+    </row>
+    <row r="601" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B601" s="234"/>
+      <c r="C601" s="236"/>
+      <c r="D601" s="236"/>
+      <c r="E601" s="236"/>
+      <c r="F601" s="236"/>
+      <c r="G601" s="236"/>
+      <c r="H601" s="236"/>
+      <c r="I601" s="236"/>
+      <c r="J601" s="108"/>
+      <c r="K601" s="108"/>
+      <c r="L601" s="108"/>
+      <c r="M601" s="108"/>
+      <c r="N601" s="108"/>
+      <c r="O601" s="108"/>
+      <c r="P601" s="108"/>
+      <c r="Q601" s="108"/>
+      <c r="R601" s="108"/>
+      <c r="S601" s="108"/>
+      <c r="T601" s="108"/>
+      <c r="U601" s="108"/>
+      <c r="V601" s="108"/>
+      <c r="W601" s="108"/>
+      <c r="X601" s="108"/>
+      <c r="Y601" s="108"/>
+      <c r="Z601" s="237"/>
+      <c r="AA601" s="237"/>
+      <c r="AB601" s="237"/>
+      <c r="AC601" s="237"/>
+      <c r="AD601" s="237"/>
+      <c r="AE601" s="237"/>
+      <c r="AF601" s="237"/>
+      <c r="AG601" s="237"/>
+      <c r="AH601" s="237"/>
+      <c r="AI601" s="237"/>
+    </row>
+    <row r="602" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B602" s="234"/>
+      <c r="C602" s="236"/>
+      <c r="D602" s="236"/>
+      <c r="E602" s="236"/>
+      <c r="F602" s="236"/>
+      <c r="G602" s="236"/>
+      <c r="H602" s="236"/>
+      <c r="I602" s="236"/>
+      <c r="J602" s="108"/>
+      <c r="K602" s="108"/>
+      <c r="L602" s="108"/>
+      <c r="M602" s="108"/>
+      <c r="N602" s="108"/>
+      <c r="O602" s="108"/>
+      <c r="P602" s="108"/>
+      <c r="Q602" s="108"/>
+      <c r="R602" s="108"/>
+      <c r="S602" s="108"/>
+      <c r="T602" s="108"/>
+      <c r="U602" s="108"/>
+      <c r="V602" s="108"/>
+      <c r="W602" s="108"/>
+      <c r="X602" s="108"/>
+      <c r="Y602" s="108"/>
+      <c r="Z602" s="237"/>
+      <c r="AA602" s="237"/>
+      <c r="AB602" s="237"/>
+      <c r="AC602" s="237"/>
+      <c r="AD602" s="237"/>
+      <c r="AE602" s="237"/>
+      <c r="AF602" s="237"/>
+      <c r="AG602" s="237"/>
+      <c r="AH602" s="237"/>
+      <c r="AI602" s="237"/>
+    </row>
+    <row r="603" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B603" s="234"/>
+      <c r="C603" s="236"/>
+      <c r="D603" s="236"/>
+      <c r="E603" s="236"/>
+      <c r="F603" s="236"/>
+      <c r="G603" s="236"/>
+      <c r="H603" s="236"/>
+      <c r="I603" s="236"/>
+      <c r="J603" s="108"/>
+      <c r="K603" s="108"/>
+      <c r="L603" s="108"/>
+      <c r="M603" s="108"/>
+      <c r="N603" s="108"/>
+      <c r="O603" s="108"/>
+      <c r="P603" s="108"/>
+      <c r="Q603" s="108"/>
+      <c r="R603" s="108"/>
+      <c r="S603" s="108"/>
+      <c r="T603" s="108"/>
+      <c r="U603" s="108"/>
+      <c r="V603" s="108"/>
+      <c r="W603" s="108"/>
+      <c r="X603" s="108"/>
+      <c r="Y603" s="108"/>
+      <c r="Z603" s="237"/>
+      <c r="AA603" s="237"/>
+      <c r="AB603" s="237"/>
+      <c r="AC603" s="237"/>
+      <c r="AD603" s="237"/>
+      <c r="AE603" s="237"/>
+      <c r="AF603" s="237"/>
+      <c r="AG603" s="237"/>
+      <c r="AH603" s="237"/>
+      <c r="AI603" s="237"/>
+    </row>
+    <row r="604" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B604" s="234"/>
+      <c r="C604" s="236"/>
+      <c r="D604" s="236"/>
+      <c r="E604" s="236"/>
+      <c r="F604" s="236"/>
+      <c r="G604" s="236"/>
+      <c r="H604" s="236"/>
+      <c r="I604" s="236"/>
+      <c r="J604" s="108"/>
+      <c r="K604" s="108"/>
+      <c r="L604" s="108"/>
+      <c r="M604" s="108"/>
+      <c r="N604" s="108"/>
+      <c r="O604" s="108"/>
+      <c r="P604" s="108"/>
+      <c r="Q604" s="108"/>
+      <c r="R604" s="108"/>
+      <c r="S604" s="108"/>
+      <c r="T604" s="108"/>
+      <c r="U604" s="108"/>
+      <c r="V604" s="108"/>
+      <c r="W604" s="108"/>
+      <c r="X604" s="108"/>
+      <c r="Y604" s="108"/>
+      <c r="Z604" s="237"/>
+      <c r="AA604" s="237"/>
+      <c r="AB604" s="237"/>
+      <c r="AC604" s="237"/>
+      <c r="AD604" s="237"/>
+      <c r="AE604" s="237"/>
+      <c r="AF604" s="237"/>
+      <c r="AG604" s="237"/>
+      <c r="AH604" s="237"/>
+      <c r="AI604" s="237"/>
+    </row>
+    <row r="605" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B605" s="234"/>
+      <c r="C605" s="236"/>
+      <c r="J605" s="108"/>
+      <c r="K605" s="108"/>
+      <c r="L605" s="108"/>
+      <c r="M605" s="108"/>
+      <c r="N605" s="108"/>
+      <c r="O605" s="108"/>
+      <c r="P605" s="108"/>
+      <c r="Q605" s="108"/>
+      <c r="R605" s="108"/>
+      <c r="S605" s="108"/>
+      <c r="T605" s="108"/>
+      <c r="U605" s="108"/>
+      <c r="V605" s="108"/>
+      <c r="W605" s="108"/>
+      <c r="X605" s="108"/>
+      <c r="Y605" s="108"/>
+      <c r="Z605" s="237"/>
+      <c r="AA605" s="237"/>
+      <c r="AB605" s="237"/>
+      <c r="AC605" s="237"/>
+      <c r="AD605" s="237"/>
+      <c r="AE605" s="237"/>
+      <c r="AF605" s="237"/>
+      <c r="AG605" s="237"/>
+      <c r="AH605" s="237"/>
+      <c r="AI605" s="237"/>
+    </row>
+    <row r="606" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B606" s="234"/>
+      <c r="C606" s="236"/>
+      <c r="J606" s="108"/>
+      <c r="K606" s="108"/>
+      <c r="L606" s="108"/>
+      <c r="M606" s="108"/>
+      <c r="N606" s="108"/>
+      <c r="O606" s="108"/>
+      <c r="P606" s="108"/>
+      <c r="Q606" s="108"/>
+      <c r="R606" s="108"/>
+      <c r="S606" s="108"/>
+      <c r="T606" s="108"/>
+      <c r="U606" s="108"/>
+      <c r="V606" s="108"/>
+      <c r="W606" s="108"/>
+      <c r="X606" s="108"/>
+      <c r="Y606" s="108"/>
+      <c r="Z606" s="237"/>
+      <c r="AA606" s="237"/>
+      <c r="AB606" s="237"/>
+      <c r="AC606" s="237"/>
+      <c r="AD606" s="237"/>
+      <c r="AE606" s="237"/>
+      <c r="AF606" s="237"/>
+      <c r="AG606" s="237"/>
+      <c r="AH606" s="237"/>
+      <c r="AI606" s="237"/>
+    </row>
+    <row r="607" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B607" s="234"/>
+      <c r="C607" s="236"/>
+      <c r="J607" s="108"/>
+      <c r="K607" s="108"/>
+      <c r="L607" s="108"/>
+      <c r="M607" s="108"/>
+      <c r="N607" s="108"/>
+      <c r="O607" s="108"/>
+      <c r="P607" s="108"/>
+      <c r="Q607" s="108"/>
+      <c r="R607" s="108"/>
+      <c r="S607" s="108"/>
+      <c r="T607" s="108"/>
+      <c r="U607" s="108"/>
+      <c r="V607" s="108"/>
+      <c r="W607" s="108"/>
+      <c r="X607" s="108"/>
+      <c r="Y607" s="108"/>
+      <c r="Z607" s="237"/>
+      <c r="AA607" s="237"/>
+      <c r="AB607" s="237"/>
+      <c r="AC607" s="237"/>
+      <c r="AD607" s="237"/>
+      <c r="AE607" s="237"/>
+      <c r="AF607" s="237"/>
+      <c r="AG607" s="237"/>
+      <c r="AH607" s="237"/>
+      <c r="AI607" s="237"/>
+    </row>
+    <row r="608" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B608" s="234"/>
+      <c r="C608" s="108"/>
+      <c r="D608" s="108"/>
+      <c r="E608" s="108"/>
+      <c r="F608" s="108"/>
+      <c r="G608" s="108"/>
+      <c r="H608" s="108"/>
+      <c r="I608" s="108"/>
+      <c r="J608" s="108"/>
+      <c r="K608" s="108"/>
+      <c r="L608" s="108"/>
+      <c r="M608" s="108"/>
+      <c r="N608" s="108"/>
+      <c r="O608" s="108"/>
+      <c r="P608" s="108"/>
+      <c r="Q608" s="108"/>
+      <c r="R608" s="108"/>
+      <c r="S608" s="108"/>
+      <c r="T608" s="108"/>
+      <c r="U608" s="108"/>
+      <c r="V608" s="108"/>
+      <c r="W608" s="108"/>
+      <c r="X608" s="108"/>
+      <c r="Y608" s="108"/>
+      <c r="Z608" s="237"/>
+      <c r="AA608" s="237"/>
+      <c r="AB608" s="237"/>
+      <c r="AC608" s="237"/>
+      <c r="AD608" s="237"/>
+      <c r="AE608" s="237"/>
+      <c r="AF608" s="237"/>
+      <c r="AG608" s="237"/>
+      <c r="AH608" s="237"/>
+      <c r="AI608" s="237"/>
+    </row>
+    <row r="609" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B609" s="234"/>
+      <c r="C609" s="108"/>
+      <c r="D609" s="108"/>
+      <c r="E609" s="108"/>
+      <c r="F609" s="108"/>
+      <c r="G609" s="108"/>
+      <c r="H609" s="108"/>
+      <c r="I609" s="108"/>
+      <c r="J609" s="108"/>
+      <c r="K609" s="108"/>
+      <c r="L609" s="108"/>
+      <c r="M609" s="108"/>
+      <c r="N609" s="108"/>
+      <c r="O609" s="108"/>
+      <c r="P609" s="108"/>
+      <c r="Q609" s="108"/>
+      <c r="R609" s="108"/>
+      <c r="S609" s="108"/>
+      <c r="T609" s="108"/>
+      <c r="U609" s="108"/>
+      <c r="V609" s="108"/>
+      <c r="W609" s="108"/>
+      <c r="X609" s="108"/>
+      <c r="Y609" s="108"/>
+      <c r="Z609" s="237"/>
+      <c r="AA609" s="237"/>
+      <c r="AB609" s="237"/>
+      <c r="AC609" s="237"/>
+      <c r="AD609" s="237"/>
+      <c r="AE609" s="237"/>
+      <c r="AF609" s="237"/>
+      <c r="AG609" s="237"/>
+      <c r="AH609" s="237"/>
+      <c r="AI609" s="237"/>
+    </row>
+    <row r="610" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B610" s="234"/>
+      <c r="C610" s="108"/>
+      <c r="D610" s="108"/>
+      <c r="E610" s="108"/>
+      <c r="F610" s="108"/>
+      <c r="G610" s="108"/>
+      <c r="H610" s="108"/>
+      <c r="I610" s="108"/>
+      <c r="J610" s="108"/>
+      <c r="K610" s="108"/>
+      <c r="L610" s="108"/>
+      <c r="M610" s="108"/>
+      <c r="N610" s="108"/>
+      <c r="O610" s="108"/>
+      <c r="P610" s="108"/>
+      <c r="Q610" s="108"/>
+      <c r="R610" s="108"/>
+      <c r="S610" s="108"/>
+      <c r="T610" s="108"/>
+      <c r="U610" s="108"/>
+      <c r="V610" s="108"/>
+      <c r="W610" s="108"/>
+      <c r="X610" s="108"/>
+      <c r="Y610" s="108"/>
+      <c r="Z610" s="237"/>
+      <c r="AA610" s="237"/>
+      <c r="AB610" s="237"/>
+      <c r="AC610" s="237"/>
+      <c r="AD610" s="237"/>
+      <c r="AE610" s="237"/>
+      <c r="AF610" s="237"/>
+      <c r="AG610" s="237"/>
+      <c r="AH610" s="237"/>
+      <c r="AI610" s="237"/>
+    </row>
+    <row r="611" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B611" s="234"/>
+      <c r="C611" s="108"/>
+      <c r="D611" s="108"/>
+      <c r="E611" s="108"/>
+      <c r="F611" s="108"/>
+      <c r="G611" s="108"/>
+      <c r="H611" s="108"/>
+      <c r="I611" s="108"/>
+      <c r="J611" s="108"/>
+      <c r="K611" s="108"/>
+      <c r="L611" s="108"/>
+      <c r="M611" s="108"/>
+      <c r="N611" s="108"/>
+      <c r="O611" s="108"/>
+      <c r="P611" s="108"/>
+      <c r="Q611" s="108"/>
+      <c r="R611" s="108"/>
+      <c r="S611" s="108"/>
+      <c r="T611" s="108"/>
+      <c r="U611" s="108"/>
+      <c r="V611" s="108"/>
+      <c r="W611" s="108"/>
+      <c r="X611" s="108"/>
+      <c r="Y611" s="108"/>
+      <c r="Z611" s="237"/>
+      <c r="AA611" s="237"/>
+      <c r="AB611" s="237"/>
+      <c r="AC611" s="237"/>
+      <c r="AD611" s="237"/>
+      <c r="AE611" s="237"/>
+      <c r="AF611" s="237"/>
+      <c r="AG611" s="237"/>
+      <c r="AH611" s="237"/>
+      <c r="AI611" s="237"/>
+    </row>
+    <row r="612" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B612" s="234"/>
+      <c r="C612" s="108"/>
+      <c r="D612" s="108"/>
+      <c r="E612" s="108"/>
+      <c r="F612" s="108"/>
+      <c r="G612" s="108"/>
+      <c r="H612" s="108"/>
+      <c r="I612" s="108"/>
+      <c r="J612" s="108"/>
+      <c r="K612" s="108"/>
+      <c r="L612" s="108"/>
+      <c r="M612" s="108"/>
+      <c r="N612" s="108"/>
+      <c r="O612" s="108"/>
+      <c r="P612" s="108"/>
+      <c r="Q612" s="108"/>
+      <c r="R612" s="108"/>
+      <c r="S612" s="108"/>
+      <c r="T612" s="108"/>
+      <c r="U612" s="108"/>
+      <c r="V612" s="108"/>
+      <c r="W612" s="108"/>
+      <c r="X612" s="108"/>
+      <c r="Y612" s="108"/>
+      <c r="Z612" s="237"/>
+      <c r="AA612" s="237"/>
+      <c r="AB612" s="237"/>
+      <c r="AC612" s="237"/>
+      <c r="AD612" s="237"/>
+      <c r="AE612" s="237"/>
+      <c r="AF612" s="237"/>
+      <c r="AG612" s="237"/>
+      <c r="AH612" s="237"/>
+      <c r="AI612" s="237"/>
+    </row>
+    <row r="613" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B613" s="234"/>
+      <c r="C613" s="108"/>
+      <c r="D613" s="108"/>
+      <c r="E613" s="108"/>
+      <c r="F613" s="108"/>
+      <c r="G613" s="108"/>
+      <c r="H613" s="108"/>
+      <c r="I613" s="108"/>
+      <c r="J613" s="108"/>
+      <c r="K613" s="108"/>
+      <c r="L613" s="108"/>
+      <c r="M613" s="108"/>
+      <c r="N613" s="108"/>
+      <c r="O613" s="108"/>
+      <c r="P613" s="108"/>
+      <c r="Q613" s="108"/>
+      <c r="R613" s="108"/>
+      <c r="S613" s="108"/>
+      <c r="T613" s="108"/>
+      <c r="U613" s="108"/>
+      <c r="V613" s="108"/>
+      <c r="W613" s="108"/>
+      <c r="X613" s="108"/>
+      <c r="Y613" s="108"/>
+      <c r="Z613" s="237"/>
+      <c r="AA613" s="237"/>
+      <c r="AB613" s="237"/>
+      <c r="AC613" s="237"/>
+      <c r="AD613" s="237"/>
+      <c r="AE613" s="237"/>
+      <c r="AF613" s="237"/>
+      <c r="AG613" s="237"/>
+      <c r="AH613" s="237"/>
+      <c r="AI613" s="237"/>
+    </row>
+    <row r="614" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B614" s="234"/>
+      <c r="C614" s="108"/>
+      <c r="D614" s="108"/>
+      <c r="E614" s="108"/>
+      <c r="F614" s="108"/>
+      <c r="G614" s="108"/>
+      <c r="H614" s="108"/>
+      <c r="I614" s="108"/>
+      <c r="J614" s="108"/>
+      <c r="K614" s="108"/>
+      <c r="L614" s="108"/>
+      <c r="M614" s="108"/>
+      <c r="N614" s="108"/>
+      <c r="O614" s="108"/>
+      <c r="P614" s="108"/>
+      <c r="Q614" s="108"/>
+      <c r="R614" s="108"/>
+      <c r="S614" s="108"/>
+      <c r="T614" s="108"/>
+      <c r="U614" s="108"/>
+      <c r="V614" s="108"/>
+      <c r="W614" s="108"/>
+      <c r="X614" s="108"/>
+      <c r="Y614" s="108"/>
+      <c r="Z614" s="237"/>
+      <c r="AA614" s="237"/>
+      <c r="AB614" s="237"/>
+      <c r="AC614" s="237"/>
+      <c r="AD614" s="237"/>
+      <c r="AE614" s="237"/>
+      <c r="AF614" s="237"/>
+      <c r="AG614" s="237"/>
+      <c r="AH614" s="237"/>
+      <c r="AI614" s="237"/>
+    </row>
+    <row r="615" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B615" s="234"/>
+      <c r="C615" s="108"/>
+      <c r="D615" s="108"/>
+      <c r="E615" s="108"/>
+      <c r="F615" s="108"/>
+      <c r="G615" s="108"/>
+      <c r="H615" s="108"/>
+      <c r="I615" s="108"/>
+      <c r="J615" s="108"/>
+      <c r="K615" s="108"/>
+      <c r="L615" s="108"/>
+      <c r="M615" s="108"/>
+      <c r="N615" s="108"/>
+      <c r="O615" s="108"/>
+      <c r="P615" s="108"/>
+      <c r="Q615" s="108"/>
+      <c r="R615" s="108"/>
+      <c r="S615" s="108"/>
+      <c r="T615" s="108"/>
+      <c r="U615" s="108"/>
+      <c r="V615" s="108"/>
+      <c r="W615" s="108"/>
+      <c r="X615" s="108"/>
+      <c r="Y615" s="108"/>
+      <c r="Z615" s="237"/>
+      <c r="AA615" s="237"/>
+      <c r="AB615" s="237"/>
+      <c r="AC615" s="237"/>
+      <c r="AD615" s="237"/>
+      <c r="AE615" s="237"/>
+      <c r="AF615" s="237"/>
+      <c r="AG615" s="237"/>
+      <c r="AH615" s="237"/>
+      <c r="AI615" s="237"/>
+    </row>
+    <row r="616" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B616" s="234"/>
+      <c r="C616" s="108"/>
+      <c r="D616" s="108"/>
+      <c r="E616" s="108"/>
+      <c r="F616" s="108"/>
+      <c r="G616" s="108"/>
+      <c r="H616" s="108"/>
+      <c r="I616" s="108"/>
+      <c r="J616" s="108"/>
+      <c r="K616" s="108"/>
+      <c r="L616" s="108"/>
+      <c r="M616" s="108"/>
+      <c r="N616" s="108"/>
+      <c r="O616" s="108"/>
+      <c r="P616" s="108"/>
+      <c r="Q616" s="108"/>
+      <c r="R616" s="108"/>
+      <c r="S616" s="108"/>
+      <c r="T616" s="108"/>
+      <c r="U616" s="108"/>
+      <c r="V616" s="108"/>
+      <c r="W616" s="108"/>
+      <c r="X616" s="108"/>
+      <c r="Y616" s="108"/>
+      <c r="Z616" s="237"/>
+      <c r="AA616" s="237"/>
+      <c r="AB616" s="237"/>
+      <c r="AC616" s="237"/>
+      <c r="AD616" s="237"/>
+      <c r="AE616" s="237"/>
+      <c r="AF616" s="237"/>
+      <c r="AG616" s="237"/>
+      <c r="AH616" s="237"/>
+      <c r="AI616" s="237"/>
+    </row>
+    <row r="617" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B617" s="234"/>
+      <c r="C617" s="108"/>
+      <c r="D617" s="108"/>
+      <c r="E617" s="108"/>
+      <c r="F617" s="108"/>
+      <c r="G617" s="108"/>
+      <c r="H617" s="108"/>
+      <c r="I617" s="108"/>
+      <c r="J617" s="108"/>
+      <c r="K617" s="108"/>
+      <c r="L617" s="108"/>
+      <c r="M617" s="108"/>
+      <c r="N617" s="108"/>
+      <c r="O617" s="108"/>
+      <c r="P617" s="108"/>
+      <c r="Q617" s="108"/>
+      <c r="R617" s="108"/>
+      <c r="S617" s="108"/>
+      <c r="T617" s="108"/>
+      <c r="U617" s="108"/>
+      <c r="V617" s="108"/>
+      <c r="W617" s="108"/>
+      <c r="X617" s="108"/>
+      <c r="Y617" s="108"/>
+      <c r="Z617" s="237"/>
+      <c r="AA617" s="237"/>
+      <c r="AB617" s="237"/>
+      <c r="AC617" s="237"/>
+      <c r="AD617" s="237"/>
+      <c r="AE617" s="237"/>
+      <c r="AF617" s="237"/>
+      <c r="AG617" s="237"/>
+      <c r="AH617" s="237"/>
+      <c r="AI617" s="237"/>
+    </row>
+    <row r="618" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B618" s="234"/>
+      <c r="C618" s="108"/>
+      <c r="D618" s="108"/>
+      <c r="E618" s="108"/>
+      <c r="F618" s="108"/>
+      <c r="G618" s="108"/>
+      <c r="H618" s="108"/>
+      <c r="I618" s="108"/>
+      <c r="J618" s="108"/>
+      <c r="K618" s="108"/>
+      <c r="L618" s="108"/>
+      <c r="M618" s="108"/>
+      <c r="N618" s="108"/>
+      <c r="O618" s="108"/>
+      <c r="P618" s="108"/>
+      <c r="Q618" s="108"/>
+      <c r="R618" s="108"/>
+      <c r="S618" s="108"/>
+      <c r="T618" s="108"/>
+      <c r="U618" s="108"/>
+      <c r="V618" s="108"/>
+      <c r="W618" s="108"/>
+      <c r="X618" s="108"/>
+      <c r="Y618" s="108"/>
+      <c r="Z618" s="237"/>
+      <c r="AA618" s="237"/>
+      <c r="AB618" s="237"/>
+      <c r="AC618" s="237"/>
+      <c r="AD618" s="237"/>
+      <c r="AE618" s="237"/>
+      <c r="AF618" s="237"/>
+      <c r="AG618" s="237"/>
+      <c r="AH618" s="237"/>
+      <c r="AI618" s="237"/>
+    </row>
+    <row r="619" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B619" s="234"/>
+      <c r="C619" s="108"/>
+      <c r="D619" s="108"/>
+      <c r="E619" s="108"/>
+      <c r="F619" s="108"/>
+      <c r="G619" s="108"/>
+      <c r="H619" s="108"/>
+      <c r="I619" s="108"/>
+      <c r="J619" s="108"/>
+      <c r="K619" s="108"/>
+      <c r="L619" s="108"/>
+      <c r="M619" s="108"/>
+      <c r="N619" s="108"/>
+      <c r="O619" s="108"/>
+      <c r="P619" s="108"/>
+      <c r="Q619" s="108"/>
+      <c r="R619" s="108"/>
+      <c r="S619" s="108"/>
+      <c r="T619" s="108"/>
+      <c r="U619" s="108"/>
+      <c r="V619" s="108"/>
+      <c r="W619" s="108"/>
+      <c r="X619" s="108"/>
+      <c r="Y619" s="108"/>
+      <c r="Z619" s="237"/>
+      <c r="AA619" s="237"/>
+      <c r="AB619" s="237"/>
+      <c r="AC619" s="237"/>
+      <c r="AD619" s="237"/>
+      <c r="AE619" s="237"/>
+      <c r="AF619" s="237"/>
+      <c r="AG619" s="237"/>
+      <c r="AH619" s="237"/>
+      <c r="AI619" s="237"/>
+    </row>
+    <row r="620" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B620" s="234"/>
+      <c r="C620" s="108"/>
+      <c r="D620" s="108"/>
+      <c r="E620" s="108"/>
+      <c r="F620" s="108"/>
+      <c r="G620" s="108"/>
+      <c r="H620" s="108"/>
+      <c r="I620" s="108"/>
+      <c r="J620" s="108"/>
+      <c r="K620" s="108"/>
+      <c r="L620" s="108"/>
+      <c r="M620" s="108"/>
+      <c r="N620" s="108"/>
+      <c r="O620" s="108"/>
+      <c r="P620" s="108"/>
+      <c r="Q620" s="108"/>
+      <c r="R620" s="108"/>
+      <c r="S620" s="108"/>
+      <c r="T620" s="108"/>
+      <c r="U620" s="108"/>
+      <c r="V620" s="108"/>
+      <c r="W620" s="108"/>
+      <c r="X620" s="108"/>
+      <c r="Y620" s="108"/>
+      <c r="Z620" s="237"/>
+      <c r="AA620" s="237"/>
+      <c r="AB620" s="237"/>
+      <c r="AC620" s="237"/>
+      <c r="AD620" s="237"/>
+      <c r="AE620" s="237"/>
+      <c r="AF620" s="237"/>
+      <c r="AG620" s="237"/>
+      <c r="AH620" s="237"/>
+      <c r="AI620" s="237"/>
+    </row>
+    <row r="621" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B621" s="234"/>
+      <c r="C621" s="108"/>
+      <c r="D621" s="108"/>
+      <c r="E621" s="108"/>
+      <c r="F621" s="108"/>
+      <c r="G621" s="108"/>
+      <c r="H621" s="108"/>
+      <c r="I621" s="108"/>
+      <c r="J621" s="108"/>
+      <c r="K621" s="108"/>
+      <c r="L621" s="108"/>
+      <c r="M621" s="108"/>
+      <c r="N621" s="108"/>
+      <c r="O621" s="108"/>
+      <c r="P621" s="108"/>
+      <c r="Q621" s="108"/>
+      <c r="R621" s="108"/>
+      <c r="S621" s="108"/>
+      <c r="T621" s="108"/>
+      <c r="U621" s="108"/>
+      <c r="V621" s="108"/>
+      <c r="W621" s="108"/>
+      <c r="X621" s="108"/>
+      <c r="Y621" s="108"/>
+      <c r="Z621" s="237"/>
+      <c r="AA621" s="237"/>
+      <c r="AB621" s="237"/>
+      <c r="AC621" s="237"/>
+      <c r="AD621" s="237"/>
+      <c r="AE621" s="237"/>
+      <c r="AF621" s="237"/>
+      <c r="AG621" s="237"/>
+      <c r="AH621" s="237"/>
+      <c r="AI621" s="237"/>
+    </row>
+    <row r="622" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B622" s="234"/>
+      <c r="C622" s="108"/>
+      <c r="D622" s="108"/>
+      <c r="E622" s="108"/>
+      <c r="F622" s="108"/>
+      <c r="G622" s="108"/>
+      <c r="H622" s="108"/>
+      <c r="I622" s="108"/>
+      <c r="J622" s="108"/>
+      <c r="K622" s="108"/>
+      <c r="L622" s="108"/>
+      <c r="M622" s="108"/>
+      <c r="N622" s="108"/>
+      <c r="O622" s="108"/>
+      <c r="P622" s="108"/>
+      <c r="Q622" s="108"/>
+      <c r="R622" s="108"/>
+      <c r="S622" s="108"/>
+      <c r="T622" s="108"/>
+      <c r="U622" s="108"/>
+      <c r="V622" s="108"/>
+      <c r="W622" s="108"/>
+      <c r="X622" s="108"/>
+      <c r="Y622" s="108"/>
+      <c r="Z622" s="237"/>
+      <c r="AA622" s="237"/>
+      <c r="AB622" s="237"/>
+      <c r="AC622" s="237"/>
+      <c r="AD622" s="237"/>
+      <c r="AE622" s="237"/>
+      <c r="AF622" s="237"/>
+      <c r="AG622" s="237"/>
+      <c r="AH622" s="237"/>
+      <c r="AI622" s="237"/>
+    </row>
+    <row r="623" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B623" s="234"/>
+      <c r="C623" s="108"/>
+      <c r="D623" s="108"/>
+      <c r="E623" s="108"/>
+      <c r="F623" s="108"/>
+      <c r="G623" s="108"/>
+      <c r="H623" s="108"/>
+      <c r="I623" s="108"/>
+      <c r="J623" s="108"/>
+      <c r="K623" s="108"/>
+      <c r="L623" s="108"/>
+      <c r="M623" s="108"/>
+      <c r="N623" s="108"/>
+      <c r="O623" s="108"/>
+      <c r="P623" s="108"/>
+      <c r="Q623" s="108"/>
+      <c r="R623" s="108"/>
+      <c r="S623" s="108"/>
+      <c r="T623" s="108"/>
+      <c r="U623" s="108"/>
+      <c r="V623" s="108"/>
+      <c r="W623" s="108"/>
+      <c r="X623" s="108"/>
+      <c r="Y623" s="108"/>
+      <c r="Z623" s="237"/>
+      <c r="AA623" s="237"/>
+      <c r="AB623" s="237"/>
+      <c r="AC623" s="237"/>
+      <c r="AD623" s="237"/>
+      <c r="AE623" s="237"/>
+      <c r="AF623" s="237"/>
+      <c r="AG623" s="237"/>
+      <c r="AH623" s="237"/>
+      <c r="AI623" s="237"/>
+    </row>
+    <row r="624" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B624" s="234"/>
+      <c r="C624" s="108"/>
+      <c r="D624" s="108"/>
+      <c r="E624" s="108"/>
+      <c r="F624" s="108"/>
+      <c r="G624" s="108"/>
+      <c r="H624" s="108"/>
+      <c r="I624" s="108"/>
+      <c r="J624" s="108"/>
+      <c r="K624" s="108"/>
+      <c r="L624" s="108"/>
+      <c r="M624" s="108"/>
+      <c r="N624" s="108"/>
+      <c r="O624" s="108"/>
+      <c r="P624" s="108"/>
+      <c r="Q624" s="108"/>
+      <c r="R624" s="108"/>
+      <c r="S624" s="108"/>
+      <c r="T624" s="108"/>
+      <c r="U624" s="108"/>
+      <c r="V624" s="108"/>
+      <c r="W624" s="108"/>
+      <c r="X624" s="108"/>
+      <c r="Y624" s="108"/>
+      <c r="Z624" s="237"/>
+      <c r="AA624" s="237"/>
+      <c r="AB624" s="237"/>
+      <c r="AC624" s="237"/>
+      <c r="AD624" s="237"/>
+      <c r="AE624" s="237"/>
+      <c r="AF624" s="237"/>
+      <c r="AG624" s="237"/>
+      <c r="AH624" s="237"/>
+      <c r="AI624" s="237"/>
+    </row>
+    <row r="625" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B625" s="234"/>
+      <c r="C625" s="237"/>
+      <c r="D625" s="237"/>
+      <c r="E625" s="237"/>
+      <c r="F625" s="237"/>
+      <c r="G625" s="237"/>
+      <c r="H625" s="237"/>
+      <c r="I625" s="237"/>
+      <c r="J625" s="237"/>
+      <c r="K625" s="237"/>
+      <c r="L625" s="237"/>
+      <c r="M625" s="237"/>
+      <c r="N625" s="237"/>
+      <c r="O625" s="237"/>
+      <c r="P625" s="237"/>
+      <c r="Q625" s="237"/>
+      <c r="R625" s="237"/>
+      <c r="S625" s="237"/>
+      <c r="T625" s="237"/>
+      <c r="U625" s="237"/>
+      <c r="V625" s="237"/>
+      <c r="W625" s="237"/>
+      <c r="X625" s="237"/>
+      <c r="Y625" s="237"/>
+      <c r="Z625" s="237"/>
+      <c r="AA625" s="237"/>
+      <c r="AB625" s="237"/>
+      <c r="AC625" s="237"/>
+      <c r="AD625" s="237"/>
+      <c r="AE625" s="237"/>
+      <c r="AF625" s="237"/>
+      <c r="AG625" s="237"/>
+      <c r="AH625" s="237"/>
+      <c r="AI625" s="237"/>
+    </row>
+    <row r="626" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B626" s="234"/>
+      <c r="C626" s="237"/>
+      <c r="D626" s="237"/>
+      <c r="E626" s="237"/>
+      <c r="F626" s="237"/>
+      <c r="G626" s="237"/>
+      <c r="H626" s="237"/>
+      <c r="I626" s="237"/>
+      <c r="J626" s="237"/>
+      <c r="K626" s="237"/>
+      <c r="L626" s="237"/>
+      <c r="M626" s="237"/>
+      <c r="N626" s="237"/>
+      <c r="O626" s="237"/>
+      <c r="P626" s="237"/>
+      <c r="Q626" s="237"/>
+      <c r="R626" s="237"/>
+      <c r="S626" s="237"/>
+      <c r="T626" s="237"/>
+      <c r="U626" s="237"/>
+      <c r="V626" s="237"/>
+      <c r="W626" s="237"/>
+      <c r="X626" s="237"/>
+      <c r="Y626" s="237"/>
+      <c r="Z626" s="237"/>
+      <c r="AA626" s="237"/>
+      <c r="AB626" s="237"/>
+      <c r="AC626" s="237"/>
+      <c r="AD626" s="237"/>
+      <c r="AE626" s="237"/>
+      <c r="AF626" s="237"/>
+      <c r="AG626" s="237"/>
+      <c r="AH626" s="237"/>
+      <c r="AI626" s="237"/>
+    </row>
+    <row r="627" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B627" s="234"/>
+      <c r="C627" s="237"/>
+      <c r="D627" s="237"/>
+      <c r="E627" s="237"/>
+      <c r="F627" s="237"/>
+      <c r="G627" s="237"/>
+      <c r="H627" s="237"/>
+      <c r="I627" s="237"/>
+      <c r="J627" s="237"/>
+      <c r="K627" s="237"/>
+      <c r="L627" s="237"/>
+      <c r="M627" s="237"/>
+      <c r="N627" s="237"/>
+      <c r="O627" s="237"/>
+      <c r="P627" s="237"/>
+      <c r="Q627" s="237"/>
+      <c r="R627" s="237"/>
+      <c r="S627" s="237"/>
+      <c r="T627" s="237"/>
+      <c r="U627" s="237"/>
+      <c r="V627" s="237"/>
+      <c r="W627" s="237"/>
+      <c r="X627" s="237"/>
+      <c r="Y627" s="237"/>
+      <c r="Z627" s="237"/>
+      <c r="AA627" s="237"/>
+      <c r="AB627" s="237"/>
+      <c r="AC627" s="237"/>
+      <c r="AD627" s="237"/>
+      <c r="AE627" s="237"/>
+      <c r="AF627" s="237"/>
+      <c r="AG627" s="237"/>
+      <c r="AH627" s="237"/>
+      <c r="AI627" s="237"/>
+    </row>
+    <row r="628" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B628" s="234"/>
+      <c r="C628" s="237"/>
+      <c r="D628" s="237"/>
+      <c r="E628" s="237"/>
+      <c r="F628" s="237"/>
+      <c r="G628" s="237"/>
+      <c r="H628" s="237"/>
+      <c r="I628" s="237"/>
+      <c r="J628" s="237"/>
+      <c r="K628" s="237"/>
+      <c r="L628" s="237"/>
+      <c r="M628" s="237"/>
+      <c r="N628" s="237"/>
+      <c r="O628" s="237"/>
+      <c r="P628" s="237"/>
+      <c r="Q628" s="237"/>
+      <c r="R628" s="237"/>
+      <c r="S628" s="237"/>
+      <c r="T628" s="237"/>
+      <c r="U628" s="237"/>
+      <c r="V628" s="237"/>
+      <c r="W628" s="237"/>
+      <c r="X628" s="237"/>
+      <c r="Y628" s="237"/>
+      <c r="Z628" s="237"/>
+      <c r="AA628" s="237"/>
+      <c r="AB628" s="237"/>
+      <c r="AC628" s="237"/>
+      <c r="AD628" s="237"/>
+      <c r="AE628" s="237"/>
+      <c r="AF628" s="237"/>
+      <c r="AG628" s="237"/>
+      <c r="AH628" s="237"/>
+      <c r="AI628" s="237"/>
+    </row>
+    <row r="629" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B629" s="234"/>
+      <c r="C629" s="237"/>
+      <c r="D629" s="237"/>
+      <c r="E629" s="237"/>
+      <c r="F629" s="237"/>
+      <c r="G629" s="237"/>
+      <c r="H629" s="237"/>
+      <c r="I629" s="237"/>
+      <c r="J629" s="237"/>
+      <c r="K629" s="237"/>
+      <c r="L629" s="237"/>
+      <c r="M629" s="237"/>
+      <c r="N629" s="237"/>
+      <c r="O629" s="237"/>
+      <c r="P629" s="237"/>
+      <c r="Q629" s="237"/>
+      <c r="R629" s="237"/>
+      <c r="S629" s="237"/>
+      <c r="T629" s="237"/>
+      <c r="U629" s="237"/>
+      <c r="V629" s="237"/>
+      <c r="W629" s="237"/>
+      <c r="X629" s="237"/>
+      <c r="Y629" s="237"/>
+      <c r="Z629" s="237"/>
+      <c r="AA629" s="237"/>
+      <c r="AB629" s="237"/>
+      <c r="AC629" s="237"/>
+      <c r="AD629" s="237"/>
+      <c r="AE629" s="237"/>
+      <c r="AF629" s="237"/>
+      <c r="AG629" s="237"/>
+      <c r="AH629" s="237"/>
+      <c r="AI629" s="237"/>
+    </row>
+    <row r="630" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B630" s="234"/>
+      <c r="C630" s="237"/>
+      <c r="D630" s="237"/>
+      <c r="E630" s="237"/>
+      <c r="F630" s="237"/>
+      <c r="G630" s="237"/>
+      <c r="H630" s="237"/>
+      <c r="I630" s="237"/>
+      <c r="J630" s="237"/>
+      <c r="K630" s="237"/>
+      <c r="L630" s="237"/>
+      <c r="M630" s="237"/>
+      <c r="N630" s="237"/>
+      <c r="O630" s="237"/>
+      <c r="P630" s="237"/>
+      <c r="Q630" s="237"/>
+      <c r="R630" s="237"/>
+      <c r="S630" s="237"/>
+      <c r="T630" s="237"/>
+      <c r="U630" s="237"/>
+      <c r="V630" s="237"/>
+      <c r="W630" s="237"/>
+      <c r="X630" s="237"/>
+      <c r="Y630" s="237"/>
+      <c r="Z630" s="237"/>
+      <c r="AA630" s="237"/>
+      <c r="AB630" s="237"/>
+      <c r="AC630" s="237"/>
+      <c r="AD630" s="237"/>
+      <c r="AE630" s="237"/>
+      <c r="AF630" s="237"/>
+      <c r="AG630" s="237"/>
+      <c r="AH630" s="237"/>
+      <c r="AI630" s="237"/>
+    </row>
+    <row r="631" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B631" s="234"/>
+      <c r="C631" s="237"/>
+      <c r="D631" s="237"/>
+      <c r="E631" s="237"/>
+      <c r="F631" s="237"/>
+      <c r="G631" s="237"/>
+      <c r="H631" s="237"/>
+      <c r="I631" s="237"/>
+      <c r="J631" s="237"/>
+      <c r="K631" s="237"/>
+      <c r="L631" s="237"/>
+      <c r="M631" s="237"/>
+      <c r="N631" s="237"/>
+      <c r="O631" s="237"/>
+      <c r="P631" s="237"/>
+      <c r="Q631" s="237"/>
+      <c r="R631" s="237"/>
+      <c r="S631" s="237"/>
+      <c r="T631" s="237"/>
+      <c r="U631" s="237"/>
+      <c r="V631" s="237"/>
+      <c r="W631" s="237"/>
+      <c r="X631" s="237"/>
+      <c r="Y631" s="237"/>
+      <c r="Z631" s="237"/>
+      <c r="AA631" s="237"/>
+      <c r="AB631" s="237"/>
+      <c r="AC631" s="237"/>
+      <c r="AD631" s="237"/>
+      <c r="AE631" s="237"/>
+      <c r="AF631" s="237"/>
+      <c r="AG631" s="237"/>
+      <c r="AH631" s="237"/>
+      <c r="AI631" s="237"/>
+    </row>
+    <row r="632" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B632" s="234"/>
+      <c r="C632" s="237"/>
+      <c r="D632" s="236">
+        <v>1.24</v>
+      </c>
+      <c r="E632" s="238"/>
+      <c r="F632" s="236"/>
+      <c r="G632" s="236">
+        <v>54600</v>
+      </c>
+      <c r="H632" s="236" t="s">
+        <v>224</v>
+      </c>
+      <c r="I632" s="236" t="s">
+        <v>226</v>
+      </c>
+      <c r="J632" s="237"/>
+      <c r="K632" s="237"/>
+      <c r="L632" s="237"/>
+      <c r="M632" s="237"/>
+      <c r="N632" s="237"/>
+      <c r="O632" s="237"/>
+      <c r="P632" s="237"/>
+      <c r="Q632" s="237"/>
+      <c r="R632" s="237"/>
+      <c r="S632" s="237"/>
+      <c r="T632" s="237"/>
+      <c r="U632" s="237"/>
+      <c r="V632" s="237"/>
+      <c r="W632" s="237"/>
+      <c r="X632" s="237"/>
+      <c r="Y632" s="237"/>
+      <c r="Z632" s="237"/>
+      <c r="AA632" s="237"/>
+      <c r="AB632" s="237"/>
+      <c r="AC632" s="237"/>
+      <c r="AD632" s="237"/>
+      <c r="AE632" s="237"/>
+      <c r="AF632" s="237"/>
+      <c r="AG632" s="237"/>
+      <c r="AH632" s="237"/>
+      <c r="AI632" s="237"/>
+    </row>
+    <row r="633" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B633" s="234"/>
+      <c r="C633" s="237"/>
+      <c r="D633" s="236"/>
+      <c r="E633" s="238"/>
+      <c r="F633" s="236"/>
+      <c r="G633" s="236">
+        <f>10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="H633" s="236" t="s">
+        <v>225</v>
+      </c>
+      <c r="I633" s="236"/>
+      <c r="J633" s="237"/>
+      <c r="K633" s="237"/>
+      <c r="L633" s="237"/>
+      <c r="M633" s="237"/>
+      <c r="N633" s="237"/>
+      <c r="O633" s="237"/>
+      <c r="P633" s="237"/>
+      <c r="Q633" s="237"/>
+      <c r="R633" s="237"/>
+      <c r="S633" s="237"/>
+      <c r="T633" s="237"/>
+      <c r="U633" s="237"/>
+      <c r="V633" s="237"/>
+      <c r="W633" s="237"/>
+      <c r="X633" s="237"/>
+      <c r="Y633" s="237"/>
+      <c r="Z633" s="237"/>
+      <c r="AA633" s="237"/>
+      <c r="AB633" s="237"/>
+      <c r="AC633" s="237"/>
+      <c r="AD633" s="237"/>
+      <c r="AE633" s="237"/>
+      <c r="AF633" s="237"/>
+      <c r="AG633" s="237"/>
+      <c r="AH633" s="237"/>
+      <c r="AI633" s="237"/>
+    </row>
+    <row r="634" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B634" s="234"/>
+      <c r="C634" s="237"/>
+      <c r="D634" s="236"/>
+      <c r="E634" s="238"/>
+      <c r="F634" s="236"/>
+      <c r="G634" s="236">
+        <f>G632/G633</f>
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="H634" s="236" t="s">
+        <v>224</v>
+      </c>
+      <c r="I634" s="236"/>
+      <c r="J634" s="237"/>
+      <c r="K634" s="237"/>
+      <c r="L634" s="237"/>
+      <c r="M634" s="237"/>
+      <c r="N634" s="237"/>
+      <c r="O634" s="237"/>
+      <c r="P634" s="237"/>
+      <c r="Q634" s="237"/>
+      <c r="R634" s="237"/>
+      <c r="S634" s="237"/>
+      <c r="T634" s="237"/>
+      <c r="U634" s="237"/>
+      <c r="V634" s="237"/>
+      <c r="W634" s="237"/>
+      <c r="X634" s="237"/>
+      <c r="Y634" s="237"/>
+      <c r="Z634" s="237"/>
+      <c r="AA634" s="237"/>
+      <c r="AB634" s="237"/>
+      <c r="AC634" s="237"/>
+      <c r="AD634" s="237"/>
+      <c r="AE634" s="237"/>
+      <c r="AF634" s="237"/>
+      <c r="AG634" s="237"/>
+      <c r="AH634" s="237"/>
+      <c r="AI634" s="237"/>
+    </row>
+    <row r="635" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B635" s="234"/>
+      <c r="C635" s="237"/>
+      <c r="D635" s="237"/>
+      <c r="E635" s="237"/>
+      <c r="F635" s="237"/>
+      <c r="G635" s="237"/>
+      <c r="H635" s="237"/>
+      <c r="I635" s="237"/>
+      <c r="J635" s="237"/>
+      <c r="K635" s="237"/>
+      <c r="L635" s="237"/>
+      <c r="M635" s="237"/>
+      <c r="N635" s="237"/>
+      <c r="O635" s="237"/>
+      <c r="P635" s="237"/>
+      <c r="Q635" s="237"/>
+      <c r="R635" s="237"/>
+      <c r="S635" s="237"/>
+      <c r="T635" s="237"/>
+      <c r="U635" s="237"/>
+      <c r="V635" s="237"/>
+      <c r="W635" s="237"/>
+      <c r="X635" s="237"/>
+      <c r="Y635" s="237"/>
+      <c r="Z635" s="237"/>
+      <c r="AA635" s="237"/>
+      <c r="AB635" s="237"/>
+      <c r="AC635" s="237"/>
+      <c r="AD635" s="237"/>
+      <c r="AE635" s="237"/>
+      <c r="AF635" s="237"/>
+      <c r="AG635" s="237"/>
+      <c r="AH635" s="237"/>
+      <c r="AI635" s="237"/>
+    </row>
+    <row r="636" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B636" s="234"/>
+      <c r="C636" s="237"/>
+      <c r="D636" s="237"/>
+      <c r="E636" s="237"/>
+      <c r="F636" s="237"/>
+      <c r="G636" s="237"/>
+      <c r="H636" s="237"/>
+      <c r="I636" s="237"/>
+      <c r="J636" s="237"/>
+      <c r="K636" s="237"/>
+      <c r="L636" s="237"/>
+      <c r="M636" s="237"/>
+      <c r="N636" s="237"/>
+      <c r="O636" s="237"/>
+      <c r="P636" s="237"/>
+      <c r="Q636" s="237"/>
+      <c r="R636" s="237"/>
+      <c r="S636" s="237"/>
+      <c r="T636" s="237"/>
+      <c r="U636" s="237"/>
+      <c r="V636" s="237"/>
+      <c r="W636" s="237"/>
+      <c r="X636" s="237"/>
+      <c r="Y636" s="237"/>
+      <c r="Z636" s="237"/>
+      <c r="AA636" s="237"/>
+      <c r="AB636" s="237"/>
+      <c r="AC636" s="237"/>
+      <c r="AD636" s="237"/>
+      <c r="AE636" s="237"/>
+      <c r="AF636" s="237"/>
+      <c r="AG636" s="237"/>
+      <c r="AH636" s="237"/>
+      <c r="AI636" s="237"/>
+    </row>
+    <row r="637" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B637" s="234"/>
+      <c r="C637" s="237"/>
+      <c r="D637" s="237"/>
+      <c r="E637" s="237"/>
+      <c r="F637" s="237"/>
+      <c r="G637" s="237"/>
+      <c r="H637" s="237"/>
+      <c r="I637" s="237"/>
+      <c r="J637" s="237"/>
+      <c r="K637" s="237"/>
+      <c r="L637" s="237"/>
+      <c r="M637" s="237"/>
+      <c r="N637" s="237"/>
+      <c r="O637" s="237"/>
+      <c r="P637" s="237"/>
+      <c r="Q637" s="237"/>
+      <c r="R637" s="237"/>
+      <c r="S637" s="237"/>
+      <c r="T637" s="237"/>
+      <c r="U637" s="237"/>
+      <c r="V637" s="237"/>
+      <c r="W637" s="237"/>
+      <c r="X637" s="237"/>
+      <c r="Y637" s="237"/>
+      <c r="Z637" s="237"/>
+      <c r="AA637" s="237"/>
+      <c r="AB637" s="237"/>
+      <c r="AC637" s="237"/>
+      <c r="AD637" s="237"/>
+      <c r="AE637" s="237"/>
+      <c r="AF637" s="237"/>
+      <c r="AG637" s="237"/>
+      <c r="AH637" s="237"/>
+      <c r="AI637" s="237"/>
+    </row>
+    <row r="638" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B638" s="234"/>
+      <c r="C638" s="237"/>
+      <c r="D638" s="237"/>
+      <c r="E638" s="237"/>
+      <c r="F638" s="237"/>
+      <c r="G638" s="237"/>
+      <c r="H638" s="237"/>
+      <c r="I638" s="237"/>
+      <c r="J638" s="237"/>
+      <c r="K638" s="237"/>
+      <c r="L638" s="237"/>
+      <c r="M638" s="237"/>
+      <c r="N638" s="237"/>
+      <c r="O638" s="237"/>
+      <c r="P638" s="237"/>
+      <c r="Q638" s="237"/>
+      <c r="R638" s="237"/>
+      <c r="S638" s="237"/>
+      <c r="T638" s="237"/>
+      <c r="U638" s="237"/>
+      <c r="V638" s="237"/>
+      <c r="W638" s="237"/>
+      <c r="X638" s="237"/>
+      <c r="Y638" s="237"/>
+      <c r="Z638" s="237"/>
+      <c r="AA638" s="237"/>
+      <c r="AB638" s="237"/>
+      <c r="AC638" s="237"/>
+      <c r="AD638" s="237"/>
+      <c r="AE638" s="237"/>
+      <c r="AF638" s="237"/>
+      <c r="AG638" s="237"/>
+      <c r="AH638" s="237"/>
+      <c r="AI638" s="237"/>
+    </row>
+    <row r="639" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B639" s="234"/>
+      <c r="C639" s="237"/>
+      <c r="D639" s="237"/>
+      <c r="E639" s="237"/>
+      <c r="F639" s="237"/>
+      <c r="G639" s="237"/>
+      <c r="H639" s="237"/>
+      <c r="I639" s="237"/>
+      <c r="J639" s="237"/>
+      <c r="K639" s="237"/>
+      <c r="L639" s="237"/>
+      <c r="M639" s="237"/>
+      <c r="N639" s="237"/>
+      <c r="O639" s="237"/>
+      <c r="P639" s="237"/>
+      <c r="Q639" s="237"/>
+      <c r="R639" s="237"/>
+      <c r="S639" s="237"/>
+      <c r="T639" s="237"/>
+      <c r="U639" s="237"/>
+      <c r="V639" s="237"/>
+      <c r="W639" s="237"/>
+      <c r="X639" s="237"/>
+      <c r="Y639" s="237"/>
+      <c r="Z639" s="237"/>
+      <c r="AA639" s="237"/>
+      <c r="AB639" s="237"/>
+      <c r="AC639" s="237"/>
+      <c r="AD639" s="237"/>
+      <c r="AE639" s="237"/>
+      <c r="AF639" s="237"/>
+      <c r="AG639" s="237"/>
+      <c r="AH639" s="237"/>
+      <c r="AI639" s="237"/>
+    </row>
+    <row r="640" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B640" s="234"/>
+      <c r="C640" s="237"/>
+      <c r="D640" s="237"/>
+      <c r="E640" s="237"/>
+      <c r="F640" s="237"/>
+      <c r="G640" s="237"/>
+      <c r="H640" s="237"/>
+      <c r="I640" s="237"/>
+      <c r="J640" s="237"/>
+      <c r="K640" s="237"/>
+      <c r="L640" s="237"/>
+      <c r="M640" s="237"/>
+      <c r="N640" s="237"/>
+      <c r="O640" s="237"/>
+      <c r="P640" s="237"/>
+      <c r="Q640" s="237"/>
+      <c r="R640" s="237"/>
+      <c r="S640" s="237"/>
+      <c r="T640" s="237"/>
+      <c r="U640" s="237"/>
+      <c r="V640" s="237"/>
+      <c r="W640" s="237"/>
+      <c r="X640" s="237"/>
+      <c r="Y640" s="237"/>
+      <c r="Z640" s="237"/>
+      <c r="AA640" s="237"/>
+      <c r="AB640" s="237"/>
+      <c r="AC640" s="237"/>
+      <c r="AD640" s="237"/>
+      <c r="AE640" s="237"/>
+      <c r="AF640" s="237"/>
+      <c r="AG640" s="237"/>
+      <c r="AH640" s="237"/>
+      <c r="AI640" s="237"/>
+    </row>
+    <row r="641" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B641" s="234"/>
+      <c r="C641" s="237"/>
+      <c r="D641" s="237"/>
+      <c r="E641" s="237"/>
+      <c r="F641" s="237"/>
+      <c r="G641" s="237"/>
+      <c r="H641" s="237"/>
+      <c r="I641" s="237"/>
+      <c r="J641" s="237"/>
+      <c r="K641" s="237"/>
+      <c r="L641" s="237"/>
+      <c r="M641" s="237"/>
+      <c r="N641" s="237"/>
+      <c r="O641" s="237"/>
+      <c r="P641" s="237"/>
+      <c r="Q641" s="237"/>
+      <c r="R641" s="237"/>
+      <c r="S641" s="237"/>
+      <c r="T641" s="237"/>
+      <c r="U641" s="237"/>
+      <c r="V641" s="237"/>
+      <c r="W641" s="237"/>
+      <c r="X641" s="237"/>
+      <c r="Y641" s="237"/>
+      <c r="Z641" s="237"/>
+      <c r="AA641" s="237"/>
+      <c r="AB641" s="237"/>
+      <c r="AC641" s="237"/>
+      <c r="AD641" s="237"/>
+      <c r="AE641" s="237"/>
+      <c r="AF641" s="237"/>
+      <c r="AG641" s="237"/>
+      <c r="AH641" s="237"/>
+      <c r="AI641" s="237"/>
+    </row>
+    <row r="642" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B642" s="234"/>
+      <c r="C642" s="237"/>
+      <c r="D642" s="237"/>
+      <c r="E642" s="237"/>
+      <c r="F642" s="237"/>
+      <c r="G642" s="237"/>
+      <c r="H642" s="237"/>
+      <c r="I642" s="237"/>
+      <c r="J642" s="237"/>
+      <c r="K642" s="237"/>
+      <c r="L642" s="237"/>
+      <c r="M642" s="237"/>
+      <c r="N642" s="237"/>
+      <c r="O642" s="237"/>
+      <c r="P642" s="237"/>
+      <c r="Q642" s="237"/>
+      <c r="R642" s="237"/>
+      <c r="S642" s="237"/>
+      <c r="T642" s="237"/>
+      <c r="U642" s="237"/>
+      <c r="V642" s="237"/>
+      <c r="W642" s="237"/>
+      <c r="X642" s="237"/>
+      <c r="Y642" s="237"/>
+      <c r="Z642" s="237"/>
+      <c r="AA642" s="237"/>
+      <c r="AB642" s="237"/>
+      <c r="AC642" s="237"/>
+      <c r="AD642" s="237"/>
+      <c r="AE642" s="237"/>
+      <c r="AF642" s="237"/>
+      <c r="AG642" s="237"/>
+      <c r="AH642" s="237"/>
+      <c r="AI642" s="237"/>
+    </row>
+    <row r="643" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B643" s="234"/>
+      <c r="C643" s="237"/>
+      <c r="D643" s="237"/>
+      <c r="E643" s="237"/>
+      <c r="F643" s="237"/>
+      <c r="G643" s="237"/>
+      <c r="H643" s="237"/>
+      <c r="I643" s="237"/>
+      <c r="J643" s="237"/>
+      <c r="K643" s="237"/>
+      <c r="L643" s="237"/>
+      <c r="M643" s="237"/>
+      <c r="N643" s="237"/>
+      <c r="O643" s="237"/>
+      <c r="P643" s="237"/>
+      <c r="Q643" s="237"/>
+      <c r="R643" s="237"/>
+      <c r="S643" s="237"/>
+      <c r="T643" s="237"/>
+      <c r="U643" s="237"/>
+      <c r="V643" s="237"/>
+      <c r="W643" s="237"/>
+      <c r="X643" s="237"/>
+      <c r="Y643" s="237"/>
+      <c r="Z643" s="237"/>
+      <c r="AA643" s="237"/>
+      <c r="AB643" s="237"/>
+      <c r="AC643" s="237"/>
+      <c r="AD643" s="237"/>
+      <c r="AE643" s="237"/>
+      <c r="AF643" s="237"/>
+      <c r="AG643" s="237"/>
+      <c r="AH643" s="237"/>
+      <c r="AI643" s="237"/>
+    </row>
+    <row r="644" spans="2:35" s="231" customFormat="1" ht="16">
+      <c r="B644" s="234"/>
+      <c r="C644" s="237"/>
+      <c r="D644" s="237"/>
+      <c r="E644" s="237"/>
+      <c r="F644" s="237"/>
+      <c r="G644" s="237"/>
+      <c r="H644" s="237"/>
+      <c r="I644" s="237"/>
+      <c r="J644" s="237"/>
+      <c r="K644" s="237"/>
+      <c r="L644" s="237"/>
+      <c r="M644" s="237"/>
+      <c r="N644" s="237"/>
+      <c r="O644" s="237"/>
+      <c r="P644" s="237"/>
+      <c r="Q644" s="237"/>
+      <c r="R644" s="237"/>
+      <c r="S644" s="237"/>
+      <c r="T644" s="237"/>
+      <c r="U644" s="237"/>
+      <c r="V644" s="237"/>
+      <c r="W644" s="237"/>
+      <c r="X644" s="237"/>
+      <c r="Y644" s="237"/>
+      <c r="Z644" s="237"/>
+      <c r="AA644" s="237"/>
+      <c r="AB644" s="237"/>
+      <c r="AC644" s="237"/>
+      <c r="AD644" s="237"/>
+      <c r="AE644" s="237"/>
+      <c r="AF644" s="237"/>
+      <c r="AG644" s="237"/>
+      <c r="AH644" s="237"/>
+      <c r="AI644" s="237"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/carriers_source_analyses/greengas.carrier.xlsx
+++ b/carriers_source_analyses/greengas.carrier.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="45440" yWindow="-2760" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -33,8 +38,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -692,9 +700,6 @@
   </si>
   <si>
     <t>Carrier (global properties)</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers.</t>
   </si>
   <si>
     <t>This sheet summarizes the Fuel Chain Emissions attributes formatted in the way they are used by the Energy Transition Model. These FCE are only specified for carriers and at the moment only for NL.</t>
@@ -785,6 +790,11 @@
   <si>
     <t>gas biomass</t>
   </si>
+  <si>
+    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
+- The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
+- The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
+  </si>
 </sst>
 </file>
 
@@ -805,7 +815,7 @@
     <numFmt numFmtId="175" formatCode="#,##0.000"/>
     <numFmt numFmtId="176" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1064,11 +1074,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1174,7 +1179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1572,37 +1577,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -1969,7 +1943,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2323,11 +2297,16 @@
     <xf numFmtId="0" fontId="36" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="173" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2346,29 +2325,30 @@
     <xf numFmtId="0" fontId="26" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="350">
     <cellStyle name="Comma" xfId="320" builtinId="3"/>
@@ -2724,145 +2704,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2050" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2050"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update carrier attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>177800</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2052" name="export_fce" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2052"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update FCE attributes on ETSource (next sheet)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3551,7 +3401,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -3664,12 +3514,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
       <sheetName val="carrier_manager.xlsm"/>
+      <sheetName val="carrier_manager"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -3679,6 +3530,7 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4011,33 +3863,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="2.125" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="27" customFormat="1">
+    <row r="1" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="28"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>206</v>
@@ -4046,7 +3898,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>13</v>
@@ -4055,7 +3907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>8</v>
@@ -4064,17 +3916,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="73" t="s">
         <v>14</v>
@@ -4082,13 +3934,13 @@
       <c r="C9" s="74"/>
       <c r="D9" s="219"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="75"/>
       <c r="C10" s="76"/>
       <c r="D10" s="220"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="75" t="s">
         <v>15</v>
@@ -4098,7 +3950,7 @@
       </c>
       <c r="D11" s="220"/>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="75"/>
       <c r="C12" s="18" t="s">
@@ -4106,7 +3958,7 @@
       </c>
       <c r="D12" s="220"/>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="75"/>
       <c r="C13" s="78" t="s">
@@ -4114,7 +3966,7 @@
       </c>
       <c r="D13" s="220"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="75"/>
       <c r="C14" s="76" t="s">
@@ -4122,13 +3974,13 @@
       </c>
       <c r="D14" s="220"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="75"/>
       <c r="C15" s="76"/>
       <c r="D15" s="220"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="75" t="s">
         <v>20</v>
@@ -4138,7 +3990,7 @@
       </c>
       <c r="D16" s="220"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="75"/>
       <c r="C17" s="80" t="s">
@@ -4146,7 +3998,7 @@
       </c>
       <c r="D17" s="220"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="75"/>
       <c r="C18" s="81" t="s">
@@ -4154,7 +4006,7 @@
       </c>
       <c r="D18" s="220"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="75"/>
       <c r="C19" s="82" t="s">
@@ -4162,7 +4014,7 @@
       </c>
       <c r="D19" s="220"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="83"/>
       <c r="C20" s="84" t="s">
@@ -4170,7 +4022,7 @@
       </c>
       <c r="D20" s="220"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="83"/>
       <c r="C21" s="85" t="s">
@@ -4178,7 +4030,7 @@
       </c>
       <c r="D21" s="220"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="83"/>
       <c r="C22" s="86" t="s">
@@ -4186,14 +4038,14 @@
       </c>
       <c r="D22" s="220"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="83"/>
       <c r="C23" s="87" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="220"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="221"/>
       <c r="C24" s="222"/>
       <c r="D24" s="223"/>
@@ -4201,76 +4053,74 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="35" customWidth="1"/>
     <col min="3" max="3" width="46" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
     <col min="7" max="7" width="45" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="240" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="243"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="245"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="246"/>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="248"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="243" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="252"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="246"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="253"/>
+    </row>
+    <row r="4" spans="2:11" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="254"/>
+      <c r="C4" s="255"/>
+      <c r="D4" s="255"/>
+      <c r="E4" s="255"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="255"/>
+      <c r="H4" s="256"/>
+    </row>
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="36"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -4281,7 +4131,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="37"/>
     </row>
-    <row r="7" spans="2:11" s="39" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="39" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="88"/>
       <c r="C7" s="19" t="s">
         <v>12</v>
@@ -4302,7 +4152,7 @@
       </c>
       <c r="J7" s="90"/>
     </row>
-    <row r="8" spans="2:11" s="39" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="39" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
       <c r="C8" s="18"/>
       <c r="D8" s="31"/>
@@ -4313,7 +4163,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="40"/>
     </row>
-    <row r="9" spans="2:11" s="39" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="39" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="C9" s="218" t="s">
         <v>208</v>
@@ -4326,7 +4176,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="40"/>
     </row>
-    <row r="10" spans="2:11" s="39" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="39" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="23"/>
       <c r="C10" s="96" t="s">
         <v>36</v>
@@ -4348,7 +4198,7 @@
       </c>
       <c r="J10" s="40"/>
     </row>
-    <row r="11" spans="2:11" s="39" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="39" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="23"/>
       <c r="C11" s="102" t="s">
         <v>37</v>
@@ -4368,7 +4218,7 @@
       </c>
       <c r="J11" s="40"/>
     </row>
-    <row r="12" spans="2:11" s="39" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:11" s="39" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23"/>
       <c r="C12" s="34" t="s">
         <v>38</v>
@@ -4382,18 +4232,18 @@
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="226" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="227" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J12" s="40"/>
     </row>
-    <row r="13" spans="2:11" s="39" customFormat="1" ht="19" thickBot="1">
+    <row r="13" spans="2:11" s="39" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="23"/>
       <c r="C13" s="226" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>42</v>
@@ -4404,15 +4254,15 @@
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="226" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H13" s="30"/>
-      <c r="I13" s="252" t="s">
-        <v>220</v>
+      <c r="I13" s="240" t="s">
+        <v>219</v>
       </c>
       <c r="J13" s="40"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="38"/>
       <c r="C14" s="34" t="s">
         <v>39</v>
@@ -4433,7 +4283,7 @@
       <c r="J14" s="91"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="2:11" s="152" customFormat="1" ht="16" thickBot="1">
+    <row r="15" spans="2:11" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="161"/>
       <c r="C15" s="162"/>
       <c r="D15" s="162"/>
@@ -4446,70 +4296,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E4"/>
+    <mergeCell ref="B2:H4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2050" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2052" r:id="rId4" name="export_fce">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_fce">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>177800</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4524,46 +4314,46 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="35" customWidth="1"/>
     <col min="3" max="3" width="46" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
     <col min="7" max="7" width="45" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="242"/>
+    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="243" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="245"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="243"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="245"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="246"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="248"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="249"/>
       <c r="C4" s="250"/>
       <c r="D4" s="250"/>
@@ -4571,10 +4361,10 @@
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="36"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -4585,7 +4375,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="37"/>
     </row>
-    <row r="7" spans="2:11" s="39" customFormat="1" ht="19" thickBot="1">
+    <row r="7" spans="2:11" s="39" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="88"/>
       <c r="C7" s="19" t="s">
         <v>12</v>
@@ -4606,7 +4396,7 @@
       </c>
       <c r="J7" s="90"/>
     </row>
-    <row r="8" spans="2:11" ht="16" thickBot="1">
+    <row r="8" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="38"/>
       <c r="C8" s="34"/>
       <c r="D8" s="22"/>
@@ -4618,7 +4408,7 @@
       <c r="J8" s="91"/>
       <c r="K8" s="33"/>
     </row>
-    <row r="9" spans="2:11" s="39" customFormat="1" ht="18">
+    <row r="9" spans="2:11" s="39" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
       <c r="C9" s="30" t="s">
         <v>172</v>
@@ -4631,21 +4421,21 @@
       <c r="I9" s="158"/>
       <c r="J9" s="40"/>
     </row>
-    <row r="10" spans="2:11" s="152" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:11" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="153"/>
       <c r="C10" s="224" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E10" s="158"/>
       <c r="F10" s="158"/>
       <c r="G10" s="158" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H10" s="158"/>
       <c r="I10" s="158"/>
       <c r="J10" s="157"/>
     </row>
-    <row r="11" spans="2:11" s="152" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="2:11" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="153"/>
       <c r="C11" s="159" t="s">
         <v>174</v>
@@ -4667,7 +4457,7 @@
       </c>
       <c r="J11" s="157"/>
     </row>
-    <row r="12" spans="2:11" s="152" customFormat="1" ht="16" thickBot="1">
+    <row r="12" spans="2:11" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="153"/>
       <c r="C12" s="159" t="s">
         <v>177</v>
@@ -4689,7 +4479,7 @@
       </c>
       <c r="J12" s="157"/>
     </row>
-    <row r="13" spans="2:11" s="152" customFormat="1" ht="16" thickBot="1">
+    <row r="13" spans="2:11" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="153"/>
       <c r="C13" s="159" t="s">
         <v>178</v>
@@ -4711,7 +4501,7 @@
       </c>
       <c r="J13" s="157"/>
     </row>
-    <row r="14" spans="2:11" s="152" customFormat="1" ht="16" thickBot="1">
+    <row r="14" spans="2:11" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="153"/>
       <c r="C14" s="159" t="s">
         <v>179</v>
@@ -4733,7 +4523,7 @@
       </c>
       <c r="J14" s="157"/>
     </row>
-    <row r="15" spans="2:11" s="152" customFormat="1" ht="16" thickBot="1">
+    <row r="15" spans="2:11" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="153"/>
       <c r="C15" s="159" t="s">
         <v>38</v>
@@ -4755,7 +4545,7 @@
       </c>
       <c r="J15" s="157"/>
     </row>
-    <row r="16" spans="2:11" s="152" customFormat="1" ht="16" thickBot="1">
+    <row r="16" spans="2:11" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="153"/>
       <c r="C16" s="159" t="s">
         <v>180</v>
@@ -4777,10 +4567,10 @@
       </c>
       <c r="J16" s="157"/>
     </row>
-    <row r="17" spans="2:10" s="152" customFormat="1" ht="16" thickBot="1">
+    <row r="17" spans="2:10" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="153"/>
       <c r="C17" s="225" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>1</v>
@@ -4796,7 +4586,7 @@
       </c>
       <c r="J17" s="157"/>
     </row>
-    <row r="18" spans="2:10" s="152" customFormat="1" ht="16" thickBot="1">
+    <row r="18" spans="2:10" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="161"/>
       <c r="C18" s="162"/>
       <c r="D18" s="162"/>
@@ -4814,11 +4604,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4833,30 +4618,29 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="62" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="62" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="62" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="62" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="62" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="62" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="62" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="62" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="63" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="62" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="62" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="62" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="62" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="62" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="62" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="63" customWidth="1"/>
     <col min="10" max="10" width="3" style="63" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="63" customWidth="1"/>
-    <col min="12" max="12" width="3.25" style="63" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="63" customWidth="1"/>
-    <col min="14" max="14" width="2.75" style="63" customWidth="1"/>
-    <col min="15" max="16" width="8.5" style="63" customWidth="1"/>
-    <col min="17" max="17" width="2.75" style="63" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="63" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" style="63" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="63" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="63" customWidth="1"/>
+    <col min="15" max="16" width="8.42578125" style="63" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" style="63" customWidth="1"/>
     <col min="18" max="18" width="60" style="62" customWidth="1"/>
-    <col min="19" max="16384" width="10.625" style="62"/>
+    <col min="19" max="16384" width="10.7109375" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="16" thickBot="1"/>
-    <row r="2" spans="2:18">
+    <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="64"/>
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
@@ -4875,7 +4659,7 @@
       <c r="Q2" s="66"/>
       <c r="R2" s="67"/>
     </row>
-    <row r="3" spans="2:18" s="24" customFormat="1">
+    <row r="3" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23"/>
       <c r="C3" s="95" t="s">
         <v>29</v>
@@ -4905,14 +4689,14 @@
         <v>48</v>
       </c>
       <c r="P3" s="60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q3" s="60"/>
       <c r="R3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="68"/>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
@@ -4931,7 +4715,7 @@
       <c r="Q4" s="94"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="2:18" ht="16" thickBot="1">
+    <row r="5" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="68"/>
       <c r="C5" s="18" t="s">
         <v>46</v>
@@ -4952,7 +4736,7 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="2:18" ht="16" thickBot="1">
+    <row r="6" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="68"/>
       <c r="C6" s="105" t="s">
         <v>36</v>
@@ -4981,7 +4765,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="7" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="106" t="s">
         <v>37</v>
@@ -5014,7 +4798,7 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="112"/>
     </row>
-    <row r="8" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="8" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="107" t="s">
         <v>38</v>
@@ -5043,10 +4827,10 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="9" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="228" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D9" s="107" t="s">
         <v>38</v>
@@ -5069,14 +4853,14 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
-      <c r="P9" s="253">
+      <c r="P9" s="241">
         <f>Notes!G634</f>
         <v>5.4600000000000003E-2</v>
       </c>
       <c r="Q9" s="16"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="2:18" ht="16" thickBot="1">
+    <row r="10" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="68"/>
       <c r="C10" s="107" t="s">
         <v>39</v>
@@ -5111,7 +4895,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="2:18" s="152" customFormat="1">
+    <row r="11" spans="2:18" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="153"/>
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
@@ -5130,7 +4914,7 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="165"/>
     </row>
-    <row r="12" spans="2:18" s="152" customFormat="1">
+    <row r="12" spans="2:18" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="153"/>
       <c r="C12" s="18" t="s">
         <v>172</v>
@@ -5151,7 +4935,7 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="165"/>
     </row>
-    <row r="13" spans="2:18" s="152" customFormat="1" ht="16" thickBot="1">
+    <row r="13" spans="2:18" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="153"/>
       <c r="C13" s="168" t="s">
         <v>181</v>
@@ -5172,7 +4956,7 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="165"/>
     </row>
-    <row r="14" spans="2:18" s="152" customFormat="1" ht="16" thickBot="1">
+    <row r="14" spans="2:18" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="153"/>
       <c r="C14" s="171" t="s">
         <v>174</v>
@@ -5201,7 +4985,7 @@
       <c r="Q14" s="155"/>
       <c r="R14" s="165"/>
     </row>
-    <row r="15" spans="2:18" s="152" customFormat="1" ht="16" thickBot="1">
+    <row r="15" spans="2:18" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="153"/>
       <c r="C15" s="171" t="s">
         <v>177</v>
@@ -5230,7 +5014,7 @@
       <c r="Q15" s="156"/>
       <c r="R15" s="165"/>
     </row>
-    <row r="16" spans="2:18" s="152" customFormat="1" ht="16" thickBot="1">
+    <row r="16" spans="2:18" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="153"/>
       <c r="C16" s="171" t="s">
         <v>178</v>
@@ -5259,7 +5043,7 @@
       <c r="Q16" s="156"/>
       <c r="R16" s="165"/>
     </row>
-    <row r="17" spans="2:18" s="152" customFormat="1" ht="16" thickBot="1">
+    <row r="17" spans="2:18" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="153"/>
       <c r="C17" s="171" t="s">
         <v>179</v>
@@ -5288,7 +5072,7 @@
       <c r="Q17" s="156"/>
       <c r="R17" s="165"/>
     </row>
-    <row r="18" spans="2:18" s="152" customFormat="1" ht="16" thickBot="1">
+    <row r="18" spans="2:18" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="153"/>
       <c r="C18" s="171" t="s">
         <v>38</v>
@@ -5317,7 +5101,7 @@
       <c r="Q18" s="155"/>
       <c r="R18" s="165"/>
     </row>
-    <row r="19" spans="2:18" s="152" customFormat="1" ht="16" thickBot="1">
+    <row r="19" spans="2:18" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="153"/>
       <c r="C19" s="171" t="s">
         <v>180</v>
@@ -5346,7 +5130,7 @@
       <c r="Q19" s="155"/>
       <c r="R19" s="165"/>
     </row>
-    <row r="20" spans="2:18" ht="16" thickBot="1">
+    <row r="20" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="175"/>
       <c r="C20" s="176"/>
       <c r="D20" s="176"/>
@@ -5368,11 +5152,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5387,23 +5166,23 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="42" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="42" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="42" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="42" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="42" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="42" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="42" customWidth="1"/>
     <col min="6" max="6" width="5" style="42" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="42" customWidth="1"/>
-    <col min="8" max="10" width="12.125" style="42" customWidth="1"/>
-    <col min="11" max="11" width="33.125" style="43" customWidth="1"/>
-    <col min="12" max="12" width="87.25" style="42" customWidth="1"/>
-    <col min="13" max="16384" width="33.125" style="42"/>
+    <col min="7" max="7" width="10.28515625" style="42" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="42" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="43" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="42" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" thickBot="1"/>
-    <row r="2" spans="2:12">
+    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="44"/>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
@@ -5416,7 +5195,7 @@
       <c r="K2" s="46"/>
       <c r="L2" s="45"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="47"/>
       <c r="C3" s="48" t="s">
         <v>10</v>
@@ -5431,7 +5210,7 @@
       <c r="K3" s="49"/>
       <c r="L3" s="50"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="47"/>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
@@ -5444,7 +5223,7 @@
       <c r="K4" s="51"/>
       <c r="L4" s="50"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="52"/>
       <c r="C5" s="53" t="s">
         <v>12</v>
@@ -5473,7 +5252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="47"/>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
@@ -5486,7 +5265,7 @@
       <c r="K6" s="49"/>
       <c r="L6" s="48"/>
     </row>
-    <row r="7" spans="2:12" ht="16">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="47"/>
       <c r="C7" s="119" t="s">
         <v>205</v>
@@ -5513,7 +5292,7 @@
       </c>
       <c r="L7" s="115"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="47"/>
       <c r="C8" s="119"/>
       <c r="D8" s="56"/>
@@ -5525,7 +5304,7 @@
       <c r="J8" s="51"/>
       <c r="L8" s="61"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="47"/>
       <c r="C9" s="119" t="s">
         <v>39</v>
@@ -5549,7 +5328,7 @@
       </c>
       <c r="L9" s="61"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="47"/>
       <c r="C10" s="119"/>
       <c r="D10" s="56"/>
@@ -5562,7 +5341,7 @@
       <c r="K10" s="51"/>
       <c r="L10" s="61"/>
     </row>
-    <row r="11" spans="2:12" ht="16">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="47"/>
       <c r="C11" s="119" t="s">
         <v>37</v>
@@ -5581,10 +5360,10 @@
       </c>
       <c r="L11" s="115"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="47"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="47"/>
       <c r="C13" s="55" t="s">
         <v>183</v>
@@ -5609,37 +5388,32 @@
       </c>
       <c r="L13" s="182"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="47"/>
       <c r="C14" s="229" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D14" s="56"/>
       <c r="E14" s="230" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F14" s="230"/>
       <c r="G14" s="50" t="s">
         <v>58</v>
       </c>
       <c r="H14" s="51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I14" s="51"/>
       <c r="J14" s="51"/>
-      <c r="K14" s="254" t="s">
-        <v>222</v>
+      <c r="K14" s="242" t="s">
+        <v>221</v>
       </c>
       <c r="L14" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5651,19 +5425,19 @@
       <selection activeCell="H625" sqref="H625"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="97" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="97" customWidth="1"/>
     <col min="2" max="2" width="5" style="97" customWidth="1"/>
     <col min="3" max="5" width="7" style="97"/>
-    <col min="6" max="6" width="10.875" style="97" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="97" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="97"/>
-    <col min="8" max="8" width="8.875" style="97" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="97" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="7" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="16" thickBot="1"/>
-    <row r="2" spans="2:26" s="24" customFormat="1">
+    <row r="1" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="100"/>
       <c r="C2" s="101" t="s">
         <v>24</v>
@@ -5691,7 +5465,7 @@
       <c r="T2" s="101"/>
       <c r="U2" s="101"/>
     </row>
-    <row r="3" spans="2:26">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="98"/>
       <c r="C3" s="99"/>
       <c r="D3" s="99"/>
@@ -5713,7 +5487,7 @@
       <c r="T3" s="99"/>
       <c r="U3" s="99"/>
     </row>
-    <row r="4" spans="2:26" customFormat="1" ht="16">
+    <row r="4" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="98"/>
       <c r="C4" s="108"/>
       <c r="D4" s="108"/>
@@ -5738,7 +5512,7 @@
       <c r="W4" s="108"/>
       <c r="X4" s="108"/>
     </row>
-    <row r="5" spans="2:26" customFormat="1" ht="16">
+    <row r="5" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="98"/>
       <c r="C5" s="108" t="s">
         <v>67</v>
@@ -5767,7 +5541,7 @@
       <c r="Y5" s="108"/>
       <c r="Z5" s="108"/>
     </row>
-    <row r="6" spans="2:26" customFormat="1" ht="16">
+    <row r="6" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="98"/>
       <c r="C6" s="108"/>
       <c r="D6" s="108"/>
@@ -5794,7 +5568,7 @@
       <c r="Y6" s="108"/>
       <c r="Z6" s="108"/>
     </row>
-    <row r="7" spans="2:26" customFormat="1" ht="16">
+    <row r="7" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="98"/>
       <c r="C7" s="108"/>
       <c r="D7" s="108" t="s">
@@ -5825,7 +5599,7 @@
       <c r="Y7" s="108"/>
       <c r="Z7" s="108"/>
     </row>
-    <row r="8" spans="2:26" customFormat="1" ht="16">
+    <row r="8" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="98"/>
       <c r="C8" s="108"/>
       <c r="D8" s="108"/>
@@ -5854,7 +5628,7 @@
       <c r="Y8" s="108"/>
       <c r="Z8" s="108"/>
     </row>
-    <row r="9" spans="2:26" customFormat="1" ht="16">
+    <row r="9" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="98"/>
       <c r="C9" s="108"/>
       <c r="D9" s="108"/>
@@ -5881,7 +5655,7 @@
       <c r="Y9" s="108"/>
       <c r="Z9" s="108"/>
     </row>
-    <row r="10" spans="2:26" customFormat="1" ht="16">
+    <row r="10" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="98"/>
       <c r="C10" s="108"/>
       <c r="D10" s="108"/>
@@ -5908,7 +5682,7 @@
       <c r="Y10" s="108"/>
       <c r="Z10" s="108"/>
     </row>
-    <row r="11" spans="2:26" customFormat="1" ht="16">
+    <row r="11" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="98"/>
       <c r="C11" s="108"/>
       <c r="D11" s="108"/>
@@ -5935,7 +5709,7 @@
       <c r="Y11" s="108"/>
       <c r="Z11" s="108"/>
     </row>
-    <row r="12" spans="2:26" customFormat="1" ht="16">
+    <row r="12" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="98"/>
       <c r="C12" s="108"/>
       <c r="D12" s="108"/>
@@ -5962,7 +5736,7 @@
       <c r="Y12" s="108"/>
       <c r="Z12" s="108"/>
     </row>
-    <row r="13" spans="2:26" customFormat="1" ht="16">
+    <row r="13" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="98"/>
       <c r="C13" s="108"/>
       <c r="D13" s="108"/>
@@ -5989,7 +5763,7 @@
       <c r="Y13" s="108"/>
       <c r="Z13" s="108"/>
     </row>
-    <row r="14" spans="2:26" customFormat="1" ht="16">
+    <row r="14" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="98"/>
       <c r="C14" s="108"/>
       <c r="D14" s="108"/>
@@ -6016,7 +5790,7 @@
       <c r="Y14" s="108"/>
       <c r="Z14" s="108"/>
     </row>
-    <row r="15" spans="2:26" customFormat="1" ht="16">
+    <row r="15" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="98"/>
       <c r="C15" s="108"/>
       <c r="D15" s="108"/>
@@ -6043,7 +5817,7 @@
       <c r="Y15" s="108"/>
       <c r="Z15" s="108"/>
     </row>
-    <row r="16" spans="2:26" customFormat="1" ht="16">
+    <row r="16" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="98"/>
       <c r="C16" s="108"/>
       <c r="D16" s="108"/>
@@ -6070,7 +5844,7 @@
       <c r="Y16" s="108"/>
       <c r="Z16" s="108"/>
     </row>
-    <row r="17" spans="2:26" customFormat="1" ht="16">
+    <row r="17" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="98"/>
       <c r="C17" s="108"/>
       <c r="D17" s="108"/>
@@ -6097,7 +5871,7 @@
       <c r="Y17" s="108"/>
       <c r="Z17" s="108"/>
     </row>
-    <row r="18" spans="2:26" customFormat="1" ht="16">
+    <row r="18" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="98"/>
       <c r="C18" s="108"/>
       <c r="D18" s="108"/>
@@ -6124,7 +5898,7 @@
       <c r="Y18" s="108"/>
       <c r="Z18" s="108"/>
     </row>
-    <row r="19" spans="2:26" customFormat="1" ht="16">
+    <row r="19" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="98"/>
       <c r="C19" s="108"/>
       <c r="D19" s="108"/>
@@ -6151,7 +5925,7 @@
       <c r="Y19" s="108"/>
       <c r="Z19" s="108"/>
     </row>
-    <row r="20" spans="2:26" customFormat="1" ht="16">
+    <row r="20" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="98"/>
       <c r="C20" s="108"/>
       <c r="D20" s="108"/>
@@ -6178,7 +5952,7 @@
       <c r="Y20" s="108"/>
       <c r="Z20" s="108"/>
     </row>
-    <row r="21" spans="2:26" customFormat="1" ht="16">
+    <row r="21" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="98"/>
       <c r="C21" s="108"/>
       <c r="D21" s="108"/>
@@ -6205,7 +5979,7 @@
       <c r="Y21" s="108"/>
       <c r="Z21" s="108"/>
     </row>
-    <row r="22" spans="2:26" customFormat="1" ht="16">
+    <row r="22" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="98"/>
       <c r="C22" s="108"/>
       <c r="D22" s="108" t="s">
@@ -6234,7 +6008,7 @@
       <c r="Y22" s="108"/>
       <c r="Z22" s="108"/>
     </row>
-    <row r="23" spans="2:26" customFormat="1" ht="16">
+    <row r="23" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="98"/>
       <c r="C23" s="108"/>
       <c r="D23" s="108"/>
@@ -6265,7 +6039,7 @@
       <c r="Y23" s="108"/>
       <c r="Z23" s="108"/>
     </row>
-    <row r="24" spans="2:26" customFormat="1" ht="16">
+    <row r="24" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="98"/>
       <c r="C24" s="108"/>
       <c r="D24" s="108"/>
@@ -6296,7 +6070,7 @@
       <c r="Y24" s="108"/>
       <c r="Z24" s="108"/>
     </row>
-    <row r="25" spans="2:26" customFormat="1" ht="16">
+    <row r="25" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="98"/>
       <c r="C25" s="108"/>
       <c r="D25" s="108"/>
@@ -6329,7 +6103,7 @@
       <c r="Y25" s="108"/>
       <c r="Z25" s="108"/>
     </row>
-    <row r="26" spans="2:26" customFormat="1" ht="16">
+    <row r="26" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="98"/>
       <c r="C26" s="108"/>
       <c r="D26" s="108"/>
@@ -6362,7 +6136,7 @@
       <c r="Y26" s="108"/>
       <c r="Z26" s="108"/>
     </row>
-    <row r="27" spans="2:26" customFormat="1" ht="16">
+    <row r="27" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="98"/>
       <c r="C27" s="108"/>
       <c r="D27" s="108"/>
@@ -6396,7 +6170,7 @@
       <c r="Y27" s="108"/>
       <c r="Z27" s="108"/>
     </row>
-    <row r="28" spans="2:26" customFormat="1" ht="16">
+    <row r="28" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="98"/>
       <c r="C28" s="108"/>
       <c r="D28" s="108"/>
@@ -6430,7 +6204,7 @@
       <c r="Y28" s="108"/>
       <c r="Z28" s="108"/>
     </row>
-    <row r="29" spans="2:26" customFormat="1" ht="16">
+    <row r="29" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="98"/>
       <c r="C29" s="108"/>
       <c r="D29" s="108"/>
@@ -6463,7 +6237,7 @@
       <c r="Y29" s="108"/>
       <c r="Z29" s="108"/>
     </row>
-    <row r="30" spans="2:26" customFormat="1" ht="16">
+    <row r="30" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="98"/>
       <c r="C30" s="108"/>
       <c r="D30" s="108"/>
@@ -6494,7 +6268,7 @@
       <c r="Y30" s="108"/>
       <c r="Z30" s="108"/>
     </row>
-    <row r="31" spans="2:26" customFormat="1" ht="16">
+    <row r="31" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="98"/>
       <c r="C31" s="108"/>
       <c r="D31" s="108"/>
@@ -6528,7 +6302,7 @@
       <c r="Y31" s="108"/>
       <c r="Z31" s="108"/>
     </row>
-    <row r="32" spans="2:26" customFormat="1" ht="16">
+    <row r="32" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="98"/>
       <c r="C32" s="108"/>
       <c r="D32" s="108"/>
@@ -6561,7 +6335,7 @@
       <c r="Y32" s="108"/>
       <c r="Z32" s="108"/>
     </row>
-    <row r="33" spans="2:26" customFormat="1" ht="16">
+    <row r="33" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="98"/>
       <c r="C33" s="108"/>
       <c r="D33" s="108"/>
@@ -6595,7 +6369,7 @@
       <c r="Y33" s="108"/>
       <c r="Z33" s="108"/>
     </row>
-    <row r="34" spans="2:26" customFormat="1" ht="16">
+    <row r="34" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="98"/>
       <c r="C34" s="108"/>
       <c r="D34" s="108"/>
@@ -6628,7 +6402,7 @@
       <c r="Y34" s="108"/>
       <c r="Z34" s="108"/>
     </row>
-    <row r="35" spans="2:26" customFormat="1" ht="16">
+    <row r="35" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="98"/>
       <c r="C35" s="108"/>
       <c r="D35" s="108"/>
@@ -6662,7 +6436,7 @@
       <c r="Y35" s="108"/>
       <c r="Z35" s="108"/>
     </row>
-    <row r="36" spans="2:26" customFormat="1" ht="16">
+    <row r="36" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="98"/>
       <c r="C36" s="108"/>
       <c r="D36" s="108"/>
@@ -6696,7 +6470,7 @@
       <c r="Y36" s="108"/>
       <c r="Z36" s="108"/>
     </row>
-    <row r="37" spans="2:26" customFormat="1" ht="16">
+    <row r="37" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="98"/>
       <c r="C37" s="108"/>
       <c r="D37" s="108"/>
@@ -6730,7 +6504,7 @@
       <c r="Y37" s="108"/>
       <c r="Z37" s="108"/>
     </row>
-    <row r="38" spans="2:26" customFormat="1" ht="16">
+    <row r="38" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="98"/>
       <c r="C38" s="108"/>
       <c r="D38" s="108"/>
@@ -6764,7 +6538,7 @@
       <c r="Y38" s="108"/>
       <c r="Z38" s="108"/>
     </row>
-    <row r="39" spans="2:26" customFormat="1" ht="16">
+    <row r="39" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="98"/>
       <c r="C39" s="108"/>
       <c r="D39" s="108"/>
@@ -6798,7 +6572,7 @@
       <c r="Y39" s="108"/>
       <c r="Z39" s="108"/>
     </row>
-    <row r="40" spans="2:26" customFormat="1" ht="16">
+    <row r="40" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="98"/>
       <c r="C40" s="108"/>
       <c r="D40" s="108"/>
@@ -6832,7 +6606,7 @@
       <c r="Y40" s="108"/>
       <c r="Z40" s="108"/>
     </row>
-    <row r="41" spans="2:26" customFormat="1" ht="16">
+    <row r="41" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="98"/>
       <c r="C41" s="108"/>
       <c r="D41" s="108"/>
@@ -6859,7 +6633,7 @@
       <c r="Y41" s="108"/>
       <c r="Z41" s="108"/>
     </row>
-    <row r="42" spans="2:26" customFormat="1" ht="16">
+    <row r="42" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="98"/>
       <c r="C42" s="108"/>
       <c r="D42" s="108"/>
@@ -6886,7 +6660,7 @@
       <c r="Y42" s="108"/>
       <c r="Z42" s="108"/>
     </row>
-    <row r="43" spans="2:26" customFormat="1" ht="16">
+    <row r="43" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="98"/>
       <c r="C43" s="108"/>
       <c r="D43" s="108"/>
@@ -6913,7 +6687,7 @@
       <c r="Y43" s="108"/>
       <c r="Z43" s="108"/>
     </row>
-    <row r="44" spans="2:26" customFormat="1" ht="16">
+    <row r="44" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="98"/>
       <c r="C44" s="108"/>
       <c r="D44" s="108"/>
@@ -6940,7 +6714,7 @@
       <c r="Y44" s="108"/>
       <c r="Z44" s="108"/>
     </row>
-    <row r="45" spans="2:26" customFormat="1" ht="16">
+    <row r="45" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="98"/>
       <c r="C45" s="108"/>
       <c r="D45" s="108"/>
@@ -6967,7 +6741,7 @@
       <c r="Y45" s="108"/>
       <c r="Z45" s="108"/>
     </row>
-    <row r="46" spans="2:26" customFormat="1" ht="16">
+    <row r="46" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="98"/>
       <c r="C46" s="108"/>
       <c r="D46" s="108"/>
@@ -6996,7 +6770,7 @@
       <c r="Y46" s="108"/>
       <c r="Z46" s="108"/>
     </row>
-    <row r="47" spans="2:26" customFormat="1" ht="16">
+    <row r="47" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="98"/>
       <c r="C47" s="108"/>
       <c r="D47" s="108"/>
@@ -7025,7 +6799,7 @@
       <c r="Y47" s="108"/>
       <c r="Z47" s="108"/>
     </row>
-    <row r="48" spans="2:26" customFormat="1" ht="16">
+    <row r="48" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="98"/>
       <c r="C48" s="108"/>
       <c r="D48" s="108"/>
@@ -7055,7 +6829,7 @@
       <c r="Y48" s="108"/>
       <c r="Z48" s="108"/>
     </row>
-    <row r="49" spans="2:26" customFormat="1" ht="16">
+    <row r="49" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="98"/>
       <c r="C49" s="108"/>
       <c r="D49" s="108"/>
@@ -7082,7 +6856,7 @@
       <c r="Y49" s="108"/>
       <c r="Z49" s="108"/>
     </row>
-    <row r="50" spans="2:26" customFormat="1" ht="16">
+    <row r="50" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="98"/>
       <c r="C50" s="108"/>
       <c r="D50" s="108"/>
@@ -7109,7 +6883,7 @@
       <c r="Y50" s="108"/>
       <c r="Z50" s="108"/>
     </row>
-    <row r="51" spans="2:26" customFormat="1" ht="16">
+    <row r="51" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="98"/>
       <c r="C51" s="108"/>
       <c r="D51" s="108"/>
@@ -7136,7 +6910,7 @@
       <c r="Y51" s="108"/>
       <c r="Z51" s="108"/>
     </row>
-    <row r="52" spans="2:26" customFormat="1" ht="16">
+    <row r="52" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="98"/>
       <c r="C52" s="108"/>
       <c r="D52" s="108"/>
@@ -7163,7 +6937,7 @@
       <c r="Y52" s="108"/>
       <c r="Z52" s="108"/>
     </row>
-    <row r="53" spans="2:26" customFormat="1" ht="16">
+    <row r="53" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="98"/>
       <c r="C53" s="108"/>
       <c r="D53" s="108"/>
@@ -7190,7 +6964,7 @@
       <c r="Y53" s="108"/>
       <c r="Z53" s="108"/>
     </row>
-    <row r="54" spans="2:26" customFormat="1" ht="16">
+    <row r="54" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="98"/>
       <c r="C54" s="108"/>
       <c r="D54" s="108"/>
@@ -7217,7 +6991,7 @@
       <c r="Y54" s="108"/>
       <c r="Z54" s="108"/>
     </row>
-    <row r="55" spans="2:26" customFormat="1" ht="16">
+    <row r="55" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="98"/>
       <c r="C55" s="108"/>
       <c r="D55" s="108"/>
@@ -7244,7 +7018,7 @@
       <c r="Y55" s="108"/>
       <c r="Z55" s="108"/>
     </row>
-    <row r="56" spans="2:26" customFormat="1" ht="16">
+    <row r="56" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="98"/>
       <c r="C56" s="108"/>
       <c r="D56" s="108"/>
@@ -7271,7 +7045,7 @@
       <c r="Y56" s="108"/>
       <c r="Z56" s="108"/>
     </row>
-    <row r="57" spans="2:26" customFormat="1" ht="16">
+    <row r="57" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="98"/>
       <c r="C57" s="108"/>
       <c r="D57" s="108"/>
@@ -7298,7 +7072,7 @@
       <c r="Y57" s="108"/>
       <c r="Z57" s="108"/>
     </row>
-    <row r="58" spans="2:26" customFormat="1" ht="16">
+    <row r="58" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="98"/>
       <c r="C58" s="108"/>
       <c r="D58" s="108"/>
@@ -7325,7 +7099,7 @@
       <c r="Y58" s="108"/>
       <c r="Z58" s="108"/>
     </row>
-    <row r="59" spans="2:26" customFormat="1" ht="16">
+    <row r="59" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="98"/>
       <c r="C59" s="108"/>
       <c r="D59" s="108"/>
@@ -7352,7 +7126,7 @@
       <c r="Y59" s="108"/>
       <c r="Z59" s="108"/>
     </row>
-    <row r="60" spans="2:26" customFormat="1" ht="16">
+    <row r="60" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="98"/>
       <c r="C60" s="108"/>
       <c r="D60" s="108"/>
@@ -7379,7 +7153,7 @@
       <c r="Y60" s="108"/>
       <c r="Z60" s="108"/>
     </row>
-    <row r="61" spans="2:26" customFormat="1" ht="16">
+    <row r="61" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="98"/>
       <c r="C61" s="108"/>
       <c r="D61" s="108"/>
@@ -7406,7 +7180,7 @@
       <c r="Y61" s="108"/>
       <c r="Z61" s="108"/>
     </row>
-    <row r="62" spans="2:26" customFormat="1" ht="16">
+    <row r="62" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="98"/>
       <c r="C62" s="108"/>
       <c r="D62" s="108"/>
@@ -7433,7 +7207,7 @@
       <c r="Y62" s="108"/>
       <c r="Z62" s="108"/>
     </row>
-    <row r="63" spans="2:26" customFormat="1" ht="16">
+    <row r="63" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="98"/>
       <c r="C63" s="108"/>
       <c r="D63" s="108"/>
@@ -7460,7 +7234,7 @@
       <c r="Y63" s="108"/>
       <c r="Z63" s="108"/>
     </row>
-    <row r="64" spans="2:26" customFormat="1" ht="16">
+    <row r="64" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="98"/>
       <c r="C64" s="108"/>
       <c r="D64" s="108"/>
@@ -7487,7 +7261,7 @@
       <c r="Y64" s="108"/>
       <c r="Z64" s="108"/>
     </row>
-    <row r="65" spans="2:26" customFormat="1" ht="16">
+    <row r="65" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="98"/>
       <c r="C65" s="108"/>
       <c r="D65" s="108"/>
@@ -7514,7 +7288,7 @@
       <c r="Y65" s="108"/>
       <c r="Z65" s="108"/>
     </row>
-    <row r="66" spans="2:26" customFormat="1" ht="16">
+    <row r="66" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="98"/>
       <c r="C66" s="108"/>
       <c r="D66" s="108"/>
@@ -7541,7 +7315,7 @@
       <c r="Y66" s="108"/>
       <c r="Z66" s="108"/>
     </row>
-    <row r="67" spans="2:26" customFormat="1" ht="16">
+    <row r="67" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="98"/>
       <c r="C67" s="108"/>
       <c r="D67" s="108"/>
@@ -7568,7 +7342,7 @@
       <c r="Y67" s="108"/>
       <c r="Z67" s="108"/>
     </row>
-    <row r="68" spans="2:26" customFormat="1" ht="16">
+    <row r="68" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="98"/>
       <c r="C68" s="108"/>
       <c r="D68" s="108" t="s">
@@ -7597,7 +7371,7 @@
       <c r="Y68" s="108"/>
       <c r="Z68" s="108"/>
     </row>
-    <row r="69" spans="2:26" s="128" customFormat="1" ht="16">
+    <row r="69" spans="2:26" s="128" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="98"/>
       <c r="C69" s="125"/>
       <c r="D69" s="125"/>
@@ -7629,7 +7403,7 @@
       <c r="Y69" s="125"/>
       <c r="Z69" s="125"/>
     </row>
-    <row r="70" spans="2:26" s="128" customFormat="1" ht="16">
+    <row r="70" spans="2:26" s="128" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="98"/>
       <c r="C70" s="125"/>
       <c r="D70" s="125"/>
@@ -7661,7 +7435,7 @@
       <c r="Y70" s="125"/>
       <c r="Z70" s="125"/>
     </row>
-    <row r="71" spans="2:26" s="128" customFormat="1" ht="16">
+    <row r="71" spans="2:26" s="128" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="98"/>
       <c r="C71" s="125"/>
       <c r="D71" s="125"/>
@@ -7693,7 +7467,7 @@
       <c r="Y71" s="125"/>
       <c r="Z71" s="125"/>
     </row>
-    <row r="72" spans="2:26" s="128" customFormat="1" ht="16">
+    <row r="72" spans="2:26" s="128" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="98"/>
       <c r="C72" s="125"/>
       <c r="D72" s="125"/>
@@ -7727,7 +7501,7 @@
       <c r="Y72" s="125"/>
       <c r="Z72" s="125"/>
     </row>
-    <row r="73" spans="2:26" s="128" customFormat="1" ht="16">
+    <row r="73" spans="2:26" s="128" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="98"/>
       <c r="C73" s="125"/>
       <c r="D73" s="125"/>
@@ -7753,7 +7527,7 @@
       <c r="Y73" s="125"/>
       <c r="Z73" s="125"/>
     </row>
-    <row r="74" spans="2:26" s="128" customFormat="1" ht="16">
+    <row r="74" spans="2:26" s="128" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="98"/>
       <c r="C74" s="125"/>
       <c r="D74" s="125"/>
@@ -7785,7 +7559,7 @@
       <c r="Y74" s="125"/>
       <c r="Z74" s="125"/>
     </row>
-    <row r="75" spans="2:26" s="128" customFormat="1" ht="16">
+    <row r="75" spans="2:26" s="128" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="98"/>
       <c r="C75" s="125"/>
       <c r="D75" s="125"/>
@@ -7817,7 +7591,7 @@
       <c r="Y75" s="125"/>
       <c r="Z75" s="125"/>
     </row>
-    <row r="76" spans="2:26" customFormat="1" ht="16">
+    <row r="76" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="98"/>
       <c r="C76" s="108"/>
       <c r="D76" s="108"/>
@@ -7843,7 +7617,7 @@
       <c r="Y76" s="108"/>
       <c r="Z76" s="108"/>
     </row>
-    <row r="77" spans="2:26" customFormat="1" ht="16">
+    <row r="77" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="98"/>
       <c r="C77" s="108"/>
       <c r="D77" s="108"/>
@@ -7877,7 +7651,7 @@
       <c r="Y77" s="108"/>
       <c r="Z77" s="108"/>
     </row>
-    <row r="78" spans="2:26" customFormat="1" ht="16">
+    <row r="78" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="98"/>
       <c r="C78" s="108"/>
       <c r="D78" s="108"/>
@@ -7911,7 +7685,7 @@
       <c r="Y78" s="108"/>
       <c r="Z78" s="108"/>
     </row>
-    <row r="79" spans="2:26" customFormat="1" ht="16">
+    <row r="79" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="98"/>
       <c r="C79" s="108"/>
       <c r="D79" s="108"/>
@@ -7938,7 +7712,7 @@
       <c r="Y79" s="108"/>
       <c r="Z79" s="108"/>
     </row>
-    <row r="80" spans="2:26" customFormat="1" ht="16">
+    <row r="80" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="98"/>
       <c r="C80" s="108"/>
       <c r="D80" s="108"/>
@@ -7965,7 +7739,7 @@
       <c r="Y80" s="108"/>
       <c r="Z80" s="108"/>
     </row>
-    <row r="81" spans="2:26" customFormat="1" ht="16">
+    <row r="81" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="98"/>
       <c r="C81" s="108"/>
       <c r="D81" s="108"/>
@@ -7992,7 +7766,7 @@
       <c r="Y81" s="108"/>
       <c r="Z81" s="108"/>
     </row>
-    <row r="82" spans="2:26" customFormat="1" ht="16">
+    <row r="82" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="98"/>
       <c r="C82" s="108"/>
       <c r="D82" s="108"/>
@@ -8019,7 +7793,7 @@
       <c r="Y82" s="108"/>
       <c r="Z82" s="108"/>
     </row>
-    <row r="83" spans="2:26" customFormat="1" ht="16">
+    <row r="83" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="98"/>
       <c r="C83" s="108"/>
       <c r="D83" s="108"/>
@@ -8046,7 +7820,7 @@
       <c r="Y83" s="108"/>
       <c r="Z83" s="108"/>
     </row>
-    <row r="84" spans="2:26" customFormat="1" ht="16">
+    <row r="84" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="98"/>
       <c r="C84" s="108"/>
       <c r="D84" s="108"/>
@@ -8073,7 +7847,7 @@
       <c r="Y84" s="108"/>
       <c r="Z84" s="108"/>
     </row>
-    <row r="85" spans="2:26" customFormat="1" ht="16">
+    <row r="85" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="98"/>
       <c r="C85" s="108"/>
       <c r="D85" s="108"/>
@@ -8100,7 +7874,7 @@
       <c r="Y85" s="108"/>
       <c r="Z85" s="108"/>
     </row>
-    <row r="86" spans="2:26" customFormat="1" ht="16">
+    <row r="86" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="98"/>
       <c r="C86" s="108"/>
       <c r="D86" s="108"/>
@@ -8127,7 +7901,7 @@
       <c r="Y86" s="108"/>
       <c r="Z86" s="108"/>
     </row>
-    <row r="87" spans="2:26" customFormat="1" ht="16">
+    <row r="87" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="98"/>
       <c r="C87" s="108"/>
       <c r="D87" s="108"/>
@@ -8154,7 +7928,7 @@
       <c r="Y87" s="108"/>
       <c r="Z87" s="108"/>
     </row>
-    <row r="88" spans="2:26" customFormat="1" ht="16">
+    <row r="88" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="98"/>
       <c r="C88" s="108"/>
       <c r="D88" s="108"/>
@@ -8181,7 +7955,7 @@
       <c r="Y88" s="108"/>
       <c r="Z88" s="108"/>
     </row>
-    <row r="89" spans="2:26" customFormat="1" ht="16">
+    <row r="89" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="98"/>
       <c r="C89" s="108"/>
       <c r="D89" s="108"/>
@@ -8208,7 +7982,7 @@
       <c r="Y89" s="108"/>
       <c r="Z89" s="108"/>
     </row>
-    <row r="90" spans="2:26" customFormat="1" ht="16">
+    <row r="90" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="98"/>
       <c r="C90" s="108"/>
       <c r="D90" s="108"/>
@@ -8235,7 +8009,7 @@
       <c r="Y90" s="108"/>
       <c r="Z90" s="108"/>
     </row>
-    <row r="91" spans="2:26" customFormat="1" ht="16">
+    <row r="91" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="98"/>
       <c r="C91" s="108"/>
       <c r="D91" s="108"/>
@@ -8262,7 +8036,7 @@
       <c r="Y91" s="108"/>
       <c r="Z91" s="108"/>
     </row>
-    <row r="92" spans="2:26" customFormat="1" ht="16">
+    <row r="92" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="98"/>
       <c r="C92" s="108"/>
       <c r="D92" s="108"/>
@@ -8289,7 +8063,7 @@
       <c r="Y92" s="108"/>
       <c r="Z92" s="108"/>
     </row>
-    <row r="93" spans="2:26" customFormat="1" ht="16">
+    <row r="93" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="98"/>
       <c r="C93" s="108"/>
       <c r="D93" s="108"/>
@@ -8316,7 +8090,7 @@
       <c r="Y93" s="108"/>
       <c r="Z93" s="108"/>
     </row>
-    <row r="94" spans="2:26" customFormat="1" ht="16">
+    <row r="94" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="98"/>
       <c r="C94" s="108"/>
       <c r="D94" s="108"/>
@@ -8343,7 +8117,7 @@
       <c r="Y94" s="108"/>
       <c r="Z94" s="108"/>
     </row>
-    <row r="95" spans="2:26" customFormat="1" ht="16">
+    <row r="95" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="98"/>
       <c r="C95" s="108"/>
       <c r="D95" s="108"/>
@@ -8370,7 +8144,7 @@
       <c r="Y95" s="108"/>
       <c r="Z95" s="108"/>
     </row>
-    <row r="96" spans="2:26" customFormat="1" ht="16">
+    <row r="96" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="98"/>
       <c r="C96" s="108"/>
       <c r="D96" s="108"/>
@@ -8397,7 +8171,7 @@
       <c r="Y96" s="108"/>
       <c r="Z96" s="108"/>
     </row>
-    <row r="97" spans="2:26" customFormat="1" ht="16">
+    <row r="97" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="98"/>
       <c r="C97" s="108"/>
       <c r="D97" s="108"/>
@@ -8424,7 +8198,7 @@
       <c r="Y97" s="108"/>
       <c r="Z97" s="108"/>
     </row>
-    <row r="98" spans="2:26" customFormat="1" ht="16">
+    <row r="98" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="98"/>
       <c r="C98" s="108"/>
       <c r="D98" s="108"/>
@@ -8451,7 +8225,7 @@
       <c r="Y98" s="108"/>
       <c r="Z98" s="108"/>
     </row>
-    <row r="99" spans="2:26" customFormat="1" ht="16">
+    <row r="99" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="98"/>
       <c r="C99" s="108"/>
       <c r="D99" s="108"/>
@@ -8478,7 +8252,7 @@
       <c r="Y99" s="108"/>
       <c r="Z99" s="108"/>
     </row>
-    <row r="100" spans="2:26" customFormat="1" ht="16">
+    <row r="100" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="98"/>
       <c r="C100" s="108"/>
       <c r="D100" s="108"/>
@@ -8505,7 +8279,7 @@
       <c r="Y100" s="108"/>
       <c r="Z100" s="108"/>
     </row>
-    <row r="101" spans="2:26" customFormat="1" ht="16">
+    <row r="101" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="98"/>
       <c r="C101" s="108"/>
       <c r="D101" s="108"/>
@@ -8532,7 +8306,7 @@
       <c r="Y101" s="108"/>
       <c r="Z101" s="108"/>
     </row>
-    <row r="102" spans="2:26" customFormat="1" ht="16">
+    <row r="102" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="98"/>
       <c r="C102" s="108"/>
       <c r="D102" s="108"/>
@@ -8559,7 +8333,7 @@
       <c r="Y102" s="108"/>
       <c r="Z102" s="108"/>
     </row>
-    <row r="103" spans="2:26" customFormat="1" ht="16">
+    <row r="103" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="98"/>
       <c r="C103" s="108"/>
       <c r="D103" s="108"/>
@@ -8586,7 +8360,7 @@
       <c r="Y103" s="108"/>
       <c r="Z103" s="108"/>
     </row>
-    <row r="104" spans="2:26" customFormat="1" ht="16">
+    <row r="104" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="98"/>
       <c r="C104" s="108"/>
       <c r="D104" s="108"/>
@@ -8613,7 +8387,7 @@
       <c r="Y104" s="108"/>
       <c r="Z104" s="108"/>
     </row>
-    <row r="105" spans="2:26" customFormat="1" ht="16">
+    <row r="105" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="98"/>
       <c r="C105" s="108"/>
       <c r="D105" s="108"/>
@@ -8640,7 +8414,7 @@
       <c r="Y105" s="108"/>
       <c r="Z105" s="108"/>
     </row>
-    <row r="106" spans="2:26" customFormat="1" ht="16">
+    <row r="106" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="98"/>
       <c r="C106" s="108"/>
       <c r="D106" s="108"/>
@@ -8667,7 +8441,7 @@
       <c r="Y106" s="108"/>
       <c r="Z106" s="108"/>
     </row>
-    <row r="107" spans="2:26" customFormat="1" ht="16">
+    <row r="107" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="98"/>
       <c r="C107" s="108"/>
       <c r="D107" s="108"/>
@@ -8694,7 +8468,7 @@
       <c r="Y107" s="108"/>
       <c r="Z107" s="108"/>
     </row>
-    <row r="108" spans="2:26" customFormat="1" ht="16">
+    <row r="108" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="98"/>
       <c r="C108" s="108"/>
       <c r="D108" s="108"/>
@@ -8721,7 +8495,7 @@
       <c r="Y108" s="108"/>
       <c r="Z108" s="108"/>
     </row>
-    <row r="109" spans="2:26" customFormat="1" ht="16">
+    <row r="109" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="98"/>
       <c r="C109" s="108"/>
       <c r="D109" s="108"/>
@@ -8748,7 +8522,7 @@
       <c r="Y109" s="108"/>
       <c r="Z109" s="108"/>
     </row>
-    <row r="110" spans="2:26" customFormat="1" ht="16">
+    <row r="110" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="98"/>
       <c r="C110" s="108"/>
       <c r="D110" s="108"/>
@@ -8775,7 +8549,7 @@
       <c r="Y110" s="108"/>
       <c r="Z110" s="108"/>
     </row>
-    <row r="111" spans="2:26" customFormat="1" ht="16">
+    <row r="111" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="98"/>
       <c r="C111" s="108"/>
       <c r="D111" s="108"/>
@@ -8802,7 +8576,7 @@
       <c r="Y111" s="108"/>
       <c r="Z111" s="108"/>
     </row>
-    <row r="112" spans="2:26" customFormat="1" ht="16">
+    <row r="112" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="98"/>
       <c r="C112" s="108"/>
       <c r="D112" s="108"/>
@@ -8829,7 +8603,7 @@
       <c r="Y112" s="108"/>
       <c r="Z112" s="108"/>
     </row>
-    <row r="113" spans="2:26" customFormat="1" ht="16">
+    <row r="113" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113" s="98"/>
       <c r="C113" s="108"/>
       <c r="D113" s="108"/>
@@ -8856,7 +8630,7 @@
       <c r="Y113" s="108"/>
       <c r="Z113" s="108"/>
     </row>
-    <row r="114" spans="2:26" customFormat="1" ht="16">
+    <row r="114" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="98"/>
       <c r="C114" s="108"/>
       <c r="D114" s="108"/>
@@ -8883,7 +8657,7 @@
       <c r="Y114" s="108"/>
       <c r="Z114" s="108"/>
     </row>
-    <row r="115" spans="2:26" customFormat="1" ht="16">
+    <row r="115" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="98"/>
       <c r="C115" s="108"/>
       <c r="D115" s="108"/>
@@ -8910,7 +8684,7 @@
       <c r="Y115" s="108"/>
       <c r="Z115" s="108"/>
     </row>
-    <row r="116" spans="2:26" customFormat="1" ht="16">
+    <row r="116" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116" s="98"/>
       <c r="C116" s="108"/>
       <c r="D116" s="108"/>
@@ -8937,7 +8711,7 @@
       <c r="Y116" s="108"/>
       <c r="Z116" s="108"/>
     </row>
-    <row r="117" spans="2:26" customFormat="1" ht="16">
+    <row r="117" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117" s="98"/>
       <c r="C117" s="108"/>
       <c r="D117" s="108"/>
@@ -8964,7 +8738,7 @@
       <c r="Y117" s="108"/>
       <c r="Z117" s="108"/>
     </row>
-    <row r="118" spans="2:26" customFormat="1" ht="16">
+    <row r="118" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="98"/>
       <c r="C118" s="108"/>
       <c r="D118" s="108"/>
@@ -8991,7 +8765,7 @@
       <c r="Y118" s="108"/>
       <c r="Z118" s="108"/>
     </row>
-    <row r="119" spans="2:26" customFormat="1" ht="16">
+    <row r="119" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B119" s="98"/>
       <c r="C119" s="108"/>
       <c r="D119" s="108"/>
@@ -9018,7 +8792,7 @@
       <c r="Y119" s="108"/>
       <c r="Z119" s="108"/>
     </row>
-    <row r="120" spans="2:26" customFormat="1" ht="16">
+    <row r="120" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B120" s="98"/>
       <c r="C120" s="108"/>
       <c r="D120" s="108"/>
@@ -9045,7 +8819,7 @@
       <c r="Y120" s="108"/>
       <c r="Z120" s="108"/>
     </row>
-    <row r="121" spans="2:26" customFormat="1" ht="16">
+    <row r="121" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="98"/>
       <c r="C121" s="108"/>
       <c r="D121" s="108"/>
@@ -9072,7 +8846,7 @@
       <c r="Y121" s="108"/>
       <c r="Z121" s="108"/>
     </row>
-    <row r="122" spans="2:26" customFormat="1" ht="16">
+    <row r="122" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B122" s="98"/>
       <c r="C122" s="108"/>
       <c r="D122" s="108"/>
@@ -9099,7 +8873,7 @@
       <c r="Y122" s="108"/>
       <c r="Z122" s="108"/>
     </row>
-    <row r="123" spans="2:26" customFormat="1" ht="16">
+    <row r="123" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123" s="98"/>
       <c r="C123" s="108"/>
       <c r="D123" s="108"/>
@@ -9126,7 +8900,7 @@
       <c r="Y123" s="108"/>
       <c r="Z123" s="108"/>
     </row>
-    <row r="124" spans="2:26" customFormat="1" ht="16">
+    <row r="124" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="98"/>
       <c r="C124" s="108"/>
       <c r="D124" s="108"/>
@@ -9153,7 +8927,7 @@
       <c r="Y124" s="108"/>
       <c r="Z124" s="108"/>
     </row>
-    <row r="125" spans="2:26" customFormat="1" ht="16">
+    <row r="125" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="98"/>
       <c r="C125" s="108"/>
       <c r="D125" s="108"/>
@@ -9180,7 +8954,7 @@
       <c r="Y125" s="108"/>
       <c r="Z125" s="108"/>
     </row>
-    <row r="126" spans="2:26" customFormat="1" ht="16">
+    <row r="126" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126" s="98"/>
       <c r="C126" s="108"/>
       <c r="D126" s="108"/>
@@ -9207,7 +8981,7 @@
       <c r="Y126" s="108"/>
       <c r="Z126" s="108"/>
     </row>
-    <row r="127" spans="2:26" customFormat="1" ht="16">
+    <row r="127" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B127" s="98"/>
       <c r="C127" s="108"/>
       <c r="D127" s="108"/>
@@ -9234,7 +9008,7 @@
       <c r="Y127" s="108"/>
       <c r="Z127" s="108"/>
     </row>
-    <row r="128" spans="2:26" customFormat="1" ht="16">
+    <row r="128" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B128" s="98"/>
       <c r="C128" s="108"/>
       <c r="D128" s="108"/>
@@ -9261,7 +9035,7 @@
       <c r="Y128" s="108"/>
       <c r="Z128" s="108"/>
     </row>
-    <row r="129" spans="2:26" customFormat="1" ht="16">
+    <row r="129" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B129" s="98"/>
       <c r="C129" s="108"/>
       <c r="D129" s="108"/>
@@ -9288,7 +9062,7 @@
       <c r="Y129" s="108"/>
       <c r="Z129" s="108"/>
     </row>
-    <row r="130" spans="2:26" customFormat="1" ht="16">
+    <row r="130" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B130" s="98"/>
       <c r="C130" s="108"/>
       <c r="D130" s="108" t="s">
@@ -9317,7 +9091,7 @@
       <c r="Y130" s="108"/>
       <c r="Z130" s="108"/>
     </row>
-    <row r="131" spans="2:26" customFormat="1" ht="16">
+    <row r="131" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B131" s="98"/>
       <c r="C131" s="108"/>
       <c r="D131" s="108"/>
@@ -9350,7 +9124,7 @@
       <c r="Y131" s="108"/>
       <c r="Z131" s="108"/>
     </row>
-    <row r="132" spans="2:26" customFormat="1" ht="16">
+    <row r="132" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B132" s="98"/>
       <c r="C132" s="108"/>
       <c r="D132" s="108"/>
@@ -9379,7 +9153,7 @@
       <c r="Y132" s="108"/>
       <c r="Z132" s="108"/>
     </row>
-    <row r="133" spans="2:26" customFormat="1" ht="16">
+    <row r="133" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="98"/>
       <c r="C133" s="108"/>
       <c r="D133" s="108"/>
@@ -9412,7 +9186,7 @@
       <c r="Y133" s="108"/>
       <c r="Z133" s="108"/>
     </row>
-    <row r="134" spans="2:26" customFormat="1" ht="16">
+    <row r="134" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B134" s="98"/>
       <c r="C134" s="108"/>
       <c r="D134" s="108"/>
@@ -9445,7 +9219,7 @@
       <c r="Y134" s="108"/>
       <c r="Z134" s="108"/>
     </row>
-    <row r="135" spans="2:26" customFormat="1" ht="16">
+    <row r="135" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B135" s="98"/>
       <c r="C135" s="108"/>
       <c r="D135" s="108"/>
@@ -9478,7 +9252,7 @@
       <c r="Y135" s="108"/>
       <c r="Z135" s="108"/>
     </row>
-    <row r="136" spans="2:26" customFormat="1" ht="16">
+    <row r="136" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B136" s="98"/>
       <c r="C136" s="108"/>
       <c r="D136" s="108"/>
@@ -9514,7 +9288,7 @@
       <c r="Y136" s="108"/>
       <c r="Z136" s="108"/>
     </row>
-    <row r="137" spans="2:26" customFormat="1" ht="16">
+    <row r="137" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B137" s="98"/>
       <c r="C137" s="108"/>
       <c r="D137" s="108"/>
@@ -9541,7 +9315,7 @@
       <c r="Y137" s="108"/>
       <c r="Z137" s="108"/>
     </row>
-    <row r="138" spans="2:26" customFormat="1" ht="16">
+    <row r="138" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B138" s="98"/>
       <c r="C138" s="108"/>
       <c r="D138" s="108"/>
@@ -9570,7 +9344,7 @@
       <c r="Y138" s="108"/>
       <c r="Z138" s="108"/>
     </row>
-    <row r="139" spans="2:26" customFormat="1" ht="16">
+    <row r="139" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B139" s="98"/>
       <c r="C139" s="108"/>
       <c r="D139" s="108"/>
@@ -9603,7 +9377,7 @@
       <c r="Y139" s="108"/>
       <c r="Z139" s="108"/>
     </row>
-    <row r="140" spans="2:26" customFormat="1" ht="16">
+    <row r="140" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B140" s="98"/>
       <c r="C140" s="108"/>
       <c r="D140" s="108"/>
@@ -9636,7 +9410,7 @@
       <c r="Y140" s="108"/>
       <c r="Z140" s="108"/>
     </row>
-    <row r="141" spans="2:26" customFormat="1" ht="16">
+    <row r="141" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B141" s="98"/>
       <c r="C141" s="108"/>
       <c r="D141" s="108"/>
@@ -9669,7 +9443,7 @@
       <c r="Y141" s="108"/>
       <c r="Z141" s="108"/>
     </row>
-    <row r="142" spans="2:26" customFormat="1" ht="16">
+    <row r="142" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B142" s="98"/>
       <c r="C142" s="108"/>
       <c r="D142" s="108"/>
@@ -9703,7 +9477,7 @@
       <c r="Y142" s="108"/>
       <c r="Z142" s="108"/>
     </row>
-    <row r="143" spans="2:26" customFormat="1" ht="16">
+    <row r="143" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B143" s="98"/>
       <c r="C143" s="108"/>
       <c r="D143" s="108"/>
@@ -9737,7 +9511,7 @@
       <c r="Y143" s="108"/>
       <c r="Z143" s="108"/>
     </row>
-    <row r="144" spans="2:26" customFormat="1" ht="16">
+    <row r="144" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B144" s="98"/>
       <c r="C144" s="108"/>
       <c r="D144" s="108"/>
@@ -9764,7 +9538,7 @@
       <c r="Y144" s="108"/>
       <c r="Z144" s="108"/>
     </row>
-    <row r="145" spans="2:26" customFormat="1" ht="16">
+    <row r="145" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B145" s="98"/>
       <c r="C145" s="108"/>
       <c r="D145" s="108"/>
@@ -9793,7 +9567,7 @@
       <c r="Y145" s="108"/>
       <c r="Z145" s="108"/>
     </row>
-    <row r="146" spans="2:26" customFormat="1" ht="16">
+    <row r="146" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B146" s="98"/>
       <c r="C146" s="108"/>
       <c r="D146" s="108"/>
@@ -9826,7 +9600,7 @@
       <c r="Y146" s="108"/>
       <c r="Z146" s="108"/>
     </row>
-    <row r="147" spans="2:26" customFormat="1" ht="16">
+    <row r="147" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B147" s="98"/>
       <c r="C147" s="108"/>
       <c r="D147" s="108"/>
@@ -9855,7 +9629,7 @@
       <c r="Y147" s="108"/>
       <c r="Z147" s="108"/>
     </row>
-    <row r="148" spans="2:26" customFormat="1" ht="16">
+    <row r="148" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B148" s="98"/>
       <c r="C148" s="108"/>
       <c r="D148" s="108"/>
@@ -9888,7 +9662,7 @@
       <c r="Y148" s="108"/>
       <c r="Z148" s="108"/>
     </row>
-    <row r="149" spans="2:26" customFormat="1" ht="16">
+    <row r="149" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B149" s="98"/>
       <c r="C149" s="108"/>
       <c r="D149" s="108"/>
@@ -9921,7 +9695,7 @@
       <c r="Y149" s="108"/>
       <c r="Z149" s="108"/>
     </row>
-    <row r="150" spans="2:26" customFormat="1" ht="16">
+    <row r="150" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B150" s="98"/>
       <c r="C150" s="108"/>
       <c r="D150" s="108"/>
@@ -9954,7 +9728,7 @@
       <c r="Y150" s="108"/>
       <c r="Z150" s="108"/>
     </row>
-    <row r="151" spans="2:26" customFormat="1" ht="16">
+    <row r="151" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B151" s="98"/>
       <c r="C151" s="108"/>
       <c r="D151" s="108"/>
@@ -9988,7 +9762,7 @@
       <c r="Y151" s="108"/>
       <c r="Z151" s="108"/>
     </row>
-    <row r="152" spans="2:26" customFormat="1" ht="16">
+    <row r="152" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B152" s="98"/>
       <c r="C152" s="108"/>
       <c r="D152" s="108"/>
@@ -10015,7 +9789,7 @@
       <c r="Y152" s="108"/>
       <c r="Z152" s="108"/>
     </row>
-    <row r="153" spans="2:26" customFormat="1" ht="16">
+    <row r="153" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="98"/>
       <c r="C153" s="108"/>
       <c r="D153" s="108"/>
@@ -10044,7 +9818,7 @@
       <c r="Y153" s="108"/>
       <c r="Z153" s="108"/>
     </row>
-    <row r="154" spans="2:26" customFormat="1" ht="16">
+    <row r="154" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="98"/>
       <c r="C154" s="108"/>
       <c r="D154" s="108"/>
@@ -10077,7 +9851,7 @@
       <c r="Y154" s="108"/>
       <c r="Z154" s="108"/>
     </row>
-    <row r="155" spans="2:26" customFormat="1" ht="16">
+    <row r="155" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B155" s="98"/>
       <c r="C155" s="108"/>
       <c r="D155" s="108"/>
@@ -10110,7 +9884,7 @@
       <c r="Y155" s="108"/>
       <c r="Z155" s="108"/>
     </row>
-    <row r="156" spans="2:26" customFormat="1" ht="16">
+    <row r="156" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B156" s="98"/>
       <c r="C156" s="108"/>
       <c r="D156" s="108"/>
@@ -10143,7 +9917,7 @@
       <c r="Y156" s="108"/>
       <c r="Z156" s="108"/>
     </row>
-    <row r="157" spans="2:26" customFormat="1" ht="16">
+    <row r="157" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B157" s="98"/>
       <c r="C157" s="108"/>
       <c r="D157" s="108"/>
@@ -10177,7 +9951,7 @@
       <c r="Y157" s="108"/>
       <c r="Z157" s="108"/>
     </row>
-    <row r="158" spans="2:26" customFormat="1" ht="16">
+    <row r="158" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B158" s="98"/>
       <c r="C158" s="108"/>
       <c r="D158" s="108"/>
@@ -10211,7 +9985,7 @@
       <c r="Y158" s="108"/>
       <c r="Z158" s="108"/>
     </row>
-    <row r="159" spans="2:26" customFormat="1" ht="16">
+    <row r="159" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B159" s="98"/>
       <c r="C159" s="108"/>
       <c r="D159" s="108"/>
@@ -10238,7 +10012,7 @@
       <c r="Y159" s="108"/>
       <c r="Z159" s="108"/>
     </row>
-    <row r="160" spans="2:26" customFormat="1" ht="16">
+    <row r="160" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B160" s="98"/>
       <c r="C160" s="108"/>
       <c r="D160" s="108"/>
@@ -10265,7 +10039,7 @@
       <c r="Y160" s="108"/>
       <c r="Z160" s="108"/>
     </row>
-    <row r="161" spans="2:26" customFormat="1" ht="16">
+    <row r="161" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B161" s="98"/>
       <c r="C161" s="108"/>
       <c r="D161" s="108"/>
@@ -10292,7 +10066,7 @@
       <c r="Y161" s="108"/>
       <c r="Z161" s="108"/>
     </row>
-    <row r="162" spans="2:26" customFormat="1" ht="16">
+    <row r="162" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B162" s="98"/>
       <c r="C162" s="108"/>
       <c r="D162" s="108"/>
@@ -10319,7 +10093,7 @@
       <c r="Y162" s="108"/>
       <c r="Z162" s="108"/>
     </row>
-    <row r="163" spans="2:26" customFormat="1" ht="16">
+    <row r="163" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B163" s="98"/>
       <c r="C163" s="108"/>
       <c r="D163" s="108"/>
@@ -10346,7 +10120,7 @@
       <c r="Y163" s="108"/>
       <c r="Z163" s="108"/>
     </row>
-    <row r="164" spans="2:26" customFormat="1" ht="16">
+    <row r="164" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B164" s="98"/>
       <c r="C164" s="108"/>
       <c r="D164" s="108"/>
@@ -10373,7 +10147,7 @@
       <c r="Y164" s="108"/>
       <c r="Z164" s="108"/>
     </row>
-    <row r="165" spans="2:26" customFormat="1" ht="16">
+    <row r="165" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B165" s="98"/>
       <c r="C165" s="108"/>
       <c r="D165" s="108"/>
@@ -10400,7 +10174,7 @@
       <c r="Y165" s="108"/>
       <c r="Z165" s="108"/>
     </row>
-    <row r="166" spans="2:26" customFormat="1" ht="16">
+    <row r="166" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B166" s="98"/>
       <c r="C166" s="108"/>
       <c r="D166" s="108"/>
@@ -10427,7 +10201,7 @@
       <c r="Y166" s="108"/>
       <c r="Z166" s="108"/>
     </row>
-    <row r="167" spans="2:26" customFormat="1" ht="16">
+    <row r="167" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B167" s="98"/>
       <c r="C167" s="108"/>
       <c r="D167" s="108"/>
@@ -10454,7 +10228,7 @@
       <c r="Y167" s="108"/>
       <c r="Z167" s="108"/>
     </row>
-    <row r="168" spans="2:26" customFormat="1" ht="16">
+    <row r="168" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B168" s="98"/>
       <c r="C168" s="108"/>
       <c r="D168" s="108"/>
@@ -10481,7 +10255,7 @@
       <c r="Y168" s="108"/>
       <c r="Z168" s="108"/>
     </row>
-    <row r="169" spans="2:26" customFormat="1" ht="16">
+    <row r="169" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B169" s="98"/>
       <c r="C169" s="108"/>
       <c r="D169" s="108"/>
@@ -10508,7 +10282,7 @@
       <c r="Y169" s="108"/>
       <c r="Z169" s="108"/>
     </row>
-    <row r="170" spans="2:26" customFormat="1" ht="16">
+    <row r="170" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B170" s="98"/>
       <c r="C170" s="108"/>
       <c r="D170" s="108"/>
@@ -10535,7 +10309,7 @@
       <c r="Y170" s="108"/>
       <c r="Z170" s="108"/>
     </row>
-    <row r="171" spans="2:26" customFormat="1" ht="16">
+    <row r="171" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B171" s="98"/>
       <c r="C171" s="108"/>
       <c r="D171" s="108"/>
@@ -10562,7 +10336,7 @@
       <c r="Y171" s="108"/>
       <c r="Z171" s="108"/>
     </row>
-    <row r="172" spans="2:26" customFormat="1" ht="16">
+    <row r="172" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B172" s="98"/>
       <c r="C172" s="108"/>
       <c r="D172" s="108"/>
@@ -10589,7 +10363,7 @@
       <c r="Y172" s="108"/>
       <c r="Z172" s="108"/>
     </row>
-    <row r="173" spans="2:26" customFormat="1" ht="16">
+    <row r="173" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B173" s="98"/>
       <c r="C173" s="108"/>
       <c r="D173" s="108"/>
@@ -10616,7 +10390,7 @@
       <c r="Y173" s="108"/>
       <c r="Z173" s="108"/>
     </row>
-    <row r="174" spans="2:26" customFormat="1" ht="16">
+    <row r="174" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B174" s="98"/>
       <c r="C174" s="108"/>
       <c r="D174" s="108"/>
@@ -10643,7 +10417,7 @@
       <c r="Y174" s="108"/>
       <c r="Z174" s="108"/>
     </row>
-    <row r="175" spans="2:26" customFormat="1" ht="16">
+    <row r="175" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B175" s="98"/>
       <c r="C175" s="108"/>
       <c r="D175" s="108"/>
@@ -10670,7 +10444,7 @@
       <c r="Y175" s="108"/>
       <c r="Z175" s="108"/>
     </row>
-    <row r="176" spans="2:26" customFormat="1" ht="16">
+    <row r="176" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B176" s="98"/>
       <c r="C176" s="108"/>
       <c r="D176" s="108"/>
@@ -10697,7 +10471,7 @@
       <c r="Y176" s="108"/>
       <c r="Z176" s="108"/>
     </row>
-    <row r="177" spans="2:26" customFormat="1" ht="16">
+    <row r="177" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B177" s="98"/>
       <c r="C177" s="108"/>
       <c r="D177" s="108"/>
@@ -10724,7 +10498,7 @@
       <c r="Y177" s="108"/>
       <c r="Z177" s="108"/>
     </row>
-    <row r="178" spans="2:26" customFormat="1" ht="16">
+    <row r="178" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B178" s="98"/>
       <c r="C178" s="108"/>
       <c r="D178" s="108"/>
@@ -10751,7 +10525,7 @@
       <c r="Y178" s="108"/>
       <c r="Z178" s="108"/>
     </row>
-    <row r="179" spans="2:26" customFormat="1" ht="16">
+    <row r="179" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B179" s="98"/>
       <c r="C179" s="108"/>
       <c r="D179" s="108"/>
@@ -10778,7 +10552,7 @@
       <c r="Y179" s="108"/>
       <c r="Z179" s="108"/>
     </row>
-    <row r="180" spans="2:26" customFormat="1" ht="16">
+    <row r="180" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B180" s="98"/>
       <c r="C180" s="108"/>
       <c r="D180" s="108"/>
@@ -10805,7 +10579,7 @@
       <c r="Y180" s="108"/>
       <c r="Z180" s="108"/>
     </row>
-    <row r="181" spans="2:26" customFormat="1" ht="16">
+    <row r="181" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B181" s="98"/>
       <c r="C181" s="108"/>
       <c r="D181" s="108"/>
@@ -10832,7 +10606,7 @@
       <c r="Y181" s="108"/>
       <c r="Z181" s="108"/>
     </row>
-    <row r="182" spans="2:26" customFormat="1" ht="16">
+    <row r="182" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B182" s="98"/>
       <c r="C182" s="108"/>
       <c r="D182" s="108"/>
@@ -10859,7 +10633,7 @@
       <c r="Y182" s="108"/>
       <c r="Z182" s="108"/>
     </row>
-    <row r="183" spans="2:26" customFormat="1" ht="16">
+    <row r="183" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B183" s="98"/>
       <c r="C183" s="108"/>
       <c r="D183" s="108"/>
@@ -10886,7 +10660,7 @@
       <c r="Y183" s="108"/>
       <c r="Z183" s="108"/>
     </row>
-    <row r="184" spans="2:26" customFormat="1" ht="16">
+    <row r="184" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B184" s="98"/>
       <c r="C184" s="108"/>
       <c r="D184" s="108"/>
@@ -10913,7 +10687,7 @@
       <c r="Y184" s="108"/>
       <c r="Z184" s="108"/>
     </row>
-    <row r="185" spans="2:26" customFormat="1" ht="16">
+    <row r="185" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B185" s="98"/>
       <c r="C185" s="108"/>
       <c r="D185" s="108"/>
@@ -10940,7 +10714,7 @@
       <c r="Y185" s="108"/>
       <c r="Z185" s="108"/>
     </row>
-    <row r="186" spans="2:26" customFormat="1" ht="16">
+    <row r="186" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B186" s="98"/>
       <c r="C186" s="108"/>
       <c r="D186" s="108"/>
@@ -10967,7 +10741,7 @@
       <c r="Y186" s="108"/>
       <c r="Z186" s="108"/>
     </row>
-    <row r="187" spans="2:26" customFormat="1" ht="16">
+    <row r="187" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B187" s="98"/>
       <c r="C187" s="108"/>
       <c r="D187" s="108"/>
@@ -10994,7 +10768,7 @@
       <c r="Y187" s="108"/>
       <c r="Z187" s="108"/>
     </row>
-    <row r="188" spans="2:26" customFormat="1" ht="16">
+    <row r="188" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B188" s="98"/>
       <c r="C188" s="108"/>
       <c r="D188" s="108"/>
@@ -11021,7 +10795,7 @@
       <c r="Y188" s="108"/>
       <c r="Z188" s="108"/>
     </row>
-    <row r="189" spans="2:26" customFormat="1" ht="16">
+    <row r="189" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B189" s="98"/>
       <c r="C189" s="108"/>
       <c r="D189" s="108"/>
@@ -11048,7 +10822,7 @@
       <c r="Y189" s="108"/>
       <c r="Z189" s="108"/>
     </row>
-    <row r="190" spans="2:26" customFormat="1" ht="16">
+    <row r="190" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B190" s="98"/>
       <c r="C190" s="108"/>
       <c r="D190" s="108"/>
@@ -11075,7 +10849,7 @@
       <c r="Y190" s="108"/>
       <c r="Z190" s="108"/>
     </row>
-    <row r="191" spans="2:26" customFormat="1" ht="16">
+    <row r="191" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B191" s="98"/>
       <c r="C191" s="108"/>
       <c r="D191" s="108"/>
@@ -11102,7 +10876,7 @@
       <c r="Y191" s="108"/>
       <c r="Z191" s="108"/>
     </row>
-    <row r="192" spans="2:26" customFormat="1" ht="16">
+    <row r="192" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B192" s="98"/>
       <c r="C192" s="108"/>
       <c r="D192" s="108"/>
@@ -11129,7 +10903,7 @@
       <c r="Y192" s="108"/>
       <c r="Z192" s="108"/>
     </row>
-    <row r="193" spans="2:26" customFormat="1" ht="16">
+    <row r="193" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B193" s="98"/>
       <c r="C193" s="108"/>
       <c r="D193" s="108"/>
@@ -11156,7 +10930,7 @@
       <c r="Y193" s="108"/>
       <c r="Z193" s="108"/>
     </row>
-    <row r="194" spans="2:26" customFormat="1" ht="16">
+    <row r="194" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B194" s="98"/>
       <c r="C194" s="108"/>
       <c r="D194" s="108"/>
@@ -11183,7 +10957,7 @@
       <c r="Y194" s="108"/>
       <c r="Z194" s="108"/>
     </row>
-    <row r="195" spans="2:26" customFormat="1" ht="16">
+    <row r="195" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B195" s="98"/>
       <c r="C195" s="108"/>
       <c r="D195" s="108"/>
@@ -11210,7 +10984,7 @@
       <c r="Y195" s="108"/>
       <c r="Z195" s="108"/>
     </row>
-    <row r="196" spans="2:26" customFormat="1" ht="16">
+    <row r="196" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B196" s="98"/>
       <c r="C196" s="108"/>
       <c r="D196" s="108"/>
@@ -11237,7 +11011,7 @@
       <c r="Y196" s="108"/>
       <c r="Z196" s="108"/>
     </row>
-    <row r="197" spans="2:26" customFormat="1" ht="16">
+    <row r="197" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B197" s="98"/>
       <c r="C197" s="108"/>
       <c r="D197" s="108"/>
@@ -11264,7 +11038,7 @@
       <c r="Y197" s="108"/>
       <c r="Z197" s="108"/>
     </row>
-    <row r="198" spans="2:26" customFormat="1" ht="16">
+    <row r="198" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B198" s="98"/>
       <c r="C198" s="108"/>
       <c r="D198" s="108"/>
@@ -11293,7 +11067,7 @@
       <c r="Y198" s="108"/>
       <c r="Z198" s="108"/>
     </row>
-    <row r="199" spans="2:26" customFormat="1" ht="16">
+    <row r="199" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B199" s="98"/>
       <c r="C199" s="108"/>
       <c r="D199" s="108"/>
@@ -11320,7 +11094,7 @@
       <c r="Y199" s="108"/>
       <c r="Z199" s="108"/>
     </row>
-    <row r="200" spans="2:26" customFormat="1" ht="16">
+    <row r="200" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B200" s="98"/>
       <c r="C200" s="108"/>
       <c r="D200" s="108"/>
@@ -11349,7 +11123,7 @@
       <c r="Y200" s="108"/>
       <c r="Z200" s="108"/>
     </row>
-    <row r="201" spans="2:26" customFormat="1" ht="16">
+    <row r="201" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B201" s="98"/>
       <c r="C201" s="108"/>
       <c r="D201" s="108"/>
@@ -11376,7 +11150,7 @@
       <c r="Y201" s="108"/>
       <c r="Z201" s="108"/>
     </row>
-    <row r="202" spans="2:26" customFormat="1" ht="16">
+    <row r="202" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B202" s="98"/>
       <c r="C202" s="108"/>
       <c r="D202" s="108"/>
@@ -11405,7 +11179,7 @@
       <c r="Y202" s="108"/>
       <c r="Z202" s="108"/>
     </row>
-    <row r="203" spans="2:26" customFormat="1" ht="16">
+    <row r="203" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B203" s="98"/>
       <c r="C203" s="108"/>
       <c r="D203" s="108"/>
@@ -11434,7 +11208,7 @@
       <c r="Y203" s="108"/>
       <c r="Z203" s="108"/>
     </row>
-    <row r="204" spans="2:26" customFormat="1" ht="16">
+    <row r="204" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B204" s="98"/>
       <c r="C204" s="108"/>
       <c r="D204" s="108"/>
@@ -11463,7 +11237,7 @@
       <c r="Y204" s="108"/>
       <c r="Z204" s="108"/>
     </row>
-    <row r="205" spans="2:26" customFormat="1" ht="16">
+    <row r="205" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B205" s="98"/>
       <c r="C205" s="108"/>
       <c r="D205" s="108"/>
@@ -11493,7 +11267,7 @@
       <c r="Y205" s="108"/>
       <c r="Z205" s="108"/>
     </row>
-    <row r="206" spans="2:26" customFormat="1" ht="16">
+    <row r="206" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B206" s="98"/>
       <c r="C206" s="108"/>
       <c r="D206" s="142"/>
@@ -11520,7 +11294,7 @@
       <c r="Y206" s="108"/>
       <c r="Z206" s="108"/>
     </row>
-    <row r="207" spans="2:26" customFormat="1" ht="16">
+    <row r="207" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B207" s="98"/>
       <c r="C207" s="108"/>
       <c r="D207" s="108"/>
@@ -11547,7 +11321,7 @@
       <c r="Y207" s="108"/>
       <c r="Z207" s="108"/>
     </row>
-    <row r="208" spans="2:26" customFormat="1" ht="16">
+    <row r="208" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B208" s="98"/>
       <c r="C208" s="108"/>
       <c r="D208" s="108"/>
@@ -11574,7 +11348,7 @@
       <c r="Y208" s="108"/>
       <c r="Z208" s="108"/>
     </row>
-    <row r="209" spans="2:26" customFormat="1" ht="16">
+    <row r="209" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B209" s="98"/>
       <c r="C209" s="108"/>
       <c r="D209" s="108"/>
@@ -11601,7 +11375,7 @@
       <c r="Y209" s="108"/>
       <c r="Z209" s="108"/>
     </row>
-    <row r="210" spans="2:26" customFormat="1" ht="16">
+    <row r="210" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B210" s="98"/>
       <c r="C210" s="108"/>
       <c r="D210" s="108"/>
@@ -11630,7 +11404,7 @@
       <c r="Y210" s="108"/>
       <c r="Z210" s="108"/>
     </row>
-    <row r="211" spans="2:26" customFormat="1" ht="16">
+    <row r="211" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B211" s="98"/>
       <c r="C211" s="108"/>
       <c r="D211" s="108" t="s">
@@ -11664,7 +11438,7 @@
       <c r="Y211" s="108"/>
       <c r="Z211" s="108"/>
     </row>
-    <row r="212" spans="2:26" customFormat="1" ht="16">
+    <row r="212" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B212" s="98"/>
       <c r="C212" s="108"/>
       <c r="D212" s="108"/>
@@ -11691,7 +11465,7 @@
       <c r="Y212" s="108"/>
       <c r="Z212" s="108"/>
     </row>
-    <row r="213" spans="2:26" customFormat="1" ht="16">
+    <row r="213" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B213" s="98"/>
       <c r="C213" s="108"/>
       <c r="D213" s="108"/>
@@ -11723,7 +11497,7 @@
       <c r="Y213" s="108"/>
       <c r="Z213" s="108"/>
     </row>
-    <row r="214" spans="2:26" customFormat="1" ht="16">
+    <row r="214" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B214" s="98"/>
       <c r="C214" s="108"/>
       <c r="D214" s="108"/>
@@ -11755,7 +11529,7 @@
       <c r="Y214" s="108"/>
       <c r="Z214" s="108"/>
     </row>
-    <row r="215" spans="2:26" customFormat="1" ht="16">
+    <row r="215" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B215" s="98"/>
       <c r="C215" s="108"/>
       <c r="D215" s="108"/>
@@ -11790,7 +11564,7 @@
       <c r="Y215" s="108"/>
       <c r="Z215" s="108"/>
     </row>
-    <row r="216" spans="2:26" customFormat="1" ht="16">
+    <row r="216" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B216" s="98"/>
       <c r="C216" s="108"/>
       <c r="D216" s="108"/>
@@ -11822,7 +11596,7 @@
       <c r="Y216" s="108"/>
       <c r="Z216" s="108"/>
     </row>
-    <row r="217" spans="2:26" customFormat="1" ht="16">
+    <row r="217" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B217" s="98"/>
       <c r="C217" s="108"/>
       <c r="D217" s="108"/>
@@ -11849,7 +11623,7 @@
       <c r="Y217" s="108"/>
       <c r="Z217" s="108"/>
     </row>
-    <row r="218" spans="2:26" customFormat="1" ht="16">
+    <row r="218" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B218" s="98"/>
       <c r="C218" s="108"/>
       <c r="D218" s="108"/>
@@ -11875,7 +11649,7 @@
       <c r="X218" s="108"/>
       <c r="Y218" s="108"/>
     </row>
-    <row r="219" spans="2:26" customFormat="1" ht="17" thickBot="1">
+    <row r="219" spans="2:26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B219" s="98"/>
       <c r="C219" s="108"/>
       <c r="D219" s="108"/>
@@ -11900,7 +11674,7 @@
       <c r="X219" s="108"/>
       <c r="Y219" s="108"/>
     </row>
-    <row r="220" spans="2:26" s="24" customFormat="1">
+    <row r="220" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B220" s="101"/>
       <c r="C220" s="101" t="s">
         <v>24</v>
@@ -11928,7 +11702,7 @@
       <c r="T220" s="101"/>
       <c r="U220" s="101"/>
     </row>
-    <row r="221" spans="2:26" customFormat="1" ht="16">
+    <row r="221" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B221" s="98"/>
       <c r="C221" s="108"/>
       <c r="D221" s="108"/>
@@ -11954,7 +11728,7 @@
       <c r="X221" s="108"/>
       <c r="Y221" s="108"/>
     </row>
-    <row r="222" spans="2:26" customFormat="1" ht="16">
+    <row r="222" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B222" s="98"/>
       <c r="C222" s="108"/>
       <c r="D222" s="108"/>
@@ -11979,7 +11753,7 @@
       <c r="W222" s="108"/>
       <c r="X222" s="108"/>
     </row>
-    <row r="223" spans="2:26" customFormat="1" ht="16">
+    <row r="223" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B223" s="98"/>
       <c r="C223" s="108" t="s">
         <v>135</v>
@@ -12006,7 +11780,7 @@
       <c r="W223" s="108"/>
       <c r="X223" s="108"/>
     </row>
-    <row r="224" spans="2:26" customFormat="1" ht="16">
+    <row r="224" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B224" s="98"/>
       <c r="C224" s="108"/>
       <c r="D224" s="108"/>
@@ -12032,7 +11806,7 @@
       <c r="X224" s="108"/>
       <c r="Y224" s="108"/>
     </row>
-    <row r="225" spans="2:26" customFormat="1" ht="16">
+    <row r="225" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B225" s="98"/>
       <c r="C225" s="108"/>
       <c r="D225" s="108" t="s">
@@ -12060,7 +11834,7 @@
       <c r="X225" s="108"/>
       <c r="Y225" s="108"/>
     </row>
-    <row r="226" spans="2:26" customFormat="1" ht="16">
+    <row r="226" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B226" s="98"/>
       <c r="C226" s="108"/>
       <c r="D226" s="108"/>
@@ -12093,7 +11867,7 @@
       <c r="Y226" s="108"/>
       <c r="Z226" s="108"/>
     </row>
-    <row r="227" spans="2:26" customFormat="1" ht="16">
+    <row r="227" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B227" s="98"/>
       <c r="C227" s="108"/>
       <c r="D227" s="108"/>
@@ -12126,7 +11900,7 @@
       <c r="Y227" s="108"/>
       <c r="Z227" s="108"/>
     </row>
-    <row r="228" spans="2:26" customFormat="1" ht="16">
+    <row r="228" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B228" s="98"/>
       <c r="C228" s="108"/>
       <c r="D228" s="108"/>
@@ -12153,7 +11927,7 @@
       <c r="Y228" s="108"/>
       <c r="Z228" s="108"/>
     </row>
-    <row r="229" spans="2:26" customFormat="1" ht="16">
+    <row r="229" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B229" s="98"/>
       <c r="C229" s="108"/>
       <c r="D229" s="108"/>
@@ -12180,7 +11954,7 @@
       <c r="Y229" s="108"/>
       <c r="Z229" s="108"/>
     </row>
-    <row r="230" spans="2:26" customFormat="1" ht="16">
+    <row r="230" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B230" s="98"/>
       <c r="C230" s="108"/>
       <c r="D230" s="108"/>
@@ -12207,7 +11981,7 @@
       <c r="Y230" s="108"/>
       <c r="Z230" s="108"/>
     </row>
-    <row r="231" spans="2:26" customFormat="1" ht="16">
+    <row r="231" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B231" s="98"/>
       <c r="C231" s="108"/>
       <c r="D231" s="108"/>
@@ -12234,7 +12008,7 @@
       <c r="Y231" s="108"/>
       <c r="Z231" s="108"/>
     </row>
-    <row r="232" spans="2:26" customFormat="1" ht="16">
+    <row r="232" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B232" s="98"/>
       <c r="C232" s="108"/>
       <c r="D232" s="108"/>
@@ -12261,7 +12035,7 @@
       <c r="Y232" s="108"/>
       <c r="Z232" s="108"/>
     </row>
-    <row r="233" spans="2:26" customFormat="1" ht="16">
+    <row r="233" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B233" s="98"/>
       <c r="C233" s="108"/>
       <c r="D233" s="108"/>
@@ -12288,7 +12062,7 @@
       <c r="Y233" s="108"/>
       <c r="Z233" s="108"/>
     </row>
-    <row r="234" spans="2:26" customFormat="1" ht="16">
+    <row r="234" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B234" s="98"/>
       <c r="C234" s="108"/>
       <c r="D234" s="108"/>
@@ -12315,7 +12089,7 @@
       <c r="Y234" s="108"/>
       <c r="Z234" s="108"/>
     </row>
-    <row r="235" spans="2:26" customFormat="1" ht="16">
+    <row r="235" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B235" s="98"/>
       <c r="C235" s="108"/>
       <c r="D235" s="108"/>
@@ -12342,7 +12116,7 @@
       <c r="Y235" s="108"/>
       <c r="Z235" s="108"/>
     </row>
-    <row r="236" spans="2:26" customFormat="1" ht="16">
+    <row r="236" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B236" s="98"/>
       <c r="C236" s="108"/>
       <c r="D236" s="108"/>
@@ -12369,7 +12143,7 @@
       <c r="Y236" s="108"/>
       <c r="Z236" s="108"/>
     </row>
-    <row r="237" spans="2:26" customFormat="1" ht="16">
+    <row r="237" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B237" s="98"/>
       <c r="C237" s="108"/>
       <c r="D237" s="108"/>
@@ -12396,7 +12170,7 @@
       <c r="Y237" s="108"/>
       <c r="Z237" s="108"/>
     </row>
-    <row r="238" spans="2:26" customFormat="1" ht="16">
+    <row r="238" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B238" s="98"/>
       <c r="C238" s="108"/>
       <c r="D238" s="108"/>
@@ -12423,7 +12197,7 @@
       <c r="Y238" s="108"/>
       <c r="Z238" s="108"/>
     </row>
-    <row r="239" spans="2:26" customFormat="1" ht="16">
+    <row r="239" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B239" s="98"/>
       <c r="C239" s="108"/>
       <c r="D239" s="108"/>
@@ -12450,7 +12224,7 @@
       <c r="Y239" s="108"/>
       <c r="Z239" s="108"/>
     </row>
-    <row r="240" spans="2:26" customFormat="1" ht="16">
+    <row r="240" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B240" s="98"/>
       <c r="C240" s="108"/>
       <c r="D240" s="108"/>
@@ -12477,7 +12251,7 @@
       <c r="Y240" s="108"/>
       <c r="Z240" s="108"/>
     </row>
-    <row r="241" spans="2:26" customFormat="1" ht="16">
+    <row r="241" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B241" s="98"/>
       <c r="C241" s="108"/>
       <c r="D241" s="108"/>
@@ -12504,7 +12278,7 @@
       <c r="Y241" s="108"/>
       <c r="Z241" s="108"/>
     </row>
-    <row r="242" spans="2:26" customFormat="1" ht="16">
+    <row r="242" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B242" s="98"/>
       <c r="C242" s="108"/>
       <c r="D242" s="108"/>
@@ -12531,7 +12305,7 @@
       <c r="Y242" s="108"/>
       <c r="Z242" s="108"/>
     </row>
-    <row r="243" spans="2:26" customFormat="1" ht="16">
+    <row r="243" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B243" s="98"/>
       <c r="C243" s="108"/>
       <c r="D243" s="108"/>
@@ -12558,7 +12332,7 @@
       <c r="Y243" s="108"/>
       <c r="Z243" s="108"/>
     </row>
-    <row r="244" spans="2:26" customFormat="1" ht="16">
+    <row r="244" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B244" s="98"/>
       <c r="C244" s="108"/>
       <c r="D244" s="108"/>
@@ -12585,7 +12359,7 @@
       <c r="Y244" s="108"/>
       <c r="Z244" s="108"/>
     </row>
-    <row r="245" spans="2:26" customFormat="1" ht="16">
+    <row r="245" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B245" s="98"/>
       <c r="C245" s="108"/>
       <c r="D245" s="108"/>
@@ -12612,7 +12386,7 @@
       <c r="Y245" s="108"/>
       <c r="Z245" s="108"/>
     </row>
-    <row r="246" spans="2:26" customFormat="1" ht="16">
+    <row r="246" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B246" s="98"/>
       <c r="C246" s="108"/>
       <c r="D246" s="108"/>
@@ -12639,7 +12413,7 @@
       <c r="Y246" s="108"/>
       <c r="Z246" s="108"/>
     </row>
-    <row r="247" spans="2:26" customFormat="1" ht="16">
+    <row r="247" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B247" s="98"/>
       <c r="C247" s="108"/>
       <c r="D247" s="108"/>
@@ -12666,7 +12440,7 @@
       <c r="Y247" s="108"/>
       <c r="Z247" s="108"/>
     </row>
-    <row r="248" spans="2:26" customFormat="1" ht="16">
+    <row r="248" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B248" s="98"/>
       <c r="C248" s="108"/>
       <c r="D248" s="108"/>
@@ -12693,7 +12467,7 @@
       <c r="Y248" s="108"/>
       <c r="Z248" s="108"/>
     </row>
-    <row r="249" spans="2:26" customFormat="1" ht="16">
+    <row r="249" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B249" s="98"/>
       <c r="C249" s="108"/>
       <c r="D249" s="108"/>
@@ -12720,7 +12494,7 @@
       <c r="Y249" s="108"/>
       <c r="Z249" s="108"/>
     </row>
-    <row r="250" spans="2:26" customFormat="1" ht="16">
+    <row r="250" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B250" s="98"/>
       <c r="C250" s="108"/>
       <c r="D250" s="108"/>
@@ -12747,7 +12521,7 @@
       <c r="Y250" s="108"/>
       <c r="Z250" s="108"/>
     </row>
-    <row r="251" spans="2:26" customFormat="1" ht="16">
+    <row r="251" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B251" s="98"/>
       <c r="C251" s="108"/>
       <c r="D251" s="108"/>
@@ -12774,7 +12548,7 @@
       <c r="Y251" s="108"/>
       <c r="Z251" s="108"/>
     </row>
-    <row r="252" spans="2:26" customFormat="1" ht="16">
+    <row r="252" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B252" s="98"/>
       <c r="C252" s="108"/>
       <c r="D252" s="108"/>
@@ -12801,7 +12575,7 @@
       <c r="Y252" s="108"/>
       <c r="Z252" s="108"/>
     </row>
-    <row r="253" spans="2:26" customFormat="1" ht="16">
+    <row r="253" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B253" s="98"/>
       <c r="C253" s="108"/>
       <c r="D253" s="108"/>
@@ -12828,7 +12602,7 @@
       <c r="Y253" s="108"/>
       <c r="Z253" s="108"/>
     </row>
-    <row r="254" spans="2:26" customFormat="1" ht="16">
+    <row r="254" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B254" s="98"/>
       <c r="C254" s="108"/>
       <c r="D254" s="108"/>
@@ -12855,7 +12629,7 @@
       <c r="Y254" s="108"/>
       <c r="Z254" s="108"/>
     </row>
-    <row r="255" spans="2:26" customFormat="1" ht="16">
+    <row r="255" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B255" s="98"/>
       <c r="C255" s="108"/>
       <c r="D255" s="108"/>
@@ -12882,7 +12656,7 @@
       <c r="Y255" s="108"/>
       <c r="Z255" s="108"/>
     </row>
-    <row r="256" spans="2:26" customFormat="1" ht="16">
+    <row r="256" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B256" s="98"/>
       <c r="C256" s="108"/>
       <c r="D256" s="108"/>
@@ -12909,7 +12683,7 @@
       <c r="Y256" s="108"/>
       <c r="Z256" s="108"/>
     </row>
-    <row r="257" spans="2:26" customFormat="1" ht="16">
+    <row r="257" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B257" s="98"/>
       <c r="C257" s="108"/>
       <c r="D257" s="108"/>
@@ -12936,7 +12710,7 @@
       <c r="Y257" s="108"/>
       <c r="Z257" s="108"/>
     </row>
-    <row r="258" spans="2:26" customFormat="1" ht="16">
+    <row r="258" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B258" s="98"/>
       <c r="C258" s="108"/>
       <c r="D258" s="108"/>
@@ -12963,7 +12737,7 @@
       <c r="Y258" s="108"/>
       <c r="Z258" s="108"/>
     </row>
-    <row r="259" spans="2:26" customFormat="1" ht="16">
+    <row r="259" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B259" s="98"/>
       <c r="C259" s="108"/>
       <c r="D259" s="108"/>
@@ -12990,7 +12764,7 @@
       <c r="Y259" s="108"/>
       <c r="Z259" s="108"/>
     </row>
-    <row r="260" spans="2:26" customFormat="1" ht="17" thickBot="1">
+    <row r="260" spans="2:26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B260" s="98"/>
       <c r="C260" s="108"/>
       <c r="D260" s="108"/>
@@ -13016,7 +12790,7 @@
       <c r="X260" s="108"/>
       <c r="Y260" s="108"/>
     </row>
-    <row r="261" spans="2:26" s="24" customFormat="1">
+    <row r="261" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B261" s="101"/>
       <c r="C261" s="101" t="s">
         <v>24</v>
@@ -13044,7 +12818,7 @@
       <c r="T261" s="101"/>
       <c r="U261" s="101"/>
     </row>
-    <row r="262" spans="2:26" customFormat="1" ht="16">
+    <row r="262" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B262" s="153"/>
       <c r="C262" s="183"/>
       <c r="D262" s="108"/>
@@ -13070,7 +12844,7 @@
       <c r="X262" s="108"/>
       <c r="Y262" s="108"/>
     </row>
-    <row r="263" spans="2:26" customFormat="1" ht="17">
+    <row r="263" spans="2:26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B263" s="153"/>
       <c r="C263" s="184" t="s">
         <v>184</v>
@@ -13098,7 +12872,7 @@
       <c r="X263" s="108"/>
       <c r="Y263" s="108"/>
     </row>
-    <row r="264" spans="2:26" customFormat="1" ht="16">
+    <row r="264" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B264" s="153"/>
       <c r="C264" s="108"/>
       <c r="D264" s="108"/>
@@ -13124,7 +12898,7 @@
       <c r="X264" s="108"/>
       <c r="Y264" s="108"/>
     </row>
-    <row r="265" spans="2:26" customFormat="1" ht="16">
+    <row r="265" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B265" s="153"/>
       <c r="C265" s="108"/>
       <c r="D265" s="108"/>
@@ -13150,10 +12924,10 @@
       <c r="X265" s="108"/>
       <c r="Y265" s="108"/>
     </row>
-    <row r="266" spans="2:26" s="152" customFormat="1" ht="16" thickBot="1">
+    <row r="266" spans="2:26" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B266" s="153"/>
     </row>
-    <row r="267" spans="2:26" s="152" customFormat="1" ht="96" thickBot="1">
+    <row r="267" spans="2:26" s="152" customFormat="1" ht="94" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B267" s="153"/>
       <c r="D267" s="152" t="s">
         <v>202</v>
@@ -13177,7 +12951,7 @@
       <c r="T267" s="189"/>
       <c r="U267" s="190"/>
     </row>
-    <row r="268" spans="2:26" s="152" customFormat="1" ht="16">
+    <row r="268" spans="2:26" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B268" s="153"/>
       <c r="M268" s="192" t="s">
         <v>190</v>
@@ -13193,7 +12967,7 @@
       <c r="T268" s="194"/>
       <c r="U268" s="195"/>
     </row>
-    <row r="269" spans="2:26" s="152" customFormat="1" ht="16">
+    <row r="269" spans="2:26" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B269" s="153"/>
       <c r="M269" s="196" t="s">
         <v>191</v>
@@ -13211,7 +12985,7 @@
       <c r="T269" s="198"/>
       <c r="U269" s="199"/>
     </row>
-    <row r="270" spans="2:26" s="152" customFormat="1" ht="16">
+    <row r="270" spans="2:26" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B270" s="153"/>
       <c r="M270" s="196" t="s">
         <v>193</v>
@@ -13229,7 +13003,7 @@
       <c r="T270" s="198"/>
       <c r="U270" s="199"/>
     </row>
-    <row r="271" spans="2:26" s="152" customFormat="1" ht="16">
+    <row r="271" spans="2:26" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B271" s="153"/>
       <c r="M271" s="196" t="s">
         <v>195</v>
@@ -13245,7 +13019,7 @@
       <c r="T271" s="201"/>
       <c r="U271" s="199"/>
     </row>
-    <row r="272" spans="2:26" s="152" customFormat="1" ht="16">
+    <row r="272" spans="2:26" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B272" s="153"/>
       <c r="E272" s="185" t="s">
         <v>173</v>
@@ -13264,7 +13038,7 @@
       <c r="T272" s="198"/>
       <c r="U272" s="202"/>
     </row>
-    <row r="273" spans="2:21" s="152" customFormat="1" ht="17" thickBot="1">
+    <row r="273" spans="2:21" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B273" s="153"/>
       <c r="E273" s="108" t="s">
         <v>174</v>
@@ -13293,7 +13067,7 @@
       <c r="T273" s="205"/>
       <c r="U273" s="206"/>
     </row>
-    <row r="274" spans="2:21" s="152" customFormat="1" ht="16">
+    <row r="274" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B274" s="153"/>
       <c r="E274" s="108" t="s">
         <v>177</v>
@@ -13323,7 +13097,7 @@
       <c r="T274" s="194"/>
       <c r="U274" s="195"/>
     </row>
-    <row r="275" spans="2:21" s="152" customFormat="1" ht="16">
+    <row r="275" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B275" s="153"/>
       <c r="E275" s="108" t="s">
         <v>178</v>
@@ -13353,7 +13127,7 @@
       <c r="T275" s="198"/>
       <c r="U275" s="199"/>
     </row>
-    <row r="276" spans="2:21" s="152" customFormat="1" ht="16">
+    <row r="276" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B276" s="153"/>
       <c r="D276" s="108"/>
       <c r="E276" s="108" t="s">
@@ -13388,7 +13162,7 @@
       <c r="T276" s="198"/>
       <c r="U276" s="199"/>
     </row>
-    <row r="277" spans="2:21" s="152" customFormat="1" ht="16">
+    <row r="277" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B277" s="153"/>
       <c r="D277" s="108"/>
       <c r="E277" s="108" t="s">
@@ -13416,7 +13190,7 @@
       <c r="T277" s="198"/>
       <c r="U277" s="199"/>
     </row>
-    <row r="278" spans="2:21" s="152" customFormat="1" ht="16">
+    <row r="278" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B278" s="153"/>
       <c r="D278" s="108"/>
       <c r="E278" s="108" t="s">
@@ -13448,7 +13222,7 @@
       <c r="T278" s="198"/>
       <c r="U278" s="202"/>
     </row>
-    <row r="279" spans="2:21" s="152" customFormat="1" ht="17" thickBot="1">
+    <row r="279" spans="2:21" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B279" s="153"/>
       <c r="D279" s="108"/>
       <c r="E279" s="108"/>
@@ -13471,7 +13245,7 @@
       <c r="T279" s="205"/>
       <c r="U279" s="206"/>
     </row>
-    <row r="280" spans="2:21" s="152" customFormat="1" ht="16">
+    <row r="280" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B280" s="153"/>
       <c r="D280" s="108"/>
       <c r="E280" s="108"/>
@@ -13494,7 +13268,7 @@
       <c r="T280" s="194"/>
       <c r="U280" s="195"/>
     </row>
-    <row r="281" spans="2:21" s="152" customFormat="1" ht="16">
+    <row r="281" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B281" s="153"/>
       <c r="D281" s="108"/>
       <c r="E281" s="108" t="s">
@@ -13527,7 +13301,7 @@
       <c r="T281" s="198"/>
       <c r="U281" s="202"/>
     </row>
-    <row r="282" spans="2:21" s="152" customFormat="1" ht="16">
+    <row r="282" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B282" s="153"/>
       <c r="E282" s="108" t="s">
         <v>177</v>
@@ -13557,7 +13331,7 @@
       <c r="T282" s="198"/>
       <c r="U282" s="202"/>
     </row>
-    <row r="283" spans="2:21" s="152" customFormat="1" ht="16">
+    <row r="283" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B283" s="153"/>
       <c r="E283" s="108" t="s">
         <v>178</v>
@@ -13585,7 +13359,7 @@
       <c r="T283" s="198"/>
       <c r="U283" s="202"/>
     </row>
-    <row r="284" spans="2:21" s="152" customFormat="1" ht="16">
+    <row r="284" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B284" s="153"/>
       <c r="E284" s="108" t="s">
         <v>179</v>
@@ -13615,7 +13389,7 @@
       <c r="T284" s="198"/>
       <c r="U284" s="202"/>
     </row>
-    <row r="285" spans="2:21" s="152" customFormat="1" ht="17" thickBot="1">
+    <row r="285" spans="2:21" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B285" s="153"/>
       <c r="E285" s="108" t="s">
         <v>38</v>
@@ -13643,7 +13417,7 @@
       <c r="T285" s="205"/>
       <c r="U285" s="206"/>
     </row>
-    <row r="286" spans="2:21" s="152" customFormat="1" ht="16">
+    <row r="286" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B286" s="153"/>
       <c r="E286" s="108" t="s">
         <v>180</v>
@@ -13675,7 +13449,7 @@
       <c r="T286" s="210"/>
       <c r="U286" s="211"/>
     </row>
-    <row r="287" spans="2:21" s="152" customFormat="1" ht="16">
+    <row r="287" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B287" s="153"/>
       <c r="M287" s="196" t="s">
         <v>191</v>
@@ -13691,7 +13465,7 @@
       <c r="T287" s="198"/>
       <c r="U287" s="202"/>
     </row>
-    <row r="288" spans="2:21" s="152" customFormat="1" ht="16">
+    <row r="288" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B288" s="153"/>
       <c r="M288" s="196" t="s">
         <v>193</v>
@@ -13707,7 +13481,7 @@
       <c r="T288" s="212"/>
       <c r="U288" s="199"/>
     </row>
-    <row r="289" spans="2:21" s="152" customFormat="1" ht="16">
+    <row r="289" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B289" s="153"/>
       <c r="E289" s="186"/>
       <c r="F289" s="187"/>
@@ -13728,7 +13502,7 @@
       <c r="T289" s="198"/>
       <c r="U289" s="202"/>
     </row>
-    <row r="290" spans="2:21" s="152" customFormat="1" ht="16">
+    <row r="290" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B290" s="153"/>
       <c r="E290" s="108"/>
       <c r="F290" s="108"/>
@@ -13751,7 +13525,7 @@
       <c r="T290" s="198"/>
       <c r="U290" s="202"/>
     </row>
-    <row r="291" spans="2:21" s="152" customFormat="1" ht="17" thickBot="1">
+    <row r="291" spans="2:21" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B291" s="153"/>
       <c r="E291" s="108"/>
       <c r="F291" s="108"/>
@@ -13772,7 +13546,7 @@
       <c r="T291" s="213"/>
       <c r="U291" s="214"/>
     </row>
-    <row r="292" spans="2:21" s="152" customFormat="1" ht="16">
+    <row r="292" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B292" s="153"/>
       <c r="E292" s="108"/>
       <c r="F292" s="108"/>
@@ -13795,7 +13569,7 @@
       <c r="T292" s="194"/>
       <c r="U292" s="195"/>
     </row>
-    <row r="293" spans="2:21" s="152" customFormat="1" ht="16">
+    <row r="293" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B293" s="153"/>
       <c r="E293" s="108"/>
       <c r="F293" s="108"/>
@@ -13818,7 +13592,7 @@
       <c r="T293" s="198"/>
       <c r="U293" s="199"/>
     </row>
-    <row r="294" spans="2:21" s="152" customFormat="1" ht="16">
+    <row r="294" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B294" s="153"/>
       <c r="E294" s="108"/>
       <c r="F294" s="108"/>
@@ -13841,7 +13615,7 @@
       <c r="T294" s="198"/>
       <c r="U294" s="199"/>
     </row>
-    <row r="295" spans="2:21" s="152" customFormat="1" ht="16">
+    <row r="295" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B295" s="153"/>
       <c r="E295" s="108"/>
       <c r="F295" s="108"/>
@@ -13862,7 +13636,7 @@
       <c r="T295" s="198"/>
       <c r="U295" s="199"/>
     </row>
-    <row r="296" spans="2:21" s="152" customFormat="1" ht="16">
+    <row r="296" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B296" s="153"/>
       <c r="E296" s="108"/>
       <c r="F296" s="108"/>
@@ -13883,7 +13657,7 @@
       <c r="T296" s="198"/>
       <c r="U296" s="199"/>
     </row>
-    <row r="297" spans="2:21" s="152" customFormat="1" ht="17" thickBot="1">
+    <row r="297" spans="2:21" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B297" s="153"/>
       <c r="E297" s="108"/>
       <c r="F297" s="108"/>
@@ -13904,7 +13678,7 @@
       <c r="T297" s="205"/>
       <c r="U297" s="206"/>
     </row>
-    <row r="298" spans="2:21" s="152" customFormat="1">
+    <row r="298" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B298" s="153"/>
       <c r="E298" s="108"/>
       <c r="F298" s="108"/>
@@ -13914,7 +13688,7 @@
       <c r="J298" s="108"/>
       <c r="K298" s="108"/>
     </row>
-    <row r="299" spans="2:21" s="152" customFormat="1">
+    <row r="299" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B299" s="153"/>
       <c r="E299" s="108"/>
       <c r="F299" s="108"/>
@@ -13924,7 +13698,7 @@
       <c r="J299" s="108"/>
       <c r="K299" s="108"/>
     </row>
-    <row r="300" spans="2:21" s="152" customFormat="1">
+    <row r="300" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B300" s="153"/>
       <c r="E300" s="108"/>
       <c r="F300" s="108"/>
@@ -13934,7 +13708,7 @@
       <c r="J300" s="108"/>
       <c r="K300" s="108"/>
     </row>
-    <row r="301" spans="2:21" s="152" customFormat="1">
+    <row r="301" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B301" s="153"/>
       <c r="E301" s="108"/>
       <c r="F301" s="108"/>
@@ -13944,7 +13718,7 @@
       <c r="J301" s="108"/>
       <c r="K301" s="108"/>
     </row>
-    <row r="302" spans="2:21" s="152" customFormat="1">
+    <row r="302" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B302" s="153"/>
       <c r="E302" s="108"/>
       <c r="F302" s="108"/>
@@ -13954,7 +13728,7 @@
       <c r="J302" s="108"/>
       <c r="K302" s="108"/>
     </row>
-    <row r="303" spans="2:21" s="152" customFormat="1">
+    <row r="303" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B303" s="153"/>
       <c r="E303" s="108"/>
       <c r="F303" s="108"/>
@@ -13964,67 +13738,67 @@
       <c r="J303" s="108"/>
       <c r="K303" s="108"/>
     </row>
-    <row r="304" spans="2:21" s="152" customFormat="1">
+    <row r="304" spans="2:21" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B304" s="153"/>
     </row>
-    <row r="305" spans="2:2" s="152" customFormat="1">
+    <row r="305" spans="2:2" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B305" s="153"/>
     </row>
-    <row r="306" spans="2:2" s="152" customFormat="1">
+    <row r="306" spans="2:2" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B306" s="153"/>
     </row>
-    <row r="307" spans="2:2" s="152" customFormat="1">
+    <row r="307" spans="2:2" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B307" s="153"/>
     </row>
-    <row r="308" spans="2:2" s="152" customFormat="1">
+    <row r="308" spans="2:2" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B308" s="153"/>
     </row>
-    <row r="309" spans="2:2" s="152" customFormat="1">
+    <row r="309" spans="2:2" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B309" s="153"/>
     </row>
-    <row r="310" spans="2:2" s="152" customFormat="1">
+    <row r="310" spans="2:2" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B310" s="153"/>
     </row>
-    <row r="311" spans="2:2" s="152" customFormat="1">
+    <row r="311" spans="2:2" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B311" s="153"/>
     </row>
-    <row r="312" spans="2:2" s="152" customFormat="1">
+    <row r="312" spans="2:2" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B312" s="153"/>
     </row>
-    <row r="313" spans="2:2" s="152" customFormat="1">
+    <row r="313" spans="2:2" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B313" s="153"/>
     </row>
-    <row r="314" spans="2:2" s="152" customFormat="1">
+    <row r="314" spans="2:2" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B314" s="153"/>
     </row>
-    <row r="315" spans="2:2" s="152" customFormat="1">
+    <row r="315" spans="2:2" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B315" s="153"/>
     </row>
-    <row r="316" spans="2:2" s="152" customFormat="1">
+    <row r="316" spans="2:2" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B316" s="153"/>
     </row>
-    <row r="317" spans="2:2" s="152" customFormat="1">
+    <row r="317" spans="2:2" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B317" s="153"/>
     </row>
-    <row r="318" spans="2:2" s="152" customFormat="1">
+    <row r="318" spans="2:2" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B318" s="153"/>
     </row>
-    <row r="319" spans="2:2" s="152" customFormat="1">
+    <row r="319" spans="2:2" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B319" s="153"/>
     </row>
-    <row r="320" spans="2:2" s="152" customFormat="1">
+    <row r="320" spans="2:2" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B320" s="153"/>
     </row>
-    <row r="321" spans="2:25" s="152" customFormat="1">
+    <row r="321" spans="2:25" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B321" s="153"/>
     </row>
-    <row r="322" spans="2:25" s="152" customFormat="1">
+    <row r="322" spans="2:25" s="152" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B322" s="153"/>
     </row>
-    <row r="323" spans="2:25" s="152" customFormat="1" ht="16" thickBot="1">
+    <row r="323" spans="2:25" s="152" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B323" s="153"/>
     </row>
-    <row r="324" spans="2:25" s="24" customFormat="1">
+    <row r="324" spans="2:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B324" s="101"/>
       <c r="C324" s="101" t="s">
         <v>24</v>
@@ -14052,7 +13826,7 @@
       <c r="T324" s="101"/>
       <c r="U324" s="101"/>
     </row>
-    <row r="325" spans="2:25" customFormat="1" ht="16">
+    <row r="325" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B325" s="98"/>
       <c r="C325" s="108"/>
       <c r="D325" s="108"/>
@@ -14078,7 +13852,7 @@
       <c r="X325" s="108"/>
       <c r="Y325" s="108"/>
     </row>
-    <row r="326" spans="2:25" customFormat="1" ht="16">
+    <row r="326" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B326" s="98"/>
       <c r="C326" s="108" t="s">
         <v>137</v>
@@ -14102,7 +13876,7 @@
       <c r="R326" s="108"/>
       <c r="S326" s="108"/>
     </row>
-    <row r="327" spans="2:25" customFormat="1" ht="16">
+    <row r="327" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B327" s="98"/>
       <c r="C327" s="108"/>
       <c r="D327" s="108"/>
@@ -14122,7 +13896,7 @@
       <c r="R327" s="108"/>
       <c r="S327" s="108"/>
     </row>
-    <row r="328" spans="2:25" customFormat="1" ht="16">
+    <row r="328" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B328" s="98"/>
       <c r="C328" s="108"/>
       <c r="D328" s="108" t="s">
@@ -14148,7 +13922,7 @@
       <c r="T328" s="108"/>
       <c r="U328" s="108"/>
     </row>
-    <row r="329" spans="2:25" customFormat="1" ht="16">
+    <row r="329" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B329" s="98"/>
       <c r="C329" s="108"/>
       <c r="D329" s="108"/>
@@ -14170,7 +13944,7 @@
       <c r="T329" s="108"/>
       <c r="U329" s="108"/>
     </row>
-    <row r="330" spans="2:25" customFormat="1" ht="16">
+    <row r="330" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B330" s="98"/>
       <c r="C330" s="108"/>
       <c r="D330" s="108"/>
@@ -14191,7 +13965,7 @@
       <c r="T330" s="108"/>
       <c r="U330" s="108"/>
     </row>
-    <row r="331" spans="2:25" customFormat="1" ht="16">
+    <row r="331" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B331" s="98"/>
       <c r="C331" s="108"/>
       <c r="D331" s="108"/>
@@ -14213,7 +13987,7 @@
       <c r="T331" s="108"/>
       <c r="U331" s="108"/>
     </row>
-    <row r="332" spans="2:25" customFormat="1" ht="16">
+    <row r="332" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B332" s="98"/>
       <c r="C332" s="108"/>
       <c r="D332" s="108"/>
@@ -14233,7 +14007,7 @@
       <c r="T332" s="108"/>
       <c r="U332" s="108"/>
     </row>
-    <row r="333" spans="2:25" customFormat="1" ht="16">
+    <row r="333" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B333" s="98"/>
       <c r="C333" s="108"/>
       <c r="D333" s="108"/>
@@ -14257,7 +14031,7 @@
       <c r="T333" s="108"/>
       <c r="U333" s="108"/>
     </row>
-    <row r="334" spans="2:25" customFormat="1" ht="16">
+    <row r="334" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B334" s="98"/>
       <c r="C334" s="108"/>
       <c r="D334" s="108"/>
@@ -14283,7 +14057,7 @@
       <c r="T334" s="108"/>
       <c r="U334" s="108"/>
     </row>
-    <row r="335" spans="2:25" customFormat="1" ht="16">
+    <row r="335" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B335" s="98"/>
       <c r="C335" s="108"/>
       <c r="D335" s="108"/>
@@ -14311,7 +14085,7 @@
       <c r="T335" s="108"/>
       <c r="U335" s="108"/>
     </row>
-    <row r="336" spans="2:25" customFormat="1" ht="16">
+    <row r="336" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B336" s="98"/>
       <c r="C336" s="108"/>
       <c r="D336" s="108"/>
@@ -14339,7 +14113,7 @@
       <c r="T336" s="108"/>
       <c r="U336" s="108"/>
     </row>
-    <row r="337" spans="2:21" customFormat="1" ht="16">
+    <row r="337" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B337" s="98"/>
       <c r="C337" s="108"/>
       <c r="D337" s="108"/>
@@ -14367,7 +14141,7 @@
       <c r="T337" s="108"/>
       <c r="U337" s="108"/>
     </row>
-    <row r="338" spans="2:21" customFormat="1" ht="16">
+    <row r="338" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B338" s="98"/>
       <c r="C338" s="108"/>
       <c r="D338" s="108"/>
@@ -14394,7 +14168,7 @@
       <c r="T338" s="108"/>
       <c r="U338" s="108"/>
     </row>
-    <row r="339" spans="2:21" customFormat="1" ht="16">
+    <row r="339" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B339" s="98"/>
       <c r="C339" s="108"/>
       <c r="D339" s="108"/>
@@ -14422,7 +14196,7 @@
       <c r="T339" s="108"/>
       <c r="U339" s="108"/>
     </row>
-    <row r="340" spans="2:21" customFormat="1" ht="16">
+    <row r="340" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B340" s="98"/>
       <c r="C340" s="108"/>
       <c r="D340" s="108"/>
@@ -14450,7 +14224,7 @@
       <c r="T340" s="108"/>
       <c r="U340" s="108"/>
     </row>
-    <row r="341" spans="2:21" customFormat="1" ht="16">
+    <row r="341" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B341" s="98"/>
       <c r="C341" s="108"/>
       <c r="D341" s="108"/>
@@ -14468,7 +14242,7 @@
       <c r="T341" s="108"/>
       <c r="U341" s="108"/>
     </row>
-    <row r="342" spans="2:21" customFormat="1" ht="16">
+    <row r="342" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B342" s="98"/>
       <c r="C342" s="108"/>
       <c r="D342" s="108"/>
@@ -14486,7 +14260,7 @@
       <c r="T342" s="108"/>
       <c r="U342" s="108"/>
     </row>
-    <row r="343" spans="2:21" customFormat="1" ht="16">
+    <row r="343" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B343" s="98"/>
       <c r="C343" s="108"/>
       <c r="D343" s="108"/>
@@ -14504,7 +14278,7 @@
       <c r="T343" s="108"/>
       <c r="U343" s="108"/>
     </row>
-    <row r="344" spans="2:21" customFormat="1" ht="16">
+    <row r="344" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B344" s="98"/>
       <c r="C344" s="108"/>
       <c r="D344" s="108"/>
@@ -14528,7 +14302,7 @@
       <c r="T344" s="108"/>
       <c r="U344" s="108"/>
     </row>
-    <row r="345" spans="2:21" customFormat="1" ht="16">
+    <row r="345" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B345" s="98"/>
       <c r="C345" s="108"/>
       <c r="D345" s="108"/>
@@ -14556,7 +14330,7 @@
       <c r="T345" s="108"/>
       <c r="U345" s="108"/>
     </row>
-    <row r="346" spans="2:21" customFormat="1" ht="16">
+    <row r="346" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B346" s="98"/>
       <c r="C346" s="108"/>
       <c r="D346" s="108"/>
@@ -14584,7 +14358,7 @@
       <c r="T346" s="108"/>
       <c r="U346" s="108"/>
     </row>
-    <row r="347" spans="2:21" customFormat="1" ht="16">
+    <row r="347" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B347" s="98"/>
       <c r="C347" s="108"/>
       <c r="D347" s="108"/>
@@ -14612,7 +14386,7 @@
       <c r="T347" s="108"/>
       <c r="U347" s="108"/>
     </row>
-    <row r="348" spans="2:21" customFormat="1" ht="16">
+    <row r="348" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B348" s="98"/>
       <c r="C348" s="108"/>
       <c r="D348" s="108"/>
@@ -14640,7 +14414,7 @@
       <c r="T348" s="108"/>
       <c r="U348" s="108"/>
     </row>
-    <row r="349" spans="2:21" customFormat="1" ht="16">
+    <row r="349" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B349" s="98"/>
       <c r="C349" s="108"/>
       <c r="D349" s="108"/>
@@ -14667,7 +14441,7 @@
       <c r="T349" s="108"/>
       <c r="U349" s="108"/>
     </row>
-    <row r="350" spans="2:21" customFormat="1" ht="16">
+    <row r="350" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B350" s="98"/>
       <c r="C350" s="108"/>
       <c r="D350" s="108"/>
@@ -14695,7 +14469,7 @@
       <c r="T350" s="108"/>
       <c r="U350" s="108"/>
     </row>
-    <row r="351" spans="2:21" customFormat="1" ht="16">
+    <row r="351" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B351" s="98"/>
       <c r="C351" s="108"/>
       <c r="D351" s="108"/>
@@ -14723,7 +14497,7 @@
       <c r="T351" s="108"/>
       <c r="U351" s="108"/>
     </row>
-    <row r="352" spans="2:21" customFormat="1" ht="16">
+    <row r="352" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B352" s="98"/>
       <c r="C352" s="108"/>
       <c r="D352" s="108"/>
@@ -14745,7 +14519,7 @@
       <c r="T352" s="108"/>
       <c r="U352" s="108"/>
     </row>
-    <row r="353" spans="2:25" customFormat="1" ht="16">
+    <row r="353" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B353" s="98"/>
       <c r="C353" s="108"/>
       <c r="D353" s="108"/>
@@ -14769,7 +14543,7 @@
       <c r="T353" s="108"/>
       <c r="U353" s="108"/>
     </row>
-    <row r="354" spans="2:25" customFormat="1" ht="16">
+    <row r="354" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B354" s="98"/>
       <c r="C354" s="108"/>
       <c r="D354" s="108"/>
@@ -14798,7 +14572,7 @@
       <c r="T354" s="108"/>
       <c r="U354" s="108"/>
     </row>
-    <row r="355" spans="2:25" customFormat="1" ht="16">
+    <row r="355" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B355" s="98"/>
       <c r="C355" s="108"/>
       <c r="D355" s="108"/>
@@ -14820,7 +14594,7 @@
       <c r="T355" s="108"/>
       <c r="U355" s="108"/>
     </row>
-    <row r="356" spans="2:25" customFormat="1" ht="16">
+    <row r="356" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B356" s="98"/>
       <c r="C356" s="108"/>
       <c r="D356" s="108"/>
@@ -14844,7 +14618,7 @@
       <c r="T356" s="108"/>
       <c r="U356" s="108"/>
     </row>
-    <row r="357" spans="2:25" customFormat="1" ht="16">
+    <row r="357" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B357" s="98"/>
       <c r="C357" s="108"/>
       <c r="D357" s="108"/>
@@ -14873,7 +14647,7 @@
       <c r="T357" s="108"/>
       <c r="U357" s="108"/>
     </row>
-    <row r="358" spans="2:25" customFormat="1" ht="16">
+    <row r="358" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B358" s="98"/>
       <c r="C358" s="108"/>
       <c r="D358" s="108"/>
@@ -14902,7 +14676,7 @@
       <c r="T358" s="108"/>
       <c r="U358" s="108"/>
     </row>
-    <row r="359" spans="2:25" customFormat="1" ht="16">
+    <row r="359" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B359" s="98"/>
       <c r="C359" s="108"/>
       <c r="D359" s="108"/>
@@ -14924,7 +14698,7 @@
       <c r="T359" s="108"/>
       <c r="U359" s="108"/>
     </row>
-    <row r="360" spans="2:25" customFormat="1" ht="16">
+    <row r="360" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B360" s="98"/>
       <c r="C360" s="108"/>
       <c r="D360" s="108"/>
@@ -14946,7 +14720,7 @@
       <c r="T360" s="108"/>
       <c r="U360" s="108"/>
     </row>
-    <row r="361" spans="2:25" customFormat="1" ht="16">
+    <row r="361" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B361" s="98"/>
       <c r="C361" s="108"/>
       <c r="D361" s="108"/>
@@ -14968,7 +14742,7 @@
       <c r="T361" s="108"/>
       <c r="U361" s="108"/>
     </row>
-    <row r="362" spans="2:25" customFormat="1" ht="16">
+    <row r="362" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B362" s="98"/>
       <c r="C362" s="108"/>
       <c r="D362" s="108"/>
@@ -14990,7 +14764,7 @@
       <c r="T362" s="108"/>
       <c r="U362" s="108"/>
     </row>
-    <row r="363" spans="2:25" customFormat="1" ht="16">
+    <row r="363" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B363" s="98"/>
       <c r="C363" s="108"/>
       <c r="D363" s="108"/>
@@ -15012,7 +14786,7 @@
       <c r="T363" s="108"/>
       <c r="U363" s="108"/>
     </row>
-    <row r="364" spans="2:25" customFormat="1" ht="16">
+    <row r="364" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B364" s="98"/>
       <c r="C364" s="108"/>
       <c r="D364" s="108"/>
@@ -15034,7 +14808,7 @@
       <c r="T364" s="108"/>
       <c r="U364" s="108"/>
     </row>
-    <row r="365" spans="2:25" customFormat="1" ht="16">
+    <row r="365" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B365" s="98"/>
       <c r="C365" s="108"/>
       <c r="D365" s="108"/>
@@ -15056,7 +14830,7 @@
       <c r="T365" s="108"/>
       <c r="U365" s="108"/>
     </row>
-    <row r="366" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="366" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B366" s="98"/>
       <c r="C366" s="108"/>
       <c r="D366" s="108"/>
@@ -15078,7 +14852,7 @@
       <c r="T366" s="108"/>
       <c r="U366" s="108"/>
     </row>
-    <row r="367" spans="2:25" s="24" customFormat="1">
+    <row r="367" spans="2:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B367" s="101"/>
       <c r="C367" s="101" t="s">
         <v>24</v>
@@ -15106,7 +14880,7 @@
       <c r="T367" s="101"/>
       <c r="U367" s="101"/>
     </row>
-    <row r="368" spans="2:25" customFormat="1" ht="16">
+    <row r="368" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B368" s="98"/>
       <c r="C368" s="108"/>
       <c r="D368" s="108"/>
@@ -15132,7 +14906,7 @@
       <c r="X368" s="108"/>
       <c r="Y368" s="108"/>
     </row>
-    <row r="369" spans="2:21" customFormat="1" ht="16">
+    <row r="369" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B369" s="98"/>
       <c r="C369" s="115" t="s">
         <v>158</v>
@@ -15155,7 +14929,7 @@
       <c r="S369" s="108"/>
       <c r="T369" s="108"/>
     </row>
-    <row r="370" spans="2:21" customFormat="1" ht="16">
+    <row r="370" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B370" s="98"/>
       <c r="C370" s="108"/>
       <c r="D370" s="108"/>
@@ -15177,7 +14951,7 @@
       <c r="T370" s="108"/>
       <c r="U370" s="108"/>
     </row>
-    <row r="371" spans="2:21" customFormat="1" ht="16">
+    <row r="371" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B371" s="98"/>
       <c r="C371" s="108"/>
       <c r="D371" s="108"/>
@@ -15205,7 +14979,7 @@
       <c r="T371" s="108"/>
       <c r="U371" s="108"/>
     </row>
-    <row r="372" spans="2:21" customFormat="1" ht="16">
+    <row r="372" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B372" s="98"/>
       <c r="C372" s="108"/>
       <c r="D372" s="108"/>
@@ -15234,7 +15008,7 @@
       <c r="T372" s="108"/>
       <c r="U372" s="108"/>
     </row>
-    <row r="373" spans="2:21" customFormat="1" ht="16">
+    <row r="373" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B373" s="98"/>
       <c r="C373" s="108"/>
       <c r="D373" s="108"/>
@@ -15256,7 +15030,7 @@
       <c r="T373" s="108"/>
       <c r="U373" s="108"/>
     </row>
-    <row r="374" spans="2:21" customFormat="1" ht="16">
+    <row r="374" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B374" s="98"/>
       <c r="C374" s="108"/>
       <c r="D374" s="108"/>
@@ -15278,7 +15052,7 @@
       <c r="T374" s="108"/>
       <c r="U374" s="108"/>
     </row>
-    <row r="375" spans="2:21" customFormat="1" ht="16">
+    <row r="375" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B375" s="98"/>
       <c r="C375" s="108"/>
       <c r="D375" s="108"/>
@@ -15300,7 +15074,7 @@
       <c r="T375" s="108"/>
       <c r="U375" s="108"/>
     </row>
-    <row r="376" spans="2:21" customFormat="1" ht="16">
+    <row r="376" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B376" s="98"/>
       <c r="C376" s="108"/>
       <c r="D376" s="108"/>
@@ -15322,7 +15096,7 @@
       <c r="T376" s="108"/>
       <c r="U376" s="108"/>
     </row>
-    <row r="377" spans="2:21" customFormat="1" ht="16">
+    <row r="377" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B377" s="98"/>
       <c r="C377" s="108"/>
       <c r="D377" s="108"/>
@@ -15344,7 +15118,7 @@
       <c r="T377" s="108"/>
       <c r="U377" s="108"/>
     </row>
-    <row r="378" spans="2:21" customFormat="1" ht="16">
+    <row r="378" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B378" s="98"/>
       <c r="C378" s="108"/>
       <c r="D378" s="108"/>
@@ -15366,7 +15140,7 @@
       <c r="T378" s="108"/>
       <c r="U378" s="108"/>
     </row>
-    <row r="379" spans="2:21" customFormat="1" ht="16">
+    <row r="379" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B379" s="98"/>
       <c r="C379" s="108"/>
       <c r="D379" s="108"/>
@@ -15388,7 +15162,7 @@
       <c r="T379" s="108"/>
       <c r="U379" s="108"/>
     </row>
-    <row r="380" spans="2:21" customFormat="1" ht="16">
+    <row r="380" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B380" s="98"/>
       <c r="C380" s="108"/>
       <c r="D380" s="108"/>
@@ -15410,7 +15184,7 @@
       <c r="T380" s="108"/>
       <c r="U380" s="108"/>
     </row>
-    <row r="381" spans="2:21" customFormat="1" ht="16">
+    <row r="381" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B381" s="98"/>
       <c r="C381" s="108"/>
       <c r="D381" s="108"/>
@@ -15432,7 +15206,7 @@
       <c r="T381" s="108"/>
       <c r="U381" s="108"/>
     </row>
-    <row r="382" spans="2:21" customFormat="1" ht="16">
+    <row r="382" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B382" s="98"/>
       <c r="C382" s="108"/>
       <c r="D382" s="108"/>
@@ -15454,7 +15228,7 @@
       <c r="T382" s="108"/>
       <c r="U382" s="108"/>
     </row>
-    <row r="383" spans="2:21" customFormat="1" ht="16">
+    <row r="383" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B383" s="98"/>
       <c r="C383" s="108"/>
       <c r="D383" s="108"/>
@@ -15476,7 +15250,7 @@
       <c r="T383" s="108"/>
       <c r="U383" s="108"/>
     </row>
-    <row r="384" spans="2:21" customFormat="1" ht="16">
+    <row r="384" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B384" s="98"/>
       <c r="C384" s="108"/>
       <c r="D384" s="108"/>
@@ -15498,7 +15272,7 @@
       <c r="T384" s="108"/>
       <c r="U384" s="108"/>
     </row>
-    <row r="385" spans="2:21" customFormat="1" ht="16">
+    <row r="385" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B385" s="98"/>
       <c r="C385" s="108"/>
       <c r="D385" s="108"/>
@@ -15520,7 +15294,7 @@
       <c r="T385" s="108"/>
       <c r="U385" s="108"/>
     </row>
-    <row r="386" spans="2:21" customFormat="1" ht="16">
+    <row r="386" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B386" s="98"/>
       <c r="C386" s="108"/>
       <c r="D386" s="108"/>
@@ -15542,7 +15316,7 @@
       <c r="T386" s="108"/>
       <c r="U386" s="108"/>
     </row>
-    <row r="387" spans="2:21" customFormat="1" ht="16">
+    <row r="387" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B387" s="98"/>
       <c r="C387" s="108"/>
       <c r="D387" s="108"/>
@@ -15564,7 +15338,7 @@
       <c r="T387" s="108"/>
       <c r="U387" s="108"/>
     </row>
-    <row r="388" spans="2:21" customFormat="1" ht="16">
+    <row r="388" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B388" s="98"/>
       <c r="C388" s="108"/>
       <c r="D388" s="108"/>
@@ -15586,7 +15360,7 @@
       <c r="T388" s="108"/>
       <c r="U388" s="108"/>
     </row>
-    <row r="389" spans="2:21" customFormat="1" ht="16">
+    <row r="389" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B389" s="98"/>
       <c r="C389" s="108"/>
       <c r="D389" s="108"/>
@@ -15608,7 +15382,7 @@
       <c r="T389" s="108"/>
       <c r="U389" s="108"/>
     </row>
-    <row r="390" spans="2:21" customFormat="1" ht="16">
+    <row r="390" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B390" s="98"/>
       <c r="C390" s="108"/>
       <c r="D390" s="108"/>
@@ -15630,7 +15404,7 @@
       <c r="T390" s="108"/>
       <c r="U390" s="108"/>
     </row>
-    <row r="391" spans="2:21" customFormat="1" ht="16">
+    <row r="391" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B391" s="98"/>
       <c r="C391" s="108"/>
       <c r="D391" s="108"/>
@@ -15652,7 +15426,7 @@
       <c r="T391" s="108"/>
       <c r="U391" s="108"/>
     </row>
-    <row r="392" spans="2:21" customFormat="1" ht="16">
+    <row r="392" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B392" s="98"/>
       <c r="C392" s="108"/>
       <c r="D392" s="108"/>
@@ -15674,7 +15448,7 @@
       <c r="T392" s="108"/>
       <c r="U392" s="108"/>
     </row>
-    <row r="393" spans="2:21" customFormat="1" ht="16">
+    <row r="393" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B393" s="98"/>
       <c r="C393" s="108"/>
       <c r="D393" s="108"/>
@@ -15696,7 +15470,7 @@
       <c r="T393" s="108"/>
       <c r="U393" s="108"/>
     </row>
-    <row r="394" spans="2:21" customFormat="1" ht="16">
+    <row r="394" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B394" s="98"/>
       <c r="C394" s="108"/>
       <c r="D394" s="108"/>
@@ -15718,7 +15492,7 @@
       <c r="T394" s="108"/>
       <c r="U394" s="108"/>
     </row>
-    <row r="395" spans="2:21" customFormat="1" ht="16">
+    <row r="395" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B395" s="98"/>
       <c r="C395" s="108"/>
       <c r="D395" s="108"/>
@@ -15740,7 +15514,7 @@
       <c r="T395" s="108"/>
       <c r="U395" s="108"/>
     </row>
-    <row r="396" spans="2:21" customFormat="1" ht="16">
+    <row r="396" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B396" s="98"/>
       <c r="C396" s="108"/>
       <c r="D396" s="108"/>
@@ -15762,7 +15536,7 @@
       <c r="T396" s="108"/>
       <c r="U396" s="108"/>
     </row>
-    <row r="397" spans="2:21" customFormat="1" ht="16">
+    <row r="397" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B397" s="98"/>
       <c r="C397" s="108"/>
       <c r="D397" s="108"/>
@@ -15784,7 +15558,7 @@
       <c r="T397" s="108"/>
       <c r="U397" s="108"/>
     </row>
-    <row r="398" spans="2:21" customFormat="1" ht="16">
+    <row r="398" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B398" s="98"/>
       <c r="C398" s="108"/>
       <c r="D398" s="108"/>
@@ -15806,7 +15580,7 @@
       <c r="T398" s="108"/>
       <c r="U398" s="108"/>
     </row>
-    <row r="399" spans="2:21" customFormat="1" ht="16">
+    <row r="399" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B399" s="98"/>
       <c r="C399" s="108"/>
       <c r="D399" s="108"/>
@@ -15828,7 +15602,7 @@
       <c r="T399" s="108"/>
       <c r="U399" s="108"/>
     </row>
-    <row r="400" spans="2:21" customFormat="1" ht="16">
+    <row r="400" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B400" s="98"/>
       <c r="C400" s="108"/>
       <c r="D400" s="108"/>
@@ -15850,7 +15624,7 @@
       <c r="T400" s="108"/>
       <c r="U400" s="108"/>
     </row>
-    <row r="401" spans="2:25" customFormat="1" ht="16">
+    <row r="401" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B401" s="98"/>
       <c r="C401" s="108"/>
       <c r="D401" s="108"/>
@@ -15872,7 +15646,7 @@
       <c r="T401" s="108"/>
       <c r="U401" s="108"/>
     </row>
-    <row r="402" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="402" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B402" s="98"/>
       <c r="C402" s="108"/>
       <c r="D402" s="108"/>
@@ -15894,7 +15668,7 @@
       <c r="T402" s="108"/>
       <c r="U402" s="108"/>
     </row>
-    <row r="403" spans="2:25" s="24" customFormat="1">
+    <row r="403" spans="2:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B403" s="101"/>
       <c r="C403" s="101" t="s">
         <v>24</v>
@@ -15922,7 +15696,7 @@
       <c r="T403" s="101"/>
       <c r="U403" s="101"/>
     </row>
-    <row r="404" spans="2:25" customFormat="1" ht="16">
+    <row r="404" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B404" s="98"/>
       <c r="C404" s="108"/>
       <c r="D404" s="108"/>
@@ -15948,7 +15722,7 @@
       <c r="X404" s="108"/>
       <c r="Y404" s="108"/>
     </row>
-    <row r="405" spans="2:25" customFormat="1" ht="16">
+    <row r="405" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B405" s="98"/>
       <c r="C405" s="108" t="s">
         <v>50</v>
@@ -15976,7 +15750,7 @@
       <c r="X405" s="108"/>
       <c r="Y405" s="108"/>
     </row>
-    <row r="406" spans="2:25" customFormat="1" ht="16">
+    <row r="406" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B406" s="98"/>
       <c r="C406" s="108"/>
       <c r="D406" s="108"/>
@@ -16002,7 +15776,7 @@
       <c r="X406" s="108"/>
       <c r="Y406" s="108"/>
     </row>
-    <row r="407" spans="2:25" customFormat="1" ht="16">
+    <row r="407" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B407" s="98"/>
       <c r="C407" s="108"/>
       <c r="D407" s="108"/>
@@ -16028,7 +15802,7 @@
       <c r="X407" s="108"/>
       <c r="Y407" s="108"/>
     </row>
-    <row r="408" spans="2:25" customFormat="1" ht="16">
+    <row r="408" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B408" s="98"/>
       <c r="C408" s="108"/>
       <c r="D408" s="108"/>
@@ -16054,7 +15828,7 @@
       <c r="X408" s="108"/>
       <c r="Y408" s="108"/>
     </row>
-    <row r="409" spans="2:25" customFormat="1" ht="16">
+    <row r="409" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B409" s="98"/>
       <c r="C409" s="108"/>
       <c r="D409" s="108">
@@ -16085,7 +15859,7 @@
       <c r="X409" s="108"/>
       <c r="Y409" s="108"/>
     </row>
-    <row r="410" spans="2:25" customFormat="1" ht="16">
+    <row r="410" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B410" s="98"/>
       <c r="C410" s="108"/>
       <c r="D410" s="108"/>
@@ -16116,7 +15890,7 @@
       <c r="X410" s="108"/>
       <c r="Y410" s="108"/>
     </row>
-    <row r="411" spans="2:25" customFormat="1" ht="16">
+    <row r="411" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B411" s="98"/>
       <c r="C411" s="108"/>
       <c r="D411" s="108"/>
@@ -16145,7 +15919,7 @@
       <c r="X411" s="108"/>
       <c r="Y411" s="108"/>
     </row>
-    <row r="412" spans="2:25" customFormat="1" ht="16">
+    <row r="412" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B412" s="98"/>
       <c r="C412" s="108"/>
       <c r="D412" s="108"/>
@@ -16174,7 +15948,7 @@
       <c r="X412" s="108"/>
       <c r="Y412" s="108"/>
     </row>
-    <row r="413" spans="2:25" customFormat="1" ht="16">
+    <row r="413" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B413" s="98"/>
       <c r="C413" s="108"/>
       <c r="D413" s="108"/>
@@ -16200,7 +15974,7 @@
       <c r="X413" s="108"/>
       <c r="Y413" s="108"/>
     </row>
-    <row r="414" spans="2:25" customFormat="1" ht="16">
+    <row r="414" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B414" s="98"/>
       <c r="C414" s="108"/>
       <c r="D414" s="108"/>
@@ -16231,7 +16005,7 @@
       <c r="X414" s="108"/>
       <c r="Y414" s="108"/>
     </row>
-    <row r="415" spans="2:25" customFormat="1" ht="16">
+    <row r="415" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B415" s="98"/>
       <c r="C415" s="108"/>
       <c r="D415" s="108"/>
@@ -16266,7 +16040,7 @@
       <c r="X415" s="108"/>
       <c r="Y415" s="108"/>
     </row>
-    <row r="416" spans="2:25" customFormat="1" ht="16">
+    <row r="416" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B416" s="98"/>
       <c r="C416" s="108"/>
       <c r="D416" s="108"/>
@@ -16292,7 +16066,7 @@
       <c r="X416" s="108"/>
       <c r="Y416" s="108"/>
     </row>
-    <row r="417" spans="2:25" customFormat="1" ht="16">
+    <row r="417" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B417" s="98"/>
       <c r="C417" s="108"/>
       <c r="D417" s="108"/>
@@ -16318,7 +16092,7 @@
       <c r="X417" s="108"/>
       <c r="Y417" s="108"/>
     </row>
-    <row r="418" spans="2:25" customFormat="1" ht="16">
+    <row r="418" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B418" s="98"/>
       <c r="C418" s="108"/>
       <c r="D418" s="108"/>
@@ -16344,7 +16118,7 @@
       <c r="X418" s="108"/>
       <c r="Y418" s="108"/>
     </row>
-    <row r="419" spans="2:25" customFormat="1" ht="16">
+    <row r="419" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B419" s="98"/>
       <c r="C419" s="108"/>
       <c r="D419" s="108"/>
@@ -16370,7 +16144,7 @@
       <c r="X419" s="108"/>
       <c r="Y419" s="108"/>
     </row>
-    <row r="420" spans="2:25" customFormat="1" ht="16">
+    <row r="420" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B420" s="98"/>
       <c r="C420" s="108"/>
       <c r="D420" s="108"/>
@@ -16396,7 +16170,7 @@
       <c r="X420" s="108"/>
       <c r="Y420" s="108"/>
     </row>
-    <row r="421" spans="2:25" customFormat="1" ht="16">
+    <row r="421" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B421" s="98"/>
       <c r="C421" s="108"/>
       <c r="D421" s="108"/>
@@ -16422,7 +16196,7 @@
       <c r="X421" s="108"/>
       <c r="Y421" s="108"/>
     </row>
-    <row r="422" spans="2:25" customFormat="1" ht="16">
+    <row r="422" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B422" s="98"/>
       <c r="C422" s="108"/>
       <c r="D422" s="108"/>
@@ -16448,7 +16222,7 @@
       <c r="X422" s="108"/>
       <c r="Y422" s="108"/>
     </row>
-    <row r="423" spans="2:25" customFormat="1" ht="16">
+    <row r="423" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B423" s="98"/>
       <c r="C423" s="108"/>
       <c r="D423" s="108"/>
@@ -16474,7 +16248,7 @@
       <c r="X423" s="108"/>
       <c r="Y423" s="108"/>
     </row>
-    <row r="424" spans="2:25" customFormat="1" ht="16">
+    <row r="424" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B424" s="98"/>
       <c r="C424" s="108"/>
       <c r="D424" s="108"/>
@@ -16500,7 +16274,7 @@
       <c r="X424" s="108"/>
       <c r="Y424" s="108"/>
     </row>
-    <row r="425" spans="2:25" customFormat="1" ht="16">
+    <row r="425" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B425" s="98"/>
       <c r="C425" s="108"/>
       <c r="D425" s="108"/>
@@ -16526,7 +16300,7 @@
       <c r="X425" s="108"/>
       <c r="Y425" s="108"/>
     </row>
-    <row r="426" spans="2:25" customFormat="1" ht="16">
+    <row r="426" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B426" s="98"/>
       <c r="C426" s="108"/>
       <c r="D426" s="108"/>
@@ -16552,7 +16326,7 @@
       <c r="X426" s="108"/>
       <c r="Y426" s="108"/>
     </row>
-    <row r="427" spans="2:25" customFormat="1" ht="16">
+    <row r="427" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B427" s="98"/>
       <c r="C427" s="108"/>
       <c r="D427" s="108"/>
@@ -16578,7 +16352,7 @@
       <c r="X427" s="108"/>
       <c r="Y427" s="108"/>
     </row>
-    <row r="428" spans="2:25" customFormat="1" ht="16">
+    <row r="428" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B428" s="98"/>
       <c r="C428" s="108"/>
       <c r="D428" s="108"/>
@@ -16604,7 +16378,7 @@
       <c r="X428" s="108"/>
       <c r="Y428" s="108"/>
     </row>
-    <row r="429" spans="2:25" customFormat="1" ht="16">
+    <row r="429" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B429" s="98"/>
       <c r="C429" s="108"/>
       <c r="D429" s="108"/>
@@ -16630,106 +16404,106 @@
       <c r="X429" s="108"/>
       <c r="Y429" s="108"/>
     </row>
-    <row r="430" spans="2:25" customFormat="1" ht="16">
+    <row r="430" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B430" s="98"/>
     </row>
-    <row r="431" spans="2:25" customFormat="1" ht="16">
+    <row r="431" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B431" s="98"/>
     </row>
-    <row r="432" spans="2:25" customFormat="1" ht="16">
+    <row r="432" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B432" s="98"/>
     </row>
-    <row r="433" spans="2:2" customFormat="1" ht="16">
+    <row r="433" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B433" s="98"/>
     </row>
-    <row r="434" spans="2:2" customFormat="1" ht="16">
+    <row r="434" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B434" s="98"/>
     </row>
-    <row r="435" spans="2:2" customFormat="1" ht="16">
+    <row r="435" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B435" s="98"/>
     </row>
-    <row r="436" spans="2:2" customFormat="1" ht="16">
+    <row r="436" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B436" s="98"/>
     </row>
-    <row r="437" spans="2:2" customFormat="1" ht="16">
+    <row r="437" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B437" s="98"/>
     </row>
-    <row r="438" spans="2:2" customFormat="1" ht="16">
+    <row r="438" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B438" s="98"/>
     </row>
-    <row r="439" spans="2:2" customFormat="1" ht="16">
+    <row r="439" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B439" s="98"/>
     </row>
-    <row r="440" spans="2:2" customFormat="1" ht="16">
+    <row r="440" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B440" s="98"/>
     </row>
-    <row r="441" spans="2:2" customFormat="1" ht="16">
+    <row r="441" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B441" s="98"/>
     </row>
-    <row r="442" spans="2:2" customFormat="1" ht="16">
+    <row r="442" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B442" s="98"/>
     </row>
-    <row r="443" spans="2:2" customFormat="1" ht="16">
+    <row r="443" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B443" s="98"/>
     </row>
-    <row r="444" spans="2:2" customFormat="1" ht="16">
+    <row r="444" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B444" s="98"/>
     </row>
-    <row r="445" spans="2:2" customFormat="1" ht="16">
+    <row r="445" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B445" s="98"/>
     </row>
-    <row r="446" spans="2:2" customFormat="1" ht="16">
+    <row r="446" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B446" s="98"/>
     </row>
-    <row r="447" spans="2:2" customFormat="1" ht="16">
+    <row r="447" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B447" s="98"/>
     </row>
-    <row r="448" spans="2:2" customFormat="1" ht="16">
+    <row r="448" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B448" s="98"/>
     </row>
-    <row r="449" spans="2:25" customFormat="1" ht="16">
+    <row r="449" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B449" s="98"/>
     </row>
-    <row r="450" spans="2:25" customFormat="1" ht="16">
+    <row r="450" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B450" s="98"/>
     </row>
-    <row r="451" spans="2:25" customFormat="1" ht="16">
+    <row r="451" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B451" s="98"/>
     </row>
-    <row r="452" spans="2:25" customFormat="1" ht="16">
+    <row r="452" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B452" s="98"/>
     </row>
-    <row r="453" spans="2:25" customFormat="1" ht="16">
+    <row r="453" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B453" s="98"/>
     </row>
-    <row r="454" spans="2:25" customFormat="1" ht="16">
+    <row r="454" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B454" s="98"/>
     </row>
-    <row r="455" spans="2:25" customFormat="1" ht="16">
+    <row r="455" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B455" s="98"/>
     </row>
-    <row r="456" spans="2:25" customFormat="1" ht="16">
+    <row r="456" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B456" s="98"/>
     </row>
-    <row r="457" spans="2:25" customFormat="1" ht="16">
+    <row r="457" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B457" s="98"/>
     </row>
-    <row r="458" spans="2:25" customFormat="1" ht="16">
+    <row r="458" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B458" s="98"/>
     </row>
-    <row r="459" spans="2:25" customFormat="1" ht="16">
+    <row r="459" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B459" s="98"/>
     </row>
-    <row r="460" spans="2:25" customFormat="1" ht="16">
+    <row r="460" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B460" s="98"/>
     </row>
-    <row r="461" spans="2:25" customFormat="1" ht="16">
+    <row r="461" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B461" s="98"/>
     </row>
-    <row r="462" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="462" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B462" s="98"/>
     </row>
-    <row r="463" spans="2:25" s="24" customFormat="1">
+    <row r="463" spans="2:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B463" s="101"/>
       <c r="C463" s="101" t="s">
         <v>24</v>
@@ -16757,7 +16531,7 @@
       <c r="T463" s="101"/>
       <c r="U463" s="101"/>
     </row>
-    <row r="464" spans="2:25" customFormat="1" ht="16">
+    <row r="464" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B464" s="98"/>
       <c r="C464" s="108"/>
       <c r="D464" s="108"/>
@@ -16783,7 +16557,7 @@
       <c r="X464" s="108"/>
       <c r="Y464" s="108"/>
     </row>
-    <row r="465" spans="2:25" customFormat="1" ht="16">
+    <row r="465" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B465" s="98"/>
       <c r="C465" s="114" t="s">
         <v>59</v>
@@ -16811,7 +16585,7 @@
       <c r="X465" s="108"/>
       <c r="Y465" s="108"/>
     </row>
-    <row r="466" spans="2:25" customFormat="1" ht="16">
+    <row r="466" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B466" s="98"/>
       <c r="C466" s="97"/>
       <c r="D466" s="108"/>
@@ -16837,7 +16611,7 @@
       <c r="X466" s="108"/>
       <c r="Y466" s="108"/>
     </row>
-    <row r="467" spans="2:25" customFormat="1" ht="16">
+    <row r="467" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B467" s="98"/>
       <c r="C467" s="108"/>
       <c r="D467">
@@ -16865,7 +16639,7 @@
       <c r="X467" s="108"/>
       <c r="Y467" s="108"/>
     </row>
-    <row r="468" spans="2:25" customFormat="1" ht="16">
+    <row r="468" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B468" s="98"/>
       <c r="C468" s="108"/>
       <c r="D468" s="108"/>
@@ -16891,7 +16665,7 @@
       <c r="X468" s="108"/>
       <c r="Y468" s="108"/>
     </row>
-    <row r="469" spans="2:25" customFormat="1" ht="16">
+    <row r="469" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B469" s="98"/>
       <c r="C469" s="108"/>
       <c r="D469" s="108"/>
@@ -16916,7 +16690,7 @@
       <c r="X469" s="108"/>
       <c r="Y469" s="108"/>
     </row>
-    <row r="470" spans="2:25" customFormat="1" ht="16">
+    <row r="470" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B470" s="98"/>
       <c r="C470" s="108"/>
       <c r="D470" s="108"/>
@@ -16941,7 +16715,7 @@
       <c r="X470" s="108"/>
       <c r="Y470" s="108"/>
     </row>
-    <row r="471" spans="2:25" customFormat="1" ht="16">
+    <row r="471" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B471" s="98"/>
       <c r="C471" s="108"/>
       <c r="D471" s="108"/>
@@ -16965,7 +16739,7 @@
       <c r="X471" s="108"/>
       <c r="Y471" s="108"/>
     </row>
-    <row r="472" spans="2:25" customFormat="1" ht="16">
+    <row r="472" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B472" s="98"/>
       <c r="C472" s="108"/>
       <c r="D472" s="108"/>
@@ -16990,7 +16764,7 @@
       <c r="X472" s="108"/>
       <c r="Y472" s="108"/>
     </row>
-    <row r="473" spans="2:25" customFormat="1" ht="16">
+    <row r="473" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B473" s="98"/>
       <c r="C473" s="108"/>
       <c r="D473" s="108"/>
@@ -17016,7 +16790,7 @@
       <c r="X473" s="108"/>
       <c r="Y473" s="108"/>
     </row>
-    <row r="474" spans="2:25" customFormat="1" ht="16">
+    <row r="474" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B474" s="98"/>
       <c r="C474" s="108"/>
       <c r="D474" s="108"/>
@@ -17042,7 +16816,7 @@
       <c r="X474" s="108"/>
       <c r="Y474" s="108"/>
     </row>
-    <row r="475" spans="2:25" customFormat="1" ht="16">
+    <row r="475" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B475" s="98"/>
       <c r="C475" s="108"/>
       <c r="D475" s="108"/>
@@ -17068,7 +16842,7 @@
       <c r="X475" s="108"/>
       <c r="Y475" s="108"/>
     </row>
-    <row r="476" spans="2:25" customFormat="1" ht="16">
+    <row r="476" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B476" s="98"/>
       <c r="C476" s="108"/>
       <c r="D476" s="108"/>
@@ -17094,7 +16868,7 @@
       <c r="X476" s="108"/>
       <c r="Y476" s="108"/>
     </row>
-    <row r="477" spans="2:25" customFormat="1" ht="16">
+    <row r="477" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B477" s="98"/>
       <c r="C477" s="108"/>
       <c r="D477" s="108"/>
@@ -17120,7 +16894,7 @@
       <c r="X477" s="108"/>
       <c r="Y477" s="108"/>
     </row>
-    <row r="478" spans="2:25" customFormat="1" ht="16">
+    <row r="478" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B478" s="98"/>
       <c r="C478" s="108"/>
       <c r="D478" s="108"/>
@@ -17146,7 +16920,7 @@
       <c r="X478" s="108"/>
       <c r="Y478" s="108"/>
     </row>
-    <row r="479" spans="2:25" customFormat="1" ht="16">
+    <row r="479" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B479" s="98"/>
       <c r="C479" s="108"/>
       <c r="D479" s="108"/>
@@ -17172,7 +16946,7 @@
       <c r="X479" s="108"/>
       <c r="Y479" s="108"/>
     </row>
-    <row r="480" spans="2:25" customFormat="1" ht="16">
+    <row r="480" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B480" s="98"/>
       <c r="C480" s="108"/>
       <c r="D480" s="108"/>
@@ -17198,7 +16972,7 @@
       <c r="X480" s="108"/>
       <c r="Y480" s="108"/>
     </row>
-    <row r="481" spans="2:25" customFormat="1" ht="16">
+    <row r="481" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B481" s="98"/>
       <c r="C481" s="108"/>
       <c r="D481" s="108"/>
@@ -17224,7 +16998,7 @@
       <c r="X481" s="108"/>
       <c r="Y481" s="108"/>
     </row>
-    <row r="482" spans="2:25" customFormat="1" ht="16">
+    <row r="482" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B482" s="98"/>
       <c r="C482" s="108"/>
       <c r="D482" s="108"/>
@@ -17250,7 +17024,7 @@
       <c r="X482" s="108"/>
       <c r="Y482" s="108"/>
     </row>
-    <row r="483" spans="2:25" customFormat="1" ht="16">
+    <row r="483" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B483" s="98"/>
       <c r="C483" s="108"/>
       <c r="D483" s="108"/>
@@ -17276,7 +17050,7 @@
       <c r="X483" s="108"/>
       <c r="Y483" s="108"/>
     </row>
-    <row r="484" spans="2:25" customFormat="1" ht="16">
+    <row r="484" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B484" s="98"/>
       <c r="C484" s="108"/>
       <c r="D484" s="108"/>
@@ -17302,7 +17076,7 @@
       <c r="X484" s="108"/>
       <c r="Y484" s="108"/>
     </row>
-    <row r="485" spans="2:25" customFormat="1" ht="16">
+    <row r="485" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B485" s="98"/>
       <c r="C485" s="108"/>
       <c r="D485" s="108"/>
@@ -17328,7 +17102,7 @@
       <c r="X485" s="108"/>
       <c r="Y485" s="108"/>
     </row>
-    <row r="486" spans="2:25" customFormat="1" ht="16">
+    <row r="486" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B486" s="98"/>
       <c r="C486" s="108"/>
       <c r="D486" s="108"/>
@@ -17354,7 +17128,7 @@
       <c r="X486" s="108"/>
       <c r="Y486" s="108"/>
     </row>
-    <row r="487" spans="2:25" customFormat="1" ht="16">
+    <row r="487" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B487" s="98"/>
       <c r="C487" s="108"/>
       <c r="D487" s="108"/>
@@ -17380,7 +17154,7 @@
       <c r="X487" s="108"/>
       <c r="Y487" s="108"/>
     </row>
-    <row r="488" spans="2:25" customFormat="1" ht="16">
+    <row r="488" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B488" s="98"/>
       <c r="C488" s="108"/>
       <c r="D488" s="108"/>
@@ -17406,7 +17180,7 @@
       <c r="X488" s="108"/>
       <c r="Y488" s="108"/>
     </row>
-    <row r="489" spans="2:25" customFormat="1" ht="16">
+    <row r="489" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B489" s="98"/>
       <c r="C489" s="108"/>
       <c r="D489" s="108"/>
@@ -17432,352 +17206,352 @@
       <c r="X489" s="108"/>
       <c r="Y489" s="108"/>
     </row>
-    <row r="490" spans="2:25" customFormat="1" ht="16">
+    <row r="490" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B490" s="98"/>
     </row>
-    <row r="491" spans="2:25" customFormat="1" ht="16">
+    <row r="491" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B491" s="98"/>
     </row>
-    <row r="492" spans="2:25" customFormat="1" ht="16">
+    <row r="492" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B492" s="98"/>
     </row>
-    <row r="493" spans="2:25" customFormat="1" ht="16">
+    <row r="493" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B493" s="98"/>
     </row>
-    <row r="494" spans="2:25" customFormat="1" ht="16">
+    <row r="494" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B494" s="98"/>
       <c r="D494">
         <v>111</v>
       </c>
     </row>
-    <row r="495" spans="2:25" customFormat="1" ht="16">
+    <row r="495" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B495" s="98"/>
     </row>
-    <row r="496" spans="2:25" customFormat="1" ht="16">
+    <row r="496" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B496" s="98"/>
     </row>
-    <row r="497" spans="2:2" customFormat="1" ht="16">
+    <row r="497" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B497" s="98"/>
     </row>
-    <row r="498" spans="2:2" customFormat="1" ht="16">
+    <row r="498" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B498" s="98"/>
     </row>
-    <row r="499" spans="2:2" customFormat="1" ht="16">
+    <row r="499" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B499" s="98"/>
     </row>
-    <row r="500" spans="2:2" customFormat="1" ht="16">
+    <row r="500" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B500" s="98"/>
     </row>
-    <row r="501" spans="2:2" customFormat="1" ht="16">
+    <row r="501" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B501" s="98"/>
     </row>
-    <row r="502" spans="2:2" customFormat="1" ht="16">
+    <row r="502" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B502" s="98"/>
     </row>
-    <row r="503" spans="2:2" customFormat="1" ht="16">
+    <row r="503" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B503" s="98"/>
     </row>
-    <row r="504" spans="2:2" customFormat="1" ht="16">
+    <row r="504" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B504" s="98"/>
     </row>
-    <row r="505" spans="2:2" customFormat="1" ht="16">
+    <row r="505" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B505" s="98"/>
     </row>
-    <row r="506" spans="2:2" customFormat="1" ht="16">
+    <row r="506" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B506" s="98"/>
     </row>
-    <row r="507" spans="2:2" customFormat="1" ht="16">
+    <row r="507" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B507" s="98"/>
     </row>
-    <row r="508" spans="2:2" customFormat="1" ht="16">
+    <row r="508" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B508" s="98"/>
     </row>
-    <row r="509" spans="2:2" customFormat="1" ht="16">
+    <row r="509" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B509" s="98"/>
     </row>
-    <row r="510" spans="2:2" customFormat="1" ht="16">
+    <row r="510" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B510" s="98"/>
     </row>
-    <row r="511" spans="2:2" customFormat="1" ht="16">
+    <row r="511" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B511" s="98"/>
     </row>
-    <row r="512" spans="2:2" customFormat="1" ht="16">
+    <row r="512" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B512" s="98"/>
     </row>
-    <row r="513" spans="2:4" customFormat="1" ht="16">
+    <row r="513" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B513" s="98"/>
     </row>
-    <row r="514" spans="2:4" customFormat="1" ht="16">
+    <row r="514" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B514" s="98"/>
     </row>
-    <row r="515" spans="2:4" customFormat="1" ht="16">
+    <row r="515" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B515" s="98"/>
     </row>
-    <row r="516" spans="2:4" customFormat="1" ht="16">
+    <row r="516" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B516" s="98"/>
     </row>
-    <row r="517" spans="2:4" customFormat="1" ht="16">
+    <row r="517" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B517" s="98"/>
       <c r="D517">
         <v>112</v>
       </c>
     </row>
-    <row r="518" spans="2:4" customFormat="1" ht="16">
+    <row r="518" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B518" s="98"/>
     </row>
-    <row r="519" spans="2:4" customFormat="1" ht="16">
+    <row r="519" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B519" s="98"/>
     </row>
-    <row r="520" spans="2:4" customFormat="1" ht="16">
+    <row r="520" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B520" s="98"/>
     </row>
-    <row r="521" spans="2:4" customFormat="1" ht="16">
+    <row r="521" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B521" s="98"/>
     </row>
-    <row r="522" spans="2:4" customFormat="1" ht="16">
+    <row r="522" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B522" s="98"/>
     </row>
-    <row r="523" spans="2:4" customFormat="1" ht="16">
+    <row r="523" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B523" s="98"/>
     </row>
-    <row r="524" spans="2:4" customFormat="1" ht="16">
+    <row r="524" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B524" s="98"/>
     </row>
-    <row r="525" spans="2:4" customFormat="1" ht="16">
+    <row r="525" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B525" s="98"/>
     </row>
-    <row r="526" spans="2:4" customFormat="1" ht="16">
+    <row r="526" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B526" s="98"/>
     </row>
-    <row r="527" spans="2:4" customFormat="1" ht="16">
+    <row r="527" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B527" s="98"/>
     </row>
-    <row r="528" spans="2:4" customFormat="1" ht="16">
+    <row r="528" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B528" s="98"/>
     </row>
-    <row r="529" spans="2:4" customFormat="1" ht="16">
+    <row r="529" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B529" s="98"/>
     </row>
-    <row r="530" spans="2:4" customFormat="1" ht="16">
+    <row r="530" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B530" s="98"/>
     </row>
-    <row r="531" spans="2:4" customFormat="1" ht="16">
+    <row r="531" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B531" s="98"/>
     </row>
-    <row r="532" spans="2:4" customFormat="1" ht="16">
+    <row r="532" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B532" s="98"/>
     </row>
-    <row r="533" spans="2:4" customFormat="1" ht="16">
+    <row r="533" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B533" s="98"/>
     </row>
-    <row r="534" spans="2:4" customFormat="1" ht="16">
+    <row r="534" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B534" s="98"/>
     </row>
-    <row r="535" spans="2:4" customFormat="1" ht="16">
+    <row r="535" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B535" s="98"/>
     </row>
-    <row r="536" spans="2:4" customFormat="1" ht="16">
+    <row r="536" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B536" s="98"/>
     </row>
-    <row r="537" spans="2:4" customFormat="1" ht="16">
+    <row r="537" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B537" s="98"/>
     </row>
-    <row r="538" spans="2:4" customFormat="1" ht="16">
+    <row r="538" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B538" s="98"/>
     </row>
-    <row r="539" spans="2:4" customFormat="1" ht="16">
+    <row r="539" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B539" s="98"/>
     </row>
-    <row r="540" spans="2:4" customFormat="1" ht="16">
+    <row r="540" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B540" s="98"/>
     </row>
-    <row r="541" spans="2:4" customFormat="1" ht="16">
+    <row r="541" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B541" s="98"/>
       <c r="D541">
         <v>113</v>
       </c>
     </row>
-    <row r="542" spans="2:4" customFormat="1" ht="16">
+    <row r="542" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B542" s="98"/>
     </row>
-    <row r="543" spans="2:4" customFormat="1" ht="16">
+    <row r="543" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B543" s="98"/>
     </row>
-    <row r="544" spans="2:4" customFormat="1" ht="16">
+    <row r="544" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B544" s="98"/>
     </row>
-    <row r="545" spans="2:2" customFormat="1" ht="16">
+    <row r="545" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B545" s="98"/>
     </row>
-    <row r="546" spans="2:2" customFormat="1" ht="16">
+    <row r="546" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B546" s="98"/>
     </row>
-    <row r="547" spans="2:2" customFormat="1" ht="16">
+    <row r="547" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B547" s="98"/>
     </row>
-    <row r="548" spans="2:2" customFormat="1" ht="16">
+    <row r="548" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B548" s="98"/>
     </row>
-    <row r="549" spans="2:2" customFormat="1" ht="16">
+    <row r="549" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B549" s="98"/>
     </row>
-    <row r="550" spans="2:2" customFormat="1" ht="16">
+    <row r="550" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B550" s="98"/>
     </row>
-    <row r="551" spans="2:2" customFormat="1" ht="16">
+    <row r="551" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B551" s="98"/>
     </row>
-    <row r="552" spans="2:2" customFormat="1" ht="16">
+    <row r="552" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B552" s="98"/>
     </row>
-    <row r="553" spans="2:2" customFormat="1" ht="16">
+    <row r="553" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B553" s="98"/>
     </row>
-    <row r="554" spans="2:2" customFormat="1" ht="16">
+    <row r="554" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B554" s="98"/>
     </row>
-    <row r="555" spans="2:2" customFormat="1" ht="16">
+    <row r="555" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B555" s="98"/>
     </row>
-    <row r="556" spans="2:2" customFormat="1" ht="16">
+    <row r="556" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B556" s="98"/>
     </row>
-    <row r="557" spans="2:2" customFormat="1" ht="16">
+    <row r="557" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B557" s="98"/>
     </row>
-    <row r="558" spans="2:2" customFormat="1" ht="16">
+    <row r="558" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B558" s="98"/>
     </row>
-    <row r="559" spans="2:2" customFormat="1" ht="16">
+    <row r="559" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B559" s="98"/>
     </row>
-    <row r="560" spans="2:2" customFormat="1" ht="16">
+    <row r="560" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B560" s="98"/>
     </row>
-    <row r="561" spans="2:4" customFormat="1" ht="16">
+    <row r="561" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B561" s="98"/>
     </row>
-    <row r="562" spans="2:4" customFormat="1" ht="16">
+    <row r="562" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B562" s="98"/>
     </row>
-    <row r="563" spans="2:4" customFormat="1" ht="16">
+    <row r="563" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B563" s="98"/>
     </row>
-    <row r="564" spans="2:4" customFormat="1" ht="16">
+    <row r="564" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B564" s="98"/>
     </row>
-    <row r="565" spans="2:4" customFormat="1" ht="16">
+    <row r="565" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B565" s="98"/>
     </row>
-    <row r="566" spans="2:4" customFormat="1" ht="16">
+    <row r="566" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B566" s="98"/>
     </row>
-    <row r="567" spans="2:4" customFormat="1" ht="16">
+    <row r="567" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B567" s="98"/>
       <c r="D567">
         <v>114</v>
       </c>
     </row>
-    <row r="568" spans="2:4" customFormat="1" ht="16">
+    <row r="568" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B568" s="98"/>
     </row>
-    <row r="569" spans="2:4" customFormat="1" ht="16">
+    <row r="569" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B569" s="98"/>
     </row>
-    <row r="570" spans="2:4" customFormat="1" ht="16">
+    <row r="570" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B570" s="98"/>
     </row>
-    <row r="571" spans="2:4" customFormat="1" ht="16">
+    <row r="571" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B571" s="98"/>
     </row>
-    <row r="572" spans="2:4" customFormat="1" ht="16">
+    <row r="572" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B572" s="98"/>
     </row>
-    <row r="573" spans="2:4" customFormat="1" ht="16">
+    <row r="573" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B573" s="98"/>
     </row>
-    <row r="574" spans="2:4" customFormat="1" ht="16">
+    <row r="574" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B574" s="98"/>
     </row>
-    <row r="575" spans="2:4" customFormat="1" ht="16">
+    <row r="575" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B575" s="98"/>
     </row>
-    <row r="576" spans="2:4" customFormat="1" ht="16">
+    <row r="576" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B576" s="98"/>
     </row>
-    <row r="577" spans="2:7" customFormat="1" ht="16">
+    <row r="577" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B577" s="98"/>
     </row>
-    <row r="578" spans="2:7" customFormat="1" ht="16">
+    <row r="578" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B578" s="98"/>
       <c r="G578" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="579" spans="2:7" customFormat="1" ht="16">
+    <row r="579" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B579" s="98"/>
       <c r="G579" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="580" spans="2:7" customFormat="1" ht="16">
+    <row r="580" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B580" s="98"/>
       <c r="G580" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="581" spans="2:7" customFormat="1" ht="16">
+    <row r="581" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B581" s="98"/>
     </row>
-    <row r="582" spans="2:7" customFormat="1" ht="16">
+    <row r="582" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B582" s="98"/>
     </row>
-    <row r="583" spans="2:7" customFormat="1" ht="16">
+    <row r="583" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B583" s="98"/>
     </row>
-    <row r="584" spans="2:7" customFormat="1" ht="16">
+    <row r="584" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B584" s="98"/>
     </row>
-    <row r="585" spans="2:7" customFormat="1" ht="16">
+    <row r="585" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B585" s="98"/>
     </row>
-    <row r="586" spans="2:7" customFormat="1" ht="16">
+    <row r="586" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B586" s="98"/>
     </row>
-    <row r="587" spans="2:7" customFormat="1" ht="16">
+    <row r="587" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B587" s="98"/>
     </row>
-    <row r="588" spans="2:7" customFormat="1" ht="16">
+    <row r="588" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B588" s="98"/>
     </row>
-    <row r="589" spans="2:7" customFormat="1" ht="16">
+    <row r="589" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B589" s="98"/>
     </row>
-    <row r="590" spans="2:7" customFormat="1" ht="16">
+    <row r="590" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B590" s="98"/>
     </row>
-    <row r="591" spans="2:7" customFormat="1" ht="16">
+    <row r="591" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B591" s="98"/>
     </row>
-    <row r="592" spans="2:7" customFormat="1" ht="16">
+    <row r="592" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B592" s="98"/>
     </row>
-    <row r="593" spans="2:35" customFormat="1" ht="16">
+    <row r="593" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B593" s="98"/>
     </row>
-    <row r="594" spans="2:35" customFormat="1" ht="16">
+    <row r="594" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B594" s="98"/>
     </row>
-    <row r="595" spans="2:35" customFormat="1" ht="16">
+    <row r="595" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B595" s="98"/>
     </row>
-    <row r="596" spans="2:35" customFormat="1" ht="16">
+    <row r="596" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B596" s="98"/>
     </row>
-    <row r="597" spans="2:35" customFormat="1" ht="17" thickBot="1">
+    <row r="597" spans="2:35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B597" s="98"/>
     </row>
-    <row r="598" spans="2:35" s="231" customFormat="1">
+    <row r="598" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B598" s="232"/>
       <c r="C598" s="233" t="s">
         <v>24</v>
@@ -17819,7 +17593,7 @@
       <c r="AH598" s="218"/>
       <c r="AI598" s="218"/>
     </row>
-    <row r="599" spans="2:35" s="231" customFormat="1">
+    <row r="599" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B599" s="234"/>
       <c r="C599" s="187"/>
       <c r="D599" s="187"/>
@@ -17855,10 +17629,10 @@
       <c r="AH599" s="187"/>
       <c r="AI599" s="187"/>
     </row>
-    <row r="600" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="600" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B600" s="234"/>
       <c r="C600" s="235" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D600" s="236"/>
       <c r="E600" s="236"/>
@@ -17893,7 +17667,7 @@
       <c r="AH600" s="237"/>
       <c r="AI600" s="237"/>
     </row>
-    <row r="601" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="601" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B601" s="234"/>
       <c r="C601" s="236"/>
       <c r="D601" s="236"/>
@@ -17929,7 +17703,7 @@
       <c r="AH601" s="237"/>
       <c r="AI601" s="237"/>
     </row>
-    <row r="602" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="602" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B602" s="234"/>
       <c r="C602" s="236"/>
       <c r="D602" s="236"/>
@@ -17965,7 +17739,7 @@
       <c r="AH602" s="237"/>
       <c r="AI602" s="237"/>
     </row>
-    <row r="603" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="603" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B603" s="234"/>
       <c r="C603" s="236"/>
       <c r="D603" s="236"/>
@@ -18001,7 +17775,7 @@
       <c r="AH603" s="237"/>
       <c r="AI603" s="237"/>
     </row>
-    <row r="604" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="604" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B604" s="234"/>
       <c r="C604" s="236"/>
       <c r="D604" s="236"/>
@@ -18037,7 +17811,7 @@
       <c r="AH604" s="237"/>
       <c r="AI604" s="237"/>
     </row>
-    <row r="605" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="605" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B605" s="234"/>
       <c r="C605" s="236"/>
       <c r="J605" s="108"/>
@@ -18067,7 +17841,7 @@
       <c r="AH605" s="237"/>
       <c r="AI605" s="237"/>
     </row>
-    <row r="606" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="606" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B606" s="234"/>
       <c r="C606" s="236"/>
       <c r="J606" s="108"/>
@@ -18097,7 +17871,7 @@
       <c r="AH606" s="237"/>
       <c r="AI606" s="237"/>
     </row>
-    <row r="607" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="607" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B607" s="234"/>
       <c r="C607" s="236"/>
       <c r="J607" s="108"/>
@@ -18127,7 +17901,7 @@
       <c r="AH607" s="237"/>
       <c r="AI607" s="237"/>
     </row>
-    <row r="608" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="608" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B608" s="234"/>
       <c r="C608" s="108"/>
       <c r="D608" s="108"/>
@@ -18163,7 +17937,7 @@
       <c r="AH608" s="237"/>
       <c r="AI608" s="237"/>
     </row>
-    <row r="609" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="609" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B609" s="234"/>
       <c r="C609" s="108"/>
       <c r="D609" s="108"/>
@@ -18199,7 +17973,7 @@
       <c r="AH609" s="237"/>
       <c r="AI609" s="237"/>
     </row>
-    <row r="610" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="610" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B610" s="234"/>
       <c r="C610" s="108"/>
       <c r="D610" s="108"/>
@@ -18235,7 +18009,7 @@
       <c r="AH610" s="237"/>
       <c r="AI610" s="237"/>
     </row>
-    <row r="611" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="611" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B611" s="234"/>
       <c r="C611" s="108"/>
       <c r="D611" s="108"/>
@@ -18271,7 +18045,7 @@
       <c r="AH611" s="237"/>
       <c r="AI611" s="237"/>
     </row>
-    <row r="612" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="612" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B612" s="234"/>
       <c r="C612" s="108"/>
       <c r="D612" s="108"/>
@@ -18307,7 +18081,7 @@
       <c r="AH612" s="237"/>
       <c r="AI612" s="237"/>
     </row>
-    <row r="613" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="613" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B613" s="234"/>
       <c r="C613" s="108"/>
       <c r="D613" s="108"/>
@@ -18343,7 +18117,7 @@
       <c r="AH613" s="237"/>
       <c r="AI613" s="237"/>
     </row>
-    <row r="614" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="614" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B614" s="234"/>
       <c r="C614" s="108"/>
       <c r="D614" s="108"/>
@@ -18379,7 +18153,7 @@
       <c r="AH614" s="237"/>
       <c r="AI614" s="237"/>
     </row>
-    <row r="615" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="615" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B615" s="234"/>
       <c r="C615" s="108"/>
       <c r="D615" s="108"/>
@@ -18415,7 +18189,7 @@
       <c r="AH615" s="237"/>
       <c r="AI615" s="237"/>
     </row>
-    <row r="616" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="616" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B616" s="234"/>
       <c r="C616" s="108"/>
       <c r="D616" s="108"/>
@@ -18451,7 +18225,7 @@
       <c r="AH616" s="237"/>
       <c r="AI616" s="237"/>
     </row>
-    <row r="617" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="617" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B617" s="234"/>
       <c r="C617" s="108"/>
       <c r="D617" s="108"/>
@@ -18487,7 +18261,7 @@
       <c r="AH617" s="237"/>
       <c r="AI617" s="237"/>
     </row>
-    <row r="618" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="618" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B618" s="234"/>
       <c r="C618" s="108"/>
       <c r="D618" s="108"/>
@@ -18523,7 +18297,7 @@
       <c r="AH618" s="237"/>
       <c r="AI618" s="237"/>
     </row>
-    <row r="619" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="619" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B619" s="234"/>
       <c r="C619" s="108"/>
       <c r="D619" s="108"/>
@@ -18559,7 +18333,7 @@
       <c r="AH619" s="237"/>
       <c r="AI619" s="237"/>
     </row>
-    <row r="620" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="620" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B620" s="234"/>
       <c r="C620" s="108"/>
       <c r="D620" s="108"/>
@@ -18595,7 +18369,7 @@
       <c r="AH620" s="237"/>
       <c r="AI620" s="237"/>
     </row>
-    <row r="621" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="621" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B621" s="234"/>
       <c r="C621" s="108"/>
       <c r="D621" s="108"/>
@@ -18631,7 +18405,7 @@
       <c r="AH621" s="237"/>
       <c r="AI621" s="237"/>
     </row>
-    <row r="622" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="622" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B622" s="234"/>
       <c r="C622" s="108"/>
       <c r="D622" s="108"/>
@@ -18667,7 +18441,7 @@
       <c r="AH622" s="237"/>
       <c r="AI622" s="237"/>
     </row>
-    <row r="623" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="623" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B623" s="234"/>
       <c r="C623" s="108"/>
       <c r="D623" s="108"/>
@@ -18703,7 +18477,7 @@
       <c r="AH623" s="237"/>
       <c r="AI623" s="237"/>
     </row>
-    <row r="624" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="624" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B624" s="234"/>
       <c r="C624" s="108"/>
       <c r="D624" s="108"/>
@@ -18739,7 +18513,7 @@
       <c r="AH624" s="237"/>
       <c r="AI624" s="237"/>
     </row>
-    <row r="625" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="625" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B625" s="234"/>
       <c r="C625" s="237"/>
       <c r="D625" s="237"/>
@@ -18775,7 +18549,7 @@
       <c r="AH625" s="237"/>
       <c r="AI625" s="237"/>
     </row>
-    <row r="626" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="626" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B626" s="234"/>
       <c r="C626" s="237"/>
       <c r="D626" s="237"/>
@@ -18811,7 +18585,7 @@
       <c r="AH626" s="237"/>
       <c r="AI626" s="237"/>
     </row>
-    <row r="627" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="627" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B627" s="234"/>
       <c r="C627" s="237"/>
       <c r="D627" s="237"/>
@@ -18847,7 +18621,7 @@
       <c r="AH627" s="237"/>
       <c r="AI627" s="237"/>
     </row>
-    <row r="628" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="628" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B628" s="234"/>
       <c r="C628" s="237"/>
       <c r="D628" s="237"/>
@@ -18883,7 +18657,7 @@
       <c r="AH628" s="237"/>
       <c r="AI628" s="237"/>
     </row>
-    <row r="629" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="629" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B629" s="234"/>
       <c r="C629" s="237"/>
       <c r="D629" s="237"/>
@@ -18919,7 +18693,7 @@
       <c r="AH629" s="237"/>
       <c r="AI629" s="237"/>
     </row>
-    <row r="630" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="630" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B630" s="234"/>
       <c r="C630" s="237"/>
       <c r="D630" s="237"/>
@@ -18955,7 +18729,7 @@
       <c r="AH630" s="237"/>
       <c r="AI630" s="237"/>
     </row>
-    <row r="631" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="631" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B631" s="234"/>
       <c r="C631" s="237"/>
       <c r="D631" s="237"/>
@@ -18991,7 +18765,7 @@
       <c r="AH631" s="237"/>
       <c r="AI631" s="237"/>
     </row>
-    <row r="632" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="632" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B632" s="234"/>
       <c r="C632" s="237"/>
       <c r="D632" s="236">
@@ -19003,10 +18777,10 @@
         <v>54600</v>
       </c>
       <c r="H632" s="236" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I632" s="236" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J632" s="237"/>
       <c r="K632" s="237"/>
@@ -19035,7 +18809,7 @@
       <c r="AH632" s="237"/>
       <c r="AI632" s="237"/>
     </row>
-    <row r="633" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="633" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B633" s="234"/>
       <c r="C633" s="237"/>
       <c r="D633" s="236"/>
@@ -19046,7 +18820,7 @@
         <v>1000000</v>
       </c>
       <c r="H633" s="236" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I633" s="236"/>
       <c r="J633" s="237"/>
@@ -19076,7 +18850,7 @@
       <c r="AH633" s="237"/>
       <c r="AI633" s="237"/>
     </row>
-    <row r="634" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="634" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B634" s="234"/>
       <c r="C634" s="237"/>
       <c r="D634" s="236"/>
@@ -19087,7 +18861,7 @@
         <v>5.4600000000000003E-2</v>
       </c>
       <c r="H634" s="236" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I634" s="236"/>
       <c r="J634" s="237"/>
@@ -19117,7 +18891,7 @@
       <c r="AH634" s="237"/>
       <c r="AI634" s="237"/>
     </row>
-    <row r="635" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="635" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B635" s="234"/>
       <c r="C635" s="237"/>
       <c r="D635" s="237"/>
@@ -19153,7 +18927,7 @@
       <c r="AH635" s="237"/>
       <c r="AI635" s="237"/>
     </row>
-    <row r="636" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="636" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B636" s="234"/>
       <c r="C636" s="237"/>
       <c r="D636" s="237"/>
@@ -19189,7 +18963,7 @@
       <c r="AH636" s="237"/>
       <c r="AI636" s="237"/>
     </row>
-    <row r="637" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="637" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B637" s="234"/>
       <c r="C637" s="237"/>
       <c r="D637" s="237"/>
@@ -19225,7 +18999,7 @@
       <c r="AH637" s="237"/>
       <c r="AI637" s="237"/>
     </row>
-    <row r="638" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="638" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B638" s="234"/>
       <c r="C638" s="237"/>
       <c r="D638" s="237"/>
@@ -19261,7 +19035,7 @@
       <c r="AH638" s="237"/>
       <c r="AI638" s="237"/>
     </row>
-    <row r="639" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="639" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B639" s="234"/>
       <c r="C639" s="237"/>
       <c r="D639" s="237"/>
@@ -19297,7 +19071,7 @@
       <c r="AH639" s="237"/>
       <c r="AI639" s="237"/>
     </row>
-    <row r="640" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="640" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B640" s="234"/>
       <c r="C640" s="237"/>
       <c r="D640" s="237"/>
@@ -19333,7 +19107,7 @@
       <c r="AH640" s="237"/>
       <c r="AI640" s="237"/>
     </row>
-    <row r="641" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="641" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B641" s="234"/>
       <c r="C641" s="237"/>
       <c r="D641" s="237"/>
@@ -19369,7 +19143,7 @@
       <c r="AH641" s="237"/>
       <c r="AI641" s="237"/>
     </row>
-    <row r="642" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="642" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B642" s="234"/>
       <c r="C642" s="237"/>
       <c r="D642" s="237"/>
@@ -19405,7 +19179,7 @@
       <c r="AH642" s="237"/>
       <c r="AI642" s="237"/>
     </row>
-    <row r="643" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="643" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B643" s="234"/>
       <c r="C643" s="237"/>
       <c r="D643" s="237"/>
@@ -19441,7 +19215,7 @@
       <c r="AH643" s="237"/>
       <c r="AI643" s="237"/>
     </row>
-    <row r="644" spans="2:35" s="231" customFormat="1" ht="16">
+    <row r="644" spans="2:35" s="231" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B644" s="234"/>
       <c r="C644" s="237"/>
       <c r="D644" s="237"/>
@@ -19484,10 +19258,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>